--- a/mata_kuliah.xlsx
+++ b/mata_kuliah.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Tubes_MBD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alson\Documents\GitHub\TubesMBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7104"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="298">
   <si>
     <t>id_mk</t>
   </si>
@@ -89,6 +89,864 @@
   </si>
   <si>
     <t>jns_mk</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>IF1101</t>
+  </si>
+  <si>
+    <t>IF1102</t>
+  </si>
+  <si>
+    <t>IF1103</t>
+  </si>
+  <si>
+    <t>IF1104</t>
+  </si>
+  <si>
+    <t>IF1105</t>
+  </si>
+  <si>
+    <t>IF1106</t>
+  </si>
+  <si>
+    <t>IF1107</t>
+  </si>
+  <si>
+    <t>IF1208</t>
+  </si>
+  <si>
+    <t>IF1209</t>
+  </si>
+  <si>
+    <t>IF1210</t>
+  </si>
+  <si>
+    <t>IF1211</t>
+  </si>
+  <si>
+    <t>IF1212</t>
+  </si>
+  <si>
+    <t>IF1213</t>
+  </si>
+  <si>
+    <t>IF1214</t>
+  </si>
+  <si>
+    <t>IF2115</t>
+  </si>
+  <si>
+    <t>IF2116</t>
+  </si>
+  <si>
+    <t>IF2117</t>
+  </si>
+  <si>
+    <t>IF2118</t>
+  </si>
+  <si>
+    <t>IF2119</t>
+  </si>
+  <si>
+    <t>IF2120</t>
+  </si>
+  <si>
+    <t>IF2121</t>
+  </si>
+  <si>
+    <t>IF2222</t>
+  </si>
+  <si>
+    <t>IF2223</t>
+  </si>
+  <si>
+    <t>IF2224</t>
+  </si>
+  <si>
+    <t>IF2225</t>
+  </si>
+  <si>
+    <t>IF2226</t>
+  </si>
+  <si>
+    <t>IF2227</t>
+  </si>
+  <si>
+    <t>IF2228</t>
+  </si>
+  <si>
+    <t>IF3129</t>
+  </si>
+  <si>
+    <t>IF3130</t>
+  </si>
+  <si>
+    <t>IF3131</t>
+  </si>
+  <si>
+    <t>IF3132</t>
+  </si>
+  <si>
+    <t>IF3133</t>
+  </si>
+  <si>
+    <t>IF3134</t>
+  </si>
+  <si>
+    <t>IF3135</t>
+  </si>
+  <si>
+    <t>IF3236</t>
+  </si>
+  <si>
+    <t>IF3237</t>
+  </si>
+  <si>
+    <t>IF3238</t>
+  </si>
+  <si>
+    <t>IF3239</t>
+  </si>
+  <si>
+    <t>IF3240</t>
+  </si>
+  <si>
+    <t>IF3241</t>
+  </si>
+  <si>
+    <t>IF3242</t>
+  </si>
+  <si>
+    <t>IF4143</t>
+  </si>
+  <si>
+    <t>IF4144</t>
+  </si>
+  <si>
+    <t>IF4145</t>
+  </si>
+  <si>
+    <t>IF4146</t>
+  </si>
+  <si>
+    <t>IF4147</t>
+  </si>
+  <si>
+    <t>IF4148</t>
+  </si>
+  <si>
+    <t>IF4149</t>
+  </si>
+  <si>
+    <t>IF4250</t>
+  </si>
+  <si>
+    <t>IF4251</t>
+  </si>
+  <si>
+    <t>IF4252</t>
+  </si>
+  <si>
+    <t>IF4253</t>
+  </si>
+  <si>
+    <t>IF4254</t>
+  </si>
+  <si>
+    <t>IF4255</t>
+  </si>
+  <si>
+    <t>IF4256</t>
+  </si>
+  <si>
+    <t>IF5057</t>
+  </si>
+  <si>
+    <t>IF5058</t>
+  </si>
+  <si>
+    <t>IF5059</t>
+  </si>
+  <si>
+    <t>IF5060</t>
+  </si>
+  <si>
+    <t>IF5061</t>
+  </si>
+  <si>
+    <t>IF5062</t>
+  </si>
+  <si>
+    <t>IF5063</t>
+  </si>
+  <si>
+    <t>IF5064</t>
+  </si>
+  <si>
+    <t>IF5065</t>
+  </si>
+  <si>
+    <t>IF5066</t>
+  </si>
+  <si>
+    <t>IF5067</t>
+  </si>
+  <si>
+    <t>IF5068</t>
+  </si>
+  <si>
+    <t>IF5069</t>
+  </si>
+  <si>
+    <t>IF5070</t>
+  </si>
+  <si>
+    <t>EL1101</t>
+  </si>
+  <si>
+    <t>EL1102</t>
+  </si>
+  <si>
+    <t>EL1103</t>
+  </si>
+  <si>
+    <t>EL1104</t>
+  </si>
+  <si>
+    <t>EL1105</t>
+  </si>
+  <si>
+    <t>EL1106</t>
+  </si>
+  <si>
+    <t>EL1107</t>
+  </si>
+  <si>
+    <t>EL1208</t>
+  </si>
+  <si>
+    <t>EL1209</t>
+  </si>
+  <si>
+    <t>EL1210</t>
+  </si>
+  <si>
+    <t>EL1211</t>
+  </si>
+  <si>
+    <t>EL1212</t>
+  </si>
+  <si>
+    <t>EL1213</t>
+  </si>
+  <si>
+    <t>EL1214</t>
+  </si>
+  <si>
+    <t>EL2115</t>
+  </si>
+  <si>
+    <t>EL2116</t>
+  </si>
+  <si>
+    <t>EL2117</t>
+  </si>
+  <si>
+    <t>EL2118</t>
+  </si>
+  <si>
+    <t>EL2119</t>
+  </si>
+  <si>
+    <t>EL2120</t>
+  </si>
+  <si>
+    <t>EL2121</t>
+  </si>
+  <si>
+    <t>EL2222</t>
+  </si>
+  <si>
+    <t>EL2223</t>
+  </si>
+  <si>
+    <t>EL2224</t>
+  </si>
+  <si>
+    <t>EL2225</t>
+  </si>
+  <si>
+    <t>EL2226</t>
+  </si>
+  <si>
+    <t>EL2227</t>
+  </si>
+  <si>
+    <t>EL2228</t>
+  </si>
+  <si>
+    <t>EL3129</t>
+  </si>
+  <si>
+    <t>EL3130</t>
+  </si>
+  <si>
+    <t>EL3131</t>
+  </si>
+  <si>
+    <t>EL3132</t>
+  </si>
+  <si>
+    <t>EL3133</t>
+  </si>
+  <si>
+    <t>EL3134</t>
+  </si>
+  <si>
+    <t>EL3135</t>
+  </si>
+  <si>
+    <t>EL3236</t>
+  </si>
+  <si>
+    <t>EL3237</t>
+  </si>
+  <si>
+    <t>EL3238</t>
+  </si>
+  <si>
+    <t>EL3239</t>
+  </si>
+  <si>
+    <t>EL3240</t>
+  </si>
+  <si>
+    <t>EL3241</t>
+  </si>
+  <si>
+    <t>EL3242</t>
+  </si>
+  <si>
+    <t>EL4143</t>
+  </si>
+  <si>
+    <t>EL4144</t>
+  </si>
+  <si>
+    <t>EL4145</t>
+  </si>
+  <si>
+    <t>EL4146</t>
+  </si>
+  <si>
+    <t>EL4147</t>
+  </si>
+  <si>
+    <t>EL4148</t>
+  </si>
+  <si>
+    <t>EL4149</t>
+  </si>
+  <si>
+    <t>EL4250</t>
+  </si>
+  <si>
+    <t>EL4251</t>
+  </si>
+  <si>
+    <t>EL4252</t>
+  </si>
+  <si>
+    <t>EL4253</t>
+  </si>
+  <si>
+    <t>EL4254</t>
+  </si>
+  <si>
+    <t>EL4255</t>
+  </si>
+  <si>
+    <t>EL4256</t>
+  </si>
+  <si>
+    <t>EL5057</t>
+  </si>
+  <si>
+    <t>EL5058</t>
+  </si>
+  <si>
+    <t>EL5059</t>
+  </si>
+  <si>
+    <t>EL5060</t>
+  </si>
+  <si>
+    <t>EL5061</t>
+  </si>
+  <si>
+    <t>EL5062</t>
+  </si>
+  <si>
+    <t>EL5063</t>
+  </si>
+  <si>
+    <t>EL5064</t>
+  </si>
+  <si>
+    <t>EL5065</t>
+  </si>
+  <si>
+    <t>EL5066</t>
+  </si>
+  <si>
+    <t>EL5067</t>
+  </si>
+  <si>
+    <t>EL5068</t>
+  </si>
+  <si>
+    <t>EL5069</t>
+  </si>
+  <si>
+    <t>AR1101</t>
+  </si>
+  <si>
+    <t>AR1102</t>
+  </si>
+  <si>
+    <t>AR1103</t>
+  </si>
+  <si>
+    <t>AR1104</t>
+  </si>
+  <si>
+    <t>AR1105</t>
+  </si>
+  <si>
+    <t>AR1106</t>
+  </si>
+  <si>
+    <t>AR1107</t>
+  </si>
+  <si>
+    <t>AR1208</t>
+  </si>
+  <si>
+    <t>AR1209</t>
+  </si>
+  <si>
+    <t>AR1210</t>
+  </si>
+  <si>
+    <t>AR1211</t>
+  </si>
+  <si>
+    <t>AR1212</t>
+  </si>
+  <si>
+    <t>AR1213</t>
+  </si>
+  <si>
+    <t>AR1214</t>
+  </si>
+  <si>
+    <t>AR2115</t>
+  </si>
+  <si>
+    <t>AR2116</t>
+  </si>
+  <si>
+    <t>AR2117</t>
+  </si>
+  <si>
+    <t>AR2118</t>
+  </si>
+  <si>
+    <t>AR2119</t>
+  </si>
+  <si>
+    <t>AR2120</t>
+  </si>
+  <si>
+    <t>AR2121</t>
+  </si>
+  <si>
+    <t>AR2222</t>
+  </si>
+  <si>
+    <t>AR2223</t>
+  </si>
+  <si>
+    <t>AR2224</t>
+  </si>
+  <si>
+    <t>AR2225</t>
+  </si>
+  <si>
+    <t>AR2226</t>
+  </si>
+  <si>
+    <t>AR2227</t>
+  </si>
+  <si>
+    <t>AR2228</t>
+  </si>
+  <si>
+    <t>AR3129</t>
+  </si>
+  <si>
+    <t>AR3130</t>
+  </si>
+  <si>
+    <t>AR3131</t>
+  </si>
+  <si>
+    <t>AR3132</t>
+  </si>
+  <si>
+    <t>AR3133</t>
+  </si>
+  <si>
+    <t>AR3134</t>
+  </si>
+  <si>
+    <t>AR3135</t>
+  </si>
+  <si>
+    <t>AR3236</t>
+  </si>
+  <si>
+    <t>AR3237</t>
+  </si>
+  <si>
+    <t>AR3238</t>
+  </si>
+  <si>
+    <t>AR3239</t>
+  </si>
+  <si>
+    <t>AR3240</t>
+  </si>
+  <si>
+    <t>AR3241</t>
+  </si>
+  <si>
+    <t>AR3242</t>
+  </si>
+  <si>
+    <t>AR4143</t>
+  </si>
+  <si>
+    <t>AR4144</t>
+  </si>
+  <si>
+    <t>AR4145</t>
+  </si>
+  <si>
+    <t>AR4146</t>
+  </si>
+  <si>
+    <t>AR4147</t>
+  </si>
+  <si>
+    <t>AR4148</t>
+  </si>
+  <si>
+    <t>AR4149</t>
+  </si>
+  <si>
+    <t>AR4250</t>
+  </si>
+  <si>
+    <t>AR4251</t>
+  </si>
+  <si>
+    <t>AR4252</t>
+  </si>
+  <si>
+    <t>AR4253</t>
+  </si>
+  <si>
+    <t>AR4254</t>
+  </si>
+  <si>
+    <t>AR4255</t>
+  </si>
+  <si>
+    <t>AR4256</t>
+  </si>
+  <si>
+    <t>AR5057</t>
+  </si>
+  <si>
+    <t>AR5058</t>
+  </si>
+  <si>
+    <t>AR5059</t>
+  </si>
+  <si>
+    <t>AR5060</t>
+  </si>
+  <si>
+    <t>AR5061</t>
+  </si>
+  <si>
+    <t>AR5062</t>
+  </si>
+  <si>
+    <t>AR5063</t>
+  </si>
+  <si>
+    <t>AR5064</t>
+  </si>
+  <si>
+    <t>AR5065</t>
+  </si>
+  <si>
+    <t>AR5066</t>
+  </si>
+  <si>
+    <t>AR5067</t>
+  </si>
+  <si>
+    <t>AR5068</t>
+  </si>
+  <si>
+    <t>AR5069</t>
+  </si>
+  <si>
+    <t>AR5070</t>
+  </si>
+  <si>
+    <t>SI1101</t>
+  </si>
+  <si>
+    <t>SI1102</t>
+  </si>
+  <si>
+    <t>SI1103</t>
+  </si>
+  <si>
+    <t>SI1104</t>
+  </si>
+  <si>
+    <t>SI1105</t>
+  </si>
+  <si>
+    <t>SI1106</t>
+  </si>
+  <si>
+    <t>SI1107</t>
+  </si>
+  <si>
+    <t>SI1208</t>
+  </si>
+  <si>
+    <t>SI1209</t>
+  </si>
+  <si>
+    <t>SI1210</t>
+  </si>
+  <si>
+    <t>SI1211</t>
+  </si>
+  <si>
+    <t>SI1212</t>
+  </si>
+  <si>
+    <t>SI1213</t>
+  </si>
+  <si>
+    <t>SI1214</t>
+  </si>
+  <si>
+    <t>SI2115</t>
+  </si>
+  <si>
+    <t>SI2116</t>
+  </si>
+  <si>
+    <t>SI2117</t>
+  </si>
+  <si>
+    <t>SI2118</t>
+  </si>
+  <si>
+    <t>SI2119</t>
+  </si>
+  <si>
+    <t>SI2120</t>
+  </si>
+  <si>
+    <t>SI2121</t>
+  </si>
+  <si>
+    <t>SI2222</t>
+  </si>
+  <si>
+    <t>SI2223</t>
+  </si>
+  <si>
+    <t>SI2224</t>
+  </si>
+  <si>
+    <t>SI2225</t>
+  </si>
+  <si>
+    <t>SI2226</t>
+  </si>
+  <si>
+    <t>SI2227</t>
+  </si>
+  <si>
+    <t>SI2228</t>
+  </si>
+  <si>
+    <t>SI3129</t>
+  </si>
+  <si>
+    <t>SI3130</t>
+  </si>
+  <si>
+    <t>SI3131</t>
+  </si>
+  <si>
+    <t>SI3132</t>
+  </si>
+  <si>
+    <t>SI3133</t>
+  </si>
+  <si>
+    <t>SI3134</t>
+  </si>
+  <si>
+    <t>SI3135</t>
+  </si>
+  <si>
+    <t>SI3236</t>
+  </si>
+  <si>
+    <t>SI3237</t>
+  </si>
+  <si>
+    <t>SI3238</t>
+  </si>
+  <si>
+    <t>SI3239</t>
+  </si>
+  <si>
+    <t>SI3240</t>
+  </si>
+  <si>
+    <t>SI3241</t>
+  </si>
+  <si>
+    <t>SI3242</t>
+  </si>
+  <si>
+    <t>SI4143</t>
+  </si>
+  <si>
+    <t>SI4144</t>
+  </si>
+  <si>
+    <t>SI4145</t>
+  </si>
+  <si>
+    <t>SI4146</t>
+  </si>
+  <si>
+    <t>SI4147</t>
+  </si>
+  <si>
+    <t>SI4148</t>
+  </si>
+  <si>
+    <t>SI4149</t>
+  </si>
+  <si>
+    <t>SI4250</t>
+  </si>
+  <si>
+    <t>SI4251</t>
+  </si>
+  <si>
+    <t>SI4252</t>
+  </si>
+  <si>
+    <t>SI4253</t>
+  </si>
+  <si>
+    <t>SI4254</t>
+  </si>
+  <si>
+    <t>SI4255</t>
+  </si>
+  <si>
+    <t>SI4256</t>
+  </si>
+  <si>
+    <t>SI5057</t>
+  </si>
+  <si>
+    <t>SI5058</t>
+  </si>
+  <si>
+    <t>SI5059</t>
+  </si>
+  <si>
+    <t>SI5060</t>
+  </si>
+  <si>
+    <t>SI5061</t>
+  </si>
+  <si>
+    <t>SI5062</t>
+  </si>
+  <si>
+    <t>SI5063</t>
+  </si>
+  <si>
+    <t>SI5064</t>
+  </si>
+  <si>
+    <t>SI5065</t>
+  </si>
+  <si>
+    <t>SI5066</t>
+  </si>
+  <si>
+    <t>SI5067</t>
+  </si>
+  <si>
+    <t>SI5068</t>
+  </si>
+  <si>
+    <t>SI5069</t>
+  </si>
+  <si>
+    <t>SI5070</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -127,10 +985,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -225,6 +1083,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -260,6 +1135,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,15 +1307,15 @@
   <dimension ref="A1:T280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,2567 +1349,5078 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>294</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>294</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>296</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>294</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>295</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>294</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1010</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>294</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1011</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>297</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1012</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>296</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1013</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>295</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1014</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1015</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>297</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1016</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>295</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1017</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>295</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1018</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>295</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1019</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1020</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>297</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1021</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>297</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1022</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1023</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>295</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1024</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>294</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1025</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s">
+        <v>294</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1026</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>294</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1027</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
+        <v>296</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1028</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1029</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>296</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1030</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>297</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1031</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1032</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" t="s">
+        <v>295</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1033</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" t="s">
+        <v>296</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1034</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1035</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" t="s">
+        <v>296</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1036</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" t="s">
+        <v>294</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1037</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1038</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" t="s">
+        <v>295</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1039</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" t="s">
+        <v>295</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1040</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1041</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1042</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1043</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1044</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1045</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1046</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1047</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1048</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1049</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1050</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1051</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1052</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1053</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1054</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1055</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1056</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1057</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1058</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1059</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1060</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>74</v>
+      </c>
+      <c r="F61" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1061</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1062</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>76</v>
+      </c>
+      <c r="F63" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1063</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1064</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1065</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>79</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1066</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1067</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>81</v>
+      </c>
+      <c r="F68" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1068</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>82</v>
+      </c>
+      <c r="F69" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1069</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>83</v>
+      </c>
+      <c r="F70" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1070</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>84</v>
+      </c>
+      <c r="F71" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2001</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>85</v>
+      </c>
+      <c r="F72" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2002</v>
       </c>
       <c r="B73">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>86</v>
+      </c>
+      <c r="F73" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2003</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>87</v>
+      </c>
+      <c r="F74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2004</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>88</v>
+      </c>
+      <c r="F75" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2005</v>
       </c>
       <c r="B76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
+        <v>89</v>
+      </c>
+      <c r="F76" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2006</v>
       </c>
       <c r="B77">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>90</v>
+      </c>
+      <c r="F77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2007</v>
       </c>
       <c r="B78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2008</v>
       </c>
       <c r="B79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>92</v>
+      </c>
+      <c r="F79" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2009</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>93</v>
+      </c>
+      <c r="F80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2010</v>
       </c>
       <c r="B81">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>94</v>
+      </c>
+      <c r="F81" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2011</v>
       </c>
       <c r="B82">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>95</v>
+      </c>
+      <c r="F82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2012</v>
       </c>
       <c r="B83">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>96</v>
+      </c>
+      <c r="F83" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2013</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>97</v>
+      </c>
+      <c r="F84" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2014</v>
       </c>
       <c r="B85">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" t="s">
+        <v>98</v>
+      </c>
+      <c r="F85" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2015</v>
       </c>
       <c r="B86">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
+        <v>99</v>
+      </c>
+      <c r="F86" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2016</v>
       </c>
       <c r="B87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>100</v>
+      </c>
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2017</v>
       </c>
       <c r="B88">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" t="s">
+        <v>101</v>
+      </c>
+      <c r="F88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2018</v>
       </c>
       <c r="B89">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>102</v>
+      </c>
+      <c r="F89" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2019</v>
       </c>
       <c r="B90">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>103</v>
+      </c>
+      <c r="F90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2020</v>
       </c>
       <c r="B91">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" t="s">
+        <v>104</v>
+      </c>
+      <c r="F91" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2021</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>105</v>
+      </c>
+      <c r="F92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2022</v>
       </c>
       <c r="B93">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>106</v>
+      </c>
+      <c r="F93" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2023</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" t="s">
+        <v>107</v>
+      </c>
+      <c r="F94" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2024</v>
       </c>
       <c r="B95">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" t="s">
+        <v>108</v>
+      </c>
+      <c r="F95" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2025</v>
       </c>
       <c r="B96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" t="s">
+        <v>109</v>
+      </c>
+      <c r="F96" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2026</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" t="s">
+        <v>110</v>
+      </c>
+      <c r="F97" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2027</v>
       </c>
       <c r="B98">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" t="s">
+        <v>111</v>
+      </c>
+      <c r="F98" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2028</v>
       </c>
       <c r="B99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" t="s">
+        <v>112</v>
+      </c>
+      <c r="F99" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2029</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" t="s">
+        <v>113</v>
+      </c>
+      <c r="F100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2030</v>
       </c>
       <c r="B101">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" t="s">
+        <v>114</v>
+      </c>
+      <c r="F101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2031</v>
       </c>
       <c r="B102">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s">
+        <v>115</v>
+      </c>
+      <c r="F102" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2032</v>
       </c>
       <c r="B103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" t="s">
+        <v>116</v>
+      </c>
+      <c r="F103" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2033</v>
       </c>
       <c r="B104">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" t="s">
+        <v>117</v>
+      </c>
+      <c r="F104" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2034</v>
       </c>
       <c r="B105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s">
+        <v>118</v>
+      </c>
+      <c r="F105" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2035</v>
       </c>
       <c r="B106">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" t="s">
+        <v>119</v>
+      </c>
+      <c r="F106" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2036</v>
       </c>
       <c r="B107">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C107" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" t="s">
+        <v>120</v>
+      </c>
+      <c r="F107" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2037</v>
       </c>
       <c r="B108">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" t="s">
+        <v>121</v>
+      </c>
+      <c r="F108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2038</v>
       </c>
       <c r="B109">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" t="s">
+        <v>122</v>
+      </c>
+      <c r="F109" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2039</v>
       </c>
       <c r="B110">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" t="s">
+        <v>123</v>
+      </c>
+      <c r="F110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2040</v>
       </c>
       <c r="B111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="s">
+        <v>124</v>
+      </c>
+      <c r="F111" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2041</v>
       </c>
       <c r="B112">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" t="s">
+        <v>125</v>
+      </c>
+      <c r="F112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2042</v>
       </c>
       <c r="B113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" t="s">
+        <v>126</v>
+      </c>
+      <c r="F113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2043</v>
       </c>
       <c r="B114">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" t="s">
+        <v>127</v>
+      </c>
+      <c r="F114" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2044</v>
       </c>
       <c r="B115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" t="s">
+        <v>128</v>
+      </c>
+      <c r="F115" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2045</v>
       </c>
       <c r="B116">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" t="s">
+        <v>129</v>
+      </c>
+      <c r="F116" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2046</v>
       </c>
       <c r="B117">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>130</v>
+      </c>
+      <c r="F117" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2047</v>
       </c>
       <c r="B118">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" t="s">
+        <v>131</v>
+      </c>
+      <c r="F118" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2048</v>
       </c>
       <c r="B119">
         <v>2</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
+        <v>132</v>
+      </c>
+      <c r="F119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2049</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>133</v>
+      </c>
+      <c r="F120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2050</v>
       </c>
       <c r="B121">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" t="s">
+        <v>134</v>
+      </c>
+      <c r="F121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2051</v>
       </c>
       <c r="B122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" t="s">
+        <v>135</v>
+      </c>
+      <c r="F122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2052</v>
       </c>
       <c r="B123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="s">
+        <v>136</v>
+      </c>
+      <c r="F123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2053</v>
       </c>
       <c r="B124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" t="s">
+        <v>137</v>
+      </c>
+      <c r="F124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2054</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" t="s">
+        <v>138</v>
+      </c>
+      <c r="F125" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2055</v>
       </c>
       <c r="B126">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" t="s">
+        <v>139</v>
+      </c>
+      <c r="F126" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2056</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" t="s">
+        <v>140</v>
+      </c>
+      <c r="F127" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2057</v>
       </c>
       <c r="B128">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" t="s">
+        <v>141</v>
+      </c>
+      <c r="F128" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2058</v>
       </c>
       <c r="B129">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" t="s">
+        <v>142</v>
+      </c>
+      <c r="F129" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2059</v>
       </c>
       <c r="B130">
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" t="s">
+        <v>143</v>
+      </c>
+      <c r="F130" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2060</v>
       </c>
       <c r="B131">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" t="s">
+        <v>144</v>
+      </c>
+      <c r="F131" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2061</v>
       </c>
       <c r="B132">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" t="s">
+        <v>145</v>
+      </c>
+      <c r="F132" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2062</v>
       </c>
       <c r="B133">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C133" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" t="s">
+        <v>146</v>
+      </c>
+      <c r="F133" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2063</v>
       </c>
       <c r="B134">
         <v>2</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" t="s">
+        <v>147</v>
+      </c>
+      <c r="F134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2064</v>
       </c>
       <c r="B135">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" t="s">
+        <v>148</v>
+      </c>
+      <c r="F135" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2065</v>
       </c>
       <c r="B136">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" t="s">
+        <v>149</v>
+      </c>
+      <c r="F136" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2066</v>
       </c>
       <c r="B137">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C137" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" t="s">
+        <v>150</v>
+      </c>
+      <c r="F137" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2067</v>
       </c>
       <c r="B138">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" t="s">
+        <v>151</v>
+      </c>
+      <c r="F138" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2068</v>
       </c>
       <c r="B139">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C139" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" t="s">
+        <v>152</v>
+      </c>
+      <c r="F139" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2069</v>
       </c>
       <c r="B140">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C140" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" t="s">
+        <v>153</v>
+      </c>
+      <c r="F140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>3001</v>
       </c>
       <c r="B141">
         <v>3</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" t="s">
+        <v>154</v>
+      </c>
+      <c r="F141" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>3002</v>
       </c>
       <c r="B142">
         <v>3</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" t="s">
+        <v>155</v>
+      </c>
+      <c r="F142" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>3003</v>
       </c>
       <c r="B143">
         <v>3</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" t="s">
+        <v>156</v>
+      </c>
+      <c r="F143" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3004</v>
       </c>
       <c r="B144">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" t="s">
+        <v>157</v>
+      </c>
+      <c r="F144" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>3005</v>
       </c>
       <c r="B145">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" t="s">
+        <v>158</v>
+      </c>
+      <c r="F145" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>3006</v>
       </c>
       <c r="B146">
         <v>3</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C146" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" t="s">
+        <v>159</v>
+      </c>
+      <c r="F146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>3007</v>
       </c>
       <c r="B147">
         <v>3</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" t="s">
+        <v>160</v>
+      </c>
+      <c r="F147" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>3008</v>
       </c>
       <c r="B148">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" t="s">
+        <v>161</v>
+      </c>
+      <c r="F148" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>3009</v>
       </c>
       <c r="B149">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C149" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" t="s">
+        <v>162</v>
+      </c>
+      <c r="F149" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>3010</v>
       </c>
       <c r="B150">
         <v>3</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" t="s">
+        <v>163</v>
+      </c>
+      <c r="F150" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>3011</v>
       </c>
       <c r="B151">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" t="s">
+        <v>164</v>
+      </c>
+      <c r="F151" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>3012</v>
       </c>
       <c r="B152">
         <v>3</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" t="s">
+        <v>165</v>
+      </c>
+      <c r="F152" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>3013</v>
       </c>
       <c r="B153">
         <v>3</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" t="s">
+        <v>166</v>
+      </c>
+      <c r="F153" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>3014</v>
       </c>
       <c r="B154">
         <v>3</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C154" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" t="s">
+        <v>167</v>
+      </c>
+      <c r="F154" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>3015</v>
       </c>
       <c r="B155">
         <v>3</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C155" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" t="s">
+        <v>168</v>
+      </c>
+      <c r="F155" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>3016</v>
       </c>
       <c r="B156">
         <v>3</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C156" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" t="s">
+        <v>169</v>
+      </c>
+      <c r="F156" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>3017</v>
       </c>
       <c r="B157">
         <v>3</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" t="s">
+        <v>170</v>
+      </c>
+      <c r="F157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>3018</v>
       </c>
       <c r="B158">
         <v>3</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C158" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" t="s">
+        <v>171</v>
+      </c>
+      <c r="F158" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>3019</v>
       </c>
       <c r="B159">
         <v>3</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" t="s">
+        <v>172</v>
+      </c>
+      <c r="F159" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>3020</v>
       </c>
       <c r="B160">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C160" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" t="s">
+        <v>173</v>
+      </c>
+      <c r="F160" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>3021</v>
       </c>
       <c r="B161">
         <v>3</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C161" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" t="s">
+        <v>174</v>
+      </c>
+      <c r="F161" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>3022</v>
       </c>
       <c r="B162">
         <v>3</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C162" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" t="s">
+        <v>175</v>
+      </c>
+      <c r="F162" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>3023</v>
       </c>
       <c r="B163">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C163" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" t="s">
+        <v>176</v>
+      </c>
+      <c r="F163" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>3024</v>
       </c>
       <c r="B164">
         <v>3</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C164" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" t="s">
+        <v>177</v>
+      </c>
+      <c r="F164" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>3025</v>
       </c>
       <c r="B165">
         <v>3</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C165" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" t="s">
+        <v>178</v>
+      </c>
+      <c r="F165" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>3026</v>
       </c>
       <c r="B166">
         <v>3</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" t="s">
+        <v>179</v>
+      </c>
+      <c r="F166" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>3027</v>
       </c>
       <c r="B167">
         <v>3</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" t="s">
+        <v>180</v>
+      </c>
+      <c r="F167" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>3028</v>
       </c>
       <c r="B168">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C168" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" t="s">
+        <v>181</v>
+      </c>
+      <c r="F168" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>3029</v>
       </c>
       <c r="B169">
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" t="s">
+        <v>182</v>
+      </c>
+      <c r="F169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>3030</v>
       </c>
       <c r="B170">
         <v>3</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C170" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" t="s">
+        <v>183</v>
+      </c>
+      <c r="F170" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>3031</v>
       </c>
       <c r="B171">
         <v>3</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C171" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" t="s">
+        <v>184</v>
+      </c>
+      <c r="F171" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>3032</v>
       </c>
       <c r="B172">
         <v>3</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C172" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" t="s">
+        <v>185</v>
+      </c>
+      <c r="F172" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>3033</v>
       </c>
       <c r="B173">
         <v>3</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C173" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" t="s">
+        <v>186</v>
+      </c>
+      <c r="F173" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>3034</v>
       </c>
       <c r="B174">
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C174" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" t="s">
+        <v>187</v>
+      </c>
+      <c r="F174" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>3035</v>
       </c>
       <c r="B175">
         <v>3</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C175" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" t="s">
+        <v>188</v>
+      </c>
+      <c r="F175" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>3036</v>
       </c>
       <c r="B176">
         <v>3</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C176" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" t="s">
+        <v>189</v>
+      </c>
+      <c r="F176" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>3037</v>
       </c>
       <c r="B177">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C177" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" t="s">
+        <v>190</v>
+      </c>
+      <c r="F177" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>3038</v>
       </c>
       <c r="B178">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C178" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" t="s">
+        <v>191</v>
+      </c>
+      <c r="F178" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>3039</v>
       </c>
       <c r="B179">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C179" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" t="s">
+        <v>192</v>
+      </c>
+      <c r="F179" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>3040</v>
       </c>
       <c r="B180">
         <v>3</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C180" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" t="s">
+        <v>193</v>
+      </c>
+      <c r="F180" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>3041</v>
       </c>
       <c r="B181">
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C181" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" t="s">
+        <v>194</v>
+      </c>
+      <c r="F181" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>3042</v>
       </c>
       <c r="B182">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C182" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" t="s">
+        <v>195</v>
+      </c>
+      <c r="F182" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>3043</v>
       </c>
       <c r="B183">
         <v>3</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C183" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" t="s">
+        <v>196</v>
+      </c>
+      <c r="F183" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>3044</v>
       </c>
       <c r="B184">
         <v>3</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C184" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" t="s">
+        <v>197</v>
+      </c>
+      <c r="F184" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>3045</v>
       </c>
       <c r="B185">
         <v>3</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C185" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" t="s">
+        <v>198</v>
+      </c>
+      <c r="F185" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>3046</v>
       </c>
       <c r="B186">
         <v>3</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C186" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" t="s">
+        <v>199</v>
+      </c>
+      <c r="F186" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>3047</v>
       </c>
       <c r="B187">
         <v>3</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C187" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" t="s">
+        <v>200</v>
+      </c>
+      <c r="F187" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>3048</v>
       </c>
       <c r="B188">
         <v>3</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C188" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" t="s">
+        <v>201</v>
+      </c>
+      <c r="F188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>3049</v>
       </c>
       <c r="B189">
         <v>3</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" t="s">
+        <v>202</v>
+      </c>
+      <c r="F189" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>3050</v>
       </c>
       <c r="B190">
         <v>3</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C190" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" t="s">
+        <v>203</v>
+      </c>
+      <c r="F190" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>3051</v>
       </c>
       <c r="B191">
         <v>3</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C191" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" t="s">
+        <v>204</v>
+      </c>
+      <c r="F191" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>3052</v>
       </c>
       <c r="B192">
         <v>3</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" t="s">
+        <v>205</v>
+      </c>
+      <c r="F192" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>3053</v>
       </c>
       <c r="B193">
         <v>3</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C193" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" t="s">
+        <v>206</v>
+      </c>
+      <c r="F193" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>3054</v>
       </c>
       <c r="B194">
         <v>3</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C194" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" t="s">
+        <v>207</v>
+      </c>
+      <c r="F194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>3055</v>
       </c>
       <c r="B195">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C195" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" t="s">
+        <v>208</v>
+      </c>
+      <c r="F195" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>3056</v>
       </c>
       <c r="B196">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C196" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" t="s">
+        <v>209</v>
+      </c>
+      <c r="F196" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>3057</v>
       </c>
       <c r="B197">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C197" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" t="s">
+        <v>210</v>
+      </c>
+      <c r="F197" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>3058</v>
       </c>
       <c r="B198">
         <v>3</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C198" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198" t="s">
+        <v>211</v>
+      </c>
+      <c r="F198" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>3059</v>
       </c>
       <c r="B199">
         <v>3</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C199" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199" t="s">
+        <v>212</v>
+      </c>
+      <c r="F199" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>3060</v>
       </c>
       <c r="B200">
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C200" t="s">
+        <v>13</v>
+      </c>
+      <c r="D200" t="s">
+        <v>213</v>
+      </c>
+      <c r="F200" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>3061</v>
       </c>
       <c r="B201">
         <v>3</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C201" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201" t="s">
+        <v>214</v>
+      </c>
+      <c r="F201" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>3062</v>
       </c>
       <c r="B202">
         <v>3</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C202" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202" t="s">
+        <v>215</v>
+      </c>
+      <c r="F202" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>3063</v>
       </c>
       <c r="B203">
         <v>3</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C203" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" t="s">
+        <v>216</v>
+      </c>
+      <c r="F203" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>3064</v>
       </c>
       <c r="B204">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C204" t="s">
+        <v>13</v>
+      </c>
+      <c r="D204" t="s">
+        <v>217</v>
+      </c>
+      <c r="F204" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>3065</v>
       </c>
       <c r="B205">
         <v>3</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C205" t="s">
+        <v>13</v>
+      </c>
+      <c r="D205" t="s">
+        <v>218</v>
+      </c>
+      <c r="F205" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>3066</v>
       </c>
       <c r="B206">
         <v>3</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C206" t="s">
+        <v>13</v>
+      </c>
+      <c r="D206" t="s">
+        <v>219</v>
+      </c>
+      <c r="F206" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>3067</v>
       </c>
       <c r="B207">
         <v>3</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C207" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" t="s">
+        <v>220</v>
+      </c>
+      <c r="F207" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>3068</v>
       </c>
       <c r="B208">
         <v>3</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C208" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" t="s">
+        <v>221</v>
+      </c>
+      <c r="F208" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>3069</v>
       </c>
       <c r="B209">
         <v>3</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C209" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" t="s">
+        <v>222</v>
+      </c>
+      <c r="F209" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>3070</v>
       </c>
       <c r="B210">
         <v>3</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C210" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" t="s">
+        <v>223</v>
+      </c>
+      <c r="F210" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>4001</v>
       </c>
       <c r="B211">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C211" t="s">
+        <v>14</v>
+      </c>
+      <c r="D211" t="s">
+        <v>224</v>
+      </c>
+      <c r="F211" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>4002</v>
       </c>
       <c r="B212">
         <v>4</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C212" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" t="s">
+        <v>225</v>
+      </c>
+      <c r="F212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>4003</v>
       </c>
       <c r="B213">
         <v>4</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C213" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" t="s">
+        <v>226</v>
+      </c>
+      <c r="F213" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>4004</v>
       </c>
       <c r="B214">
         <v>4</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C214" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" t="s">
+        <v>227</v>
+      </c>
+      <c r="F214" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>4005</v>
       </c>
       <c r="B215">
         <v>4</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C215" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" t="s">
+        <v>228</v>
+      </c>
+      <c r="F215" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>4006</v>
       </c>
       <c r="B216">
         <v>4</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C216" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216" t="s">
+        <v>229</v>
+      </c>
+      <c r="F216" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>4007</v>
       </c>
       <c r="B217">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C217" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" t="s">
+        <v>230</v>
+      </c>
+      <c r="F217" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>4008</v>
       </c>
       <c r="B218">
         <v>4</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C218" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" t="s">
+        <v>231</v>
+      </c>
+      <c r="F218" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>4009</v>
       </c>
       <c r="B219">
         <v>4</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C219" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" t="s">
+        <v>232</v>
+      </c>
+      <c r="F219" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>4010</v>
       </c>
       <c r="B220">
         <v>4</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C220" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" t="s">
+        <v>233</v>
+      </c>
+      <c r="F220" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>4011</v>
       </c>
       <c r="B221">
         <v>4</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C221" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221" t="s">
+        <v>234</v>
+      </c>
+      <c r="F221" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>4012</v>
       </c>
       <c r="B222">
         <v>4</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C222" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" t="s">
+        <v>235</v>
+      </c>
+      <c r="F222" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>4013</v>
       </c>
       <c r="B223">
         <v>4</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C223" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" t="s">
+        <v>236</v>
+      </c>
+      <c r="F223" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>4014</v>
       </c>
       <c r="B224">
         <v>4</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C224" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" t="s">
+        <v>237</v>
+      </c>
+      <c r="F224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>4015</v>
       </c>
       <c r="B225">
         <v>4</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C225" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" t="s">
+        <v>238</v>
+      </c>
+      <c r="F225" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>4016</v>
       </c>
       <c r="B226">
         <v>4</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C226" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" t="s">
+        <v>239</v>
+      </c>
+      <c r="F226" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>4017</v>
       </c>
       <c r="B227">
         <v>4</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C227" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" t="s">
+        <v>240</v>
+      </c>
+      <c r="F227" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>4018</v>
       </c>
       <c r="B228">
         <v>4</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C228" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" t="s">
+        <v>241</v>
+      </c>
+      <c r="F228" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>4019</v>
       </c>
       <c r="B229">
         <v>4</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C229" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" t="s">
+        <v>242</v>
+      </c>
+      <c r="F229" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>4020</v>
       </c>
       <c r="B230">
         <v>4</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C230" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230" t="s">
+        <v>243</v>
+      </c>
+      <c r="F230" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>4021</v>
       </c>
       <c r="B231">
         <v>4</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C231" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" t="s">
+        <v>244</v>
+      </c>
+      <c r="F231" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>4022</v>
       </c>
       <c r="B232">
         <v>4</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C232" t="s">
+        <v>12</v>
+      </c>
+      <c r="D232" t="s">
+        <v>245</v>
+      </c>
+      <c r="F232" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>4023</v>
       </c>
       <c r="B233">
         <v>4</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C233" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" t="s">
+        <v>246</v>
+      </c>
+      <c r="F233" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>4024</v>
       </c>
       <c r="B234">
         <v>4</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C234" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" t="s">
+        <v>247</v>
+      </c>
+      <c r="F234" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>4025</v>
       </c>
       <c r="B235">
         <v>4</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C235" t="s">
+        <v>12</v>
+      </c>
+      <c r="D235" t="s">
+        <v>248</v>
+      </c>
+      <c r="F235" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>4026</v>
       </c>
       <c r="B236">
         <v>4</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C236" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236" t="s">
+        <v>249</v>
+      </c>
+      <c r="F236" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>4027</v>
       </c>
       <c r="B237">
         <v>4</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C237" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" t="s">
+        <v>250</v>
+      </c>
+      <c r="F237" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>4028</v>
       </c>
       <c r="B238">
         <v>4</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C238" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" t="s">
+        <v>251</v>
+      </c>
+      <c r="F238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>4029</v>
       </c>
       <c r="B239">
         <v>4</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C239" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" t="s">
+        <v>252</v>
+      </c>
+      <c r="F239" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>4030</v>
       </c>
       <c r="B240">
         <v>4</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C240" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240" t="s">
+        <v>253</v>
+      </c>
+      <c r="F240" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>4031</v>
       </c>
       <c r="B241">
         <v>4</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C241" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241" t="s">
+        <v>254</v>
+      </c>
+      <c r="F241" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>4032</v>
       </c>
       <c r="B242">
         <v>4</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C242" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" t="s">
+        <v>255</v>
+      </c>
+      <c r="F242" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>4033</v>
       </c>
       <c r="B243">
         <v>4</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C243" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" t="s">
+        <v>256</v>
+      </c>
+      <c r="F243" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>4034</v>
       </c>
       <c r="B244">
         <v>4</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C244" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" t="s">
+        <v>257</v>
+      </c>
+      <c r="F244" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>4035</v>
       </c>
       <c r="B245">
         <v>4</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C245" t="s">
+        <v>12</v>
+      </c>
+      <c r="D245" t="s">
+        <v>258</v>
+      </c>
+      <c r="F245" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>4036</v>
       </c>
       <c r="B246">
         <v>4</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C246" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246" t="s">
+        <v>259</v>
+      </c>
+      <c r="F246" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>4037</v>
       </c>
       <c r="B247">
         <v>4</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C247" t="s">
+        <v>12</v>
+      </c>
+      <c r="D247" t="s">
+        <v>260</v>
+      </c>
+      <c r="F247" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>4038</v>
       </c>
       <c r="B248">
         <v>4</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C248" t="s">
+        <v>12</v>
+      </c>
+      <c r="D248" t="s">
+        <v>261</v>
+      </c>
+      <c r="F248" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>4039</v>
       </c>
       <c r="B249">
         <v>4</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C249" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249" t="s">
+        <v>262</v>
+      </c>
+      <c r="F249" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>4040</v>
       </c>
       <c r="B250">
         <v>4</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C250" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250" t="s">
+        <v>263</v>
+      </c>
+      <c r="F250" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>4041</v>
       </c>
       <c r="B251">
         <v>4</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C251" t="s">
+        <v>12</v>
+      </c>
+      <c r="D251" t="s">
+        <v>264</v>
+      </c>
+      <c r="F251" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>4042</v>
       </c>
       <c r="B252">
         <v>4</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C252" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" t="s">
+        <v>265</v>
+      </c>
+      <c r="F252" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>4043</v>
       </c>
       <c r="B253">
         <v>4</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C253" t="s">
+        <v>12</v>
+      </c>
+      <c r="D253" t="s">
+        <v>266</v>
+      </c>
+      <c r="F253" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>4044</v>
       </c>
       <c r="B254">
         <v>4</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C254" t="s">
+        <v>12</v>
+      </c>
+      <c r="D254" t="s">
+        <v>267</v>
+      </c>
+      <c r="F254" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>4045</v>
       </c>
       <c r="B255">
         <v>4</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C255" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255" t="s">
+        <v>268</v>
+      </c>
+      <c r="F255" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>4046</v>
       </c>
       <c r="B256">
         <v>4</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C256" t="s">
+        <v>12</v>
+      </c>
+      <c r="D256" t="s">
+        <v>269</v>
+      </c>
+      <c r="F256" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>4047</v>
       </c>
       <c r="B257">
         <v>4</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C257" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" t="s">
+        <v>270</v>
+      </c>
+      <c r="F257" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>4048</v>
       </c>
       <c r="B258">
         <v>4</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C258" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258" t="s">
+        <v>271</v>
+      </c>
+      <c r="F258" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>4049</v>
       </c>
       <c r="B259">
         <v>4</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C259" t="s">
+        <v>12</v>
+      </c>
+      <c r="D259" t="s">
+        <v>272</v>
+      </c>
+      <c r="F259" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>4050</v>
       </c>
       <c r="B260">
         <v>4</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C260" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" t="s">
+        <v>273</v>
+      </c>
+      <c r="F260" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>4051</v>
       </c>
       <c r="B261">
         <v>4</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C261" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" t="s">
+        <v>274</v>
+      </c>
+      <c r="F261" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>4052</v>
       </c>
       <c r="B262">
         <v>4</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C262" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262" t="s">
+        <v>275</v>
+      </c>
+      <c r="F262" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>4053</v>
       </c>
       <c r="B263">
         <v>4</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C263" t="s">
+        <v>12</v>
+      </c>
+      <c r="D263" t="s">
+        <v>276</v>
+      </c>
+      <c r="F263" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>4054</v>
       </c>
       <c r="B264">
         <v>4</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C264" t="s">
+        <v>12</v>
+      </c>
+      <c r="D264" t="s">
+        <v>277</v>
+      </c>
+      <c r="F264" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>4055</v>
       </c>
       <c r="B265">
         <v>4</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C265" t="s">
+        <v>12</v>
+      </c>
+      <c r="D265" t="s">
+        <v>278</v>
+      </c>
+      <c r="F265" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>4056</v>
       </c>
       <c r="B266">
         <v>4</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C266" t="s">
+        <v>12</v>
+      </c>
+      <c r="D266" t="s">
+        <v>279</v>
+      </c>
+      <c r="F266" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>4057</v>
       </c>
       <c r="B267">
         <v>4</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C267" t="s">
+        <v>13</v>
+      </c>
+      <c r="D267" t="s">
+        <v>280</v>
+      </c>
+      <c r="F267" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>4058</v>
       </c>
       <c r="B268">
         <v>4</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C268" t="s">
+        <v>13</v>
+      </c>
+      <c r="D268" t="s">
+        <v>281</v>
+      </c>
+      <c r="F268" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>4059</v>
       </c>
       <c r="B269">
         <v>4</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C269" t="s">
+        <v>13</v>
+      </c>
+      <c r="D269" t="s">
+        <v>282</v>
+      </c>
+      <c r="F269" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>4060</v>
       </c>
       <c r="B270">
         <v>4</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C270" t="s">
+        <v>13</v>
+      </c>
+      <c r="D270" t="s">
+        <v>283</v>
+      </c>
+      <c r="F270" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>4061</v>
       </c>
       <c r="B271">
         <v>4</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C271" t="s">
+        <v>13</v>
+      </c>
+      <c r="D271" t="s">
+        <v>284</v>
+      </c>
+      <c r="F271" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>4062</v>
       </c>
       <c r="B272">
         <v>4</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C272" t="s">
+        <v>13</v>
+      </c>
+      <c r="D272" t="s">
+        <v>285</v>
+      </c>
+      <c r="F272" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>4063</v>
       </c>
       <c r="B273">
         <v>4</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C273" t="s">
+        <v>13</v>
+      </c>
+      <c r="D273" t="s">
+        <v>286</v>
+      </c>
+      <c r="F273" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>4064</v>
       </c>
       <c r="B274">
         <v>4</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C274" t="s">
+        <v>13</v>
+      </c>
+      <c r="D274" t="s">
+        <v>287</v>
+      </c>
+      <c r="F274" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>4065</v>
       </c>
       <c r="B275">
         <v>4</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C275" t="s">
+        <v>13</v>
+      </c>
+      <c r="D275" t="s">
+        <v>288</v>
+      </c>
+      <c r="F275" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>4066</v>
       </c>
       <c r="B276">
         <v>4</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C276" t="s">
+        <v>13</v>
+      </c>
+      <c r="D276" t="s">
+        <v>289</v>
+      </c>
+      <c r="F276" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>4067</v>
       </c>
       <c r="B277">
         <v>4</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C277" t="s">
+        <v>13</v>
+      </c>
+      <c r="D277" t="s">
+        <v>290</v>
+      </c>
+      <c r="F277" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>4068</v>
       </c>
       <c r="B278">
         <v>4</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C278" t="s">
+        <v>13</v>
+      </c>
+      <c r="D278" t="s">
+        <v>291</v>
+      </c>
+      <c r="F278" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>4069</v>
       </c>
       <c r="B279">
         <v>4</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C279" t="s">
+        <v>13</v>
+      </c>
+      <c r="D279" t="s">
+        <v>292</v>
+      </c>
+      <c r="F279" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>4070</v>
       </c>
       <c r="B280">
         <v>4</v>
+      </c>
+      <c r="C280" t="s">
+        <v>13</v>
+      </c>
+      <c r="D280" t="s">
+        <v>293</v>
+      </c>
+      <c r="F280" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/mata_kuliah.xlsx
+++ b/mata_kuliah.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alson\Documents\GitHub\TubesMBD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jovian\Desktop\TubesMBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7104"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="572">
   <si>
     <t>id_mk</t>
   </si>
@@ -947,6 +947,828 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>Dasar Pemrograman</t>
+  </si>
+  <si>
+    <t>Algoritma &amp; Struktur Data</t>
+  </si>
+  <si>
+    <t>Pemrograman Fungsional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Matematika Diskrit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Logika Informatika</t>
+  </si>
+  <si>
+    <t>Probabilitas &amp; Statistika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Probabilitas &amp; Statistika</t>
+  </si>
+  <si>
+    <t>Aljabar Geometri</t>
+  </si>
+  <si>
+    <t>Organisasi &amp; Arsitektur Komputer</t>
+  </si>
+  <si>
+    <t>Pemrograman Komputer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pemodelan Basis Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pemrograman Berorientasi Objek</t>
+  </si>
+  <si>
+    <t>Strategi Algoritma</t>
+  </si>
+  <si>
+    <t>Teori Bahasa Formal dan Otomata</t>
+  </si>
+  <si>
+    <t>Sistem Operasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Basis Data</t>
+  </si>
+  <si>
+    <t>Dasar Rekayasa Perangkat Lunak</t>
+  </si>
+  <si>
+    <t>Pengembangan Aplikasi Berbasis Web</t>
+  </si>
+  <si>
+    <t>Pengembangan Aplikasi pada Platform Khusus</t>
+  </si>
+  <si>
+    <t>Jaringan Komputer</t>
+  </si>
+  <si>
+    <t>Manajemen Basis Data</t>
+  </si>
+  <si>
+    <t>Manajemen Proyek Perangkat Lunak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Interaksi Manusia &amp; Komputer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rekayasa Perangkat Lunak</t>
+  </si>
+  <si>
+    <t>Inteligensi Buatan</t>
+  </si>
+  <si>
+    <t>Sistem Paralel dan Terdistribusi</t>
+  </si>
+  <si>
+    <t>Sistem Informasi</t>
+  </si>
+  <si>
+    <t>Proyek Perangkat Lunak</t>
+  </si>
+  <si>
+    <t>Grafika Komputer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Socio-informatika dan Profesionalisme</t>
+  </si>
+  <si>
+    <t>Kriptografi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pemodelan dan Simulasi</t>
+  </si>
+  <si>
+    <t>Ilmu dan Rekayasa Komputasi Lanjut</t>
+  </si>
+  <si>
+    <t>Jaringan Komputer Lanjut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pengembangan Aplikasi Terdistribusi</t>
+  </si>
+  <si>
+    <t>Sistem Multimedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Keamanan dan Penjaminan Informasi</t>
+  </si>
+  <si>
+    <t>Pemodelan Data Lanjut</t>
+  </si>
+  <si>
+    <t>Teknologi Basis Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sistem Temu Balik Informasi</t>
+  </si>
+  <si>
+    <t>Sistem Informasi Lanjut</t>
+  </si>
+  <si>
+    <t>Pembangunan Perangkat Lunak Berorientasi Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rekayasa Perangkat Lunak Berbasis Komponen</t>
+  </si>
+  <si>
+    <t>Rekayasa Interaksi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Visualisasi Data dan Informasi</t>
+  </si>
+  <si>
+    <t>Pembangunan Aplikasi berbasis Grafik 3D</t>
+  </si>
+  <si>
+    <t>Representasi Pengetahuan dan Penalaran</t>
+  </si>
+  <si>
+    <t>Pembelajaran Mesin</t>
+  </si>
+  <si>
+    <t>Pemrosesan Text dan Suara Bahasa Alami</t>
+  </si>
+  <si>
+    <t>Interpretasi dan Pengolahan Citra</t>
+  </si>
+  <si>
+    <t>Kerja Praktek</t>
+  </si>
+  <si>
+    <t>Tugas Akhir I &amp; Seminar</t>
+  </si>
+  <si>
+    <t>Tugas Akhir II</t>
+  </si>
+  <si>
+    <t>Rekayasa Perangkat Lunak Spesifik Domain</t>
+  </si>
+  <si>
+    <t>Sistem &amp; Arsitektur Komputer A</t>
+  </si>
+  <si>
+    <t>Sistem &amp; Arsitektur Komputer B</t>
+  </si>
+  <si>
+    <t>Algoritma &amp; Pemrograman A</t>
+  </si>
+  <si>
+    <t>Algoritma &amp; Pemrograman B</t>
+  </si>
+  <si>
+    <t>Manajemen Informasi A</t>
+  </si>
+  <si>
+    <t>Manajemen Informasi B</t>
+  </si>
+  <si>
+    <t>Metodologi Penelitian/Tesis 1</t>
+  </si>
+  <si>
+    <t>Teori Komputasi</t>
+  </si>
+  <si>
+    <t>Analisa Algoritma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Arsitektur Komputer Lanjut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rekayasa Kebutuhan Sistem &amp; Perangkat Lunak</t>
+  </si>
+  <si>
+    <t>Analisis &amp; Perancangan Perangkat Lunak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pembangunan Perangkat Lunak</t>
+  </si>
+  <si>
+    <t>Kualitas Perangkat Lunak</t>
+  </si>
+  <si>
+    <t>Evolusi Perangkat Lunak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kerekayasaan Enterprise</t>
+  </si>
+  <si>
+    <t>Pemodelan Enterprise</t>
+  </si>
+  <si>
+    <t>Pengantar Analisis Rangkaian</t>
+  </si>
+  <si>
+    <t>Rangkaian Elektrik</t>
+  </si>
+  <si>
+    <t>Sistem Digital</t>
+  </si>
+  <si>
+    <t>Struktur Diskrit</t>
+  </si>
+  <si>
+    <t>Elektronika</t>
+  </si>
+  <si>
+    <t>Medan Elektromagnetik</t>
+  </si>
+  <si>
+    <t>Sinyal &amp; Sistem</t>
+  </si>
+  <si>
+    <t>Pemecahan Masalah dengan C</t>
+  </si>
+  <si>
+    <t>Elektronika Industri</t>
+  </si>
+  <si>
+    <t>Praktikum Rangkaian Elektrik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Praktikum Sistem Digita</t>
+  </si>
+  <si>
+    <t>Sistem Digital &amp; Mikroprosesor</t>
+  </si>
+  <si>
+    <t>Praktikum Elektronika</t>
+  </si>
+  <si>
+    <t>Praktikum Pemecahan Masalah dengan C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sistem &amp; Arsitektur Komputer</t>
+  </si>
+  <si>
+    <t>Elektronika II</t>
+  </si>
+  <si>
+    <t>Pengolahan Sinyal Digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Arsitektur Sistem Komputer</t>
+  </si>
+  <si>
+    <t>Material Teknik Elektro</t>
+  </si>
+  <si>
+    <t>Sistem Instrumentasi</t>
+  </si>
+  <si>
+    <t>Sistem Mikroprosesor</t>
+  </si>
+  <si>
+    <t>Sistem Kendali</t>
+  </si>
+  <si>
+    <t>Sistem Komunikasi</t>
+  </si>
+  <si>
+    <t>Sistem Tenaga Elektrik</t>
+  </si>
+  <si>
+    <t>Praktikum Elektronika II</t>
+  </si>
+  <si>
+    <t>Praktikum Pengolahan Sinyal Digital</t>
+  </si>
+  <si>
+    <t>Praktikum Arsitektur Sistem Komputer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Praktikum Sistem Mikroprosesor</t>
+  </si>
+  <si>
+    <t>Praktikum Sistem Kendali</t>
+  </si>
+  <si>
+    <t>Praktikum Sistem Komunikasi</t>
+  </si>
+  <si>
+    <t>Praktikum Sistem Tenaga Elektrik</t>
+  </si>
+  <si>
+    <t>Etika Profesi &amp; Rekayasa</t>
+  </si>
+  <si>
+    <t>Sistem Penggerak Elektrik</t>
+  </si>
+  <si>
+    <t>Tugas Akhir I (Capstone Design)</t>
+  </si>
+  <si>
+    <t>Tugas Akhir II (Capstone Design)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pengembangan Keprofesian &amp; Komunitas</t>
+  </si>
+  <si>
+    <t>Magang di Industri</t>
+  </si>
+  <si>
+    <t>Praktikum Sistem Instrumentasi</t>
+  </si>
+  <si>
+    <t>Perancangan Sistem Embedded</t>
+  </si>
+  <si>
+    <t>Praktikum Perancangan Sistem Embedded</t>
+  </si>
+  <si>
+    <t>Sistem Kendali Digital</t>
+  </si>
+  <si>
+    <t>Praktikum Sistem Kendali Digital</t>
+  </si>
+  <si>
+    <t>Pengolahan Citra Digital</t>
+  </si>
+  <si>
+    <t>Robotika</t>
+  </si>
+  <si>
+    <t>Arsitektur &amp; Komputasi Paralel</t>
+  </si>
+  <si>
+    <t>Perancangan Sistem Operasi</t>
+  </si>
+  <si>
+    <t>Devais Semikonduktor</t>
+  </si>
+  <si>
+    <t>Anatomi dan Fisiologi</t>
+  </si>
+  <si>
+    <t>Teknik Biomedika</t>
+  </si>
+  <si>
+    <t>Perancangan Sistem VLSI</t>
+  </si>
+  <si>
+    <t>Analisis &amp; Perancangan IC Digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dasar Sistem &amp; Kendali Cerdas</t>
+  </si>
+  <si>
+    <t>Sistem Kendali Multivariabel</t>
+  </si>
+  <si>
+    <t>Arsitektur Sistem Komputer II</t>
+  </si>
+  <si>
+    <t>Perancangan Perangkat Lunak Jaringan</t>
+  </si>
+  <si>
+    <t>Teknologi IC</t>
+  </si>
+  <si>
+    <t>Fenomena Transpor di Biomedika</t>
+  </si>
+  <si>
+    <t>Pengukuran Biosinyal</t>
+  </si>
+  <si>
+    <t>Mikroelektronika RF &amp; Mixed Signal</t>
+  </si>
+  <si>
+    <t>Matematika Lanjut</t>
+  </si>
+  <si>
+    <t>Kendali Optimal</t>
+  </si>
+  <si>
+    <t>Mekatronika</t>
+  </si>
+  <si>
+    <t>Grafika Komputer dan Pemrograman GPU</t>
+  </si>
+  <si>
+    <t>Sistem Intelijen</t>
+  </si>
+  <si>
+    <t>Desain Interaksi</t>
+  </si>
+  <si>
+    <t>Desain Aplikasi Interaktif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dasar Perencanaan dan Perancangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Apresiasi Arsitektur</t>
+  </si>
+  <si>
+    <t>Prinsip Desain Arsitektur</t>
+  </si>
+  <si>
+    <t>Studio Konstruksi dan Bahan Bangunan I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dasar-dasar Struktur Bangunan</t>
+  </si>
+  <si>
+    <t>Sejarah dan Tradisi Arsitektur Dunia</t>
+  </si>
+  <si>
+    <t>Lingkungan Binaan Berkelanjutan</t>
+  </si>
+  <si>
+    <t>Studio Perancangan Arsitektur I</t>
+  </si>
+  <si>
+    <t>Studio Gubahan Ruang dan Bentuk</t>
+  </si>
+  <si>
+    <t>Teori Desain Arsitektur</t>
+  </si>
+  <si>
+    <t>Perilaku dan Desain Arsitektur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sejarah dan Tradisi Arsitektur Indonesia</t>
+  </si>
+  <si>
+    <t>Studio Komputasi Arsitektur</t>
+  </si>
+  <si>
+    <t>Studio Perancangan Arsitektur II</t>
+  </si>
+  <si>
+    <t>Studio Perencanaan dan Perancangan Tapak</t>
+  </si>
+  <si>
+    <t>Prinsip Dasar Arsitektur Lanskap</t>
+  </si>
+  <si>
+    <t>Studio Konstruksi dan Bahan Bangunan II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Fisika Bangunan</t>
+  </si>
+  <si>
+    <t>Arsitektur Tepat Guna</t>
+  </si>
+  <si>
+    <t>Perkembangan Tipologi Arsitektur</t>
+  </si>
+  <si>
+    <t>Dokumentasi Bangunan Bersejarah</t>
+  </si>
+  <si>
+    <t>Studio Perancangan Arsitektur III</t>
+  </si>
+  <si>
+    <t>Pengantar Penelitian Arsitektur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Utilitas Bangunan</t>
+  </si>
+  <si>
+    <t>Manajemen Proyek</t>
+  </si>
+  <si>
+    <t>Arsitektur Kolonial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Arsitektur Indonesia Pasca Kemerdekaan</t>
+  </si>
+  <si>
+    <t>Perancangan Perumahan dan Permukiman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tipomorfologi Perumahan dan Permukiman</t>
+  </si>
+  <si>
+    <t>Studio Struktur dan Bentuk</t>
+  </si>
+  <si>
+    <t>Studio Perancangan Arsitektur IV</t>
+  </si>
+  <si>
+    <t>Persiapan Tugas Akhir</t>
+  </si>
+  <si>
+    <t>Ujian Komprehensif</t>
+  </si>
+  <si>
+    <t>Praktek Profesi Arsitek</t>
+  </si>
+  <si>
+    <t>Studio Perancangan Arsitektur V</t>
+  </si>
+  <si>
+    <t>Tugas Akhir</t>
+  </si>
+  <si>
+    <t>Pengantar Arsitektur Kota</t>
+  </si>
+  <si>
+    <t>Pendekatan Algoritmik dalam Perancangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Partisipasi Masyarakat dalam Perencanaan dan Perancangan Perumahan</t>
+  </si>
+  <si>
+    <t>Pengantar Real Estate</t>
+  </si>
+  <si>
+    <t>Seminar Arsitektur</t>
+  </si>
+  <si>
+    <t>Arsitektur dan Urbanisme</t>
+  </si>
+  <si>
+    <t>Pelestarian Bangunan dan Lingkungan</t>
+  </si>
+  <si>
+    <t>Ekonomi Bangunan</t>
+  </si>
+  <si>
+    <t>Pengantar BIM dalam Arsitektur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kritik Arsitektur</t>
+  </si>
+  <si>
+    <t>Arsitektur Islam</t>
+  </si>
+  <si>
+    <t>Permukiman Masyarakat Berpenghasilan Rendah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Studi Independen</t>
+  </si>
+  <si>
+    <t>Arsitektur dan Teknologi</t>
+  </si>
+  <si>
+    <t>Arsitektur Digital</t>
+  </si>
+  <si>
+    <t>Metodologi Penelitian</t>
+  </si>
+  <si>
+    <t>Analisis Data</t>
+  </si>
+  <si>
+    <t>Riset Tematik 1</t>
+  </si>
+  <si>
+    <t>Studio 1</t>
+  </si>
+  <si>
+    <t>Pemrograman Fasilitas</t>
+  </si>
+  <si>
+    <t>Etika Profesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Teori dan Kritik Arsitektur</t>
+  </si>
+  <si>
+    <t>Arsitektur Vernakular Indonesia</t>
+  </si>
+  <si>
+    <t>Perumahan dan Perkotaan</t>
+  </si>
+  <si>
+    <t>Analisis Lingkungan Binaan</t>
+  </si>
+  <si>
+    <t>Riset Tematik 2</t>
+  </si>
+  <si>
+    <t>Studio 2</t>
+  </si>
+  <si>
+    <t>Topik Khusus</t>
+  </si>
+  <si>
+    <t>Tesis Berbasis Desain</t>
+  </si>
+  <si>
+    <t>Budaya Lokal dan Perancangan Arsitektur</t>
+  </si>
+  <si>
+    <t>Teknologi Bangunan Bambu</t>
+  </si>
+  <si>
+    <t>Arsitektur Kontemporer Dunia</t>
+  </si>
+  <si>
+    <t>Perancangan Dalam Konteks Transformasi</t>
+  </si>
+  <si>
+    <t>Rekayasa Bahan Konstruksi Sipil</t>
+  </si>
+  <si>
+    <t>Analisis Statistik dan Probabilitas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Matematika Rekayasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Statika</t>
+  </si>
+  <si>
+    <t>Pengetahuan Struktur</t>
+  </si>
+  <si>
+    <t>Pengetahuan Statika dan Struktur</t>
+  </si>
+  <si>
+    <t>Pengantar Mekanika Tanah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mekanika Tanah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mekanika Fluida dan Hidraulika</t>
+  </si>
+  <si>
+    <t>Pengantar Rekayasa Transportasi</t>
+  </si>
+  <si>
+    <t>Metoda Numerik</t>
+  </si>
+  <si>
+    <t>Mekanika Bahan</t>
+  </si>
+  <si>
+    <t>Mekanika Tanah I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pengantar Mekanika Tanah dan Pondasi</t>
+  </si>
+  <si>
+    <t>Rekayasa Hidrologi</t>
+  </si>
+  <si>
+    <t>Rekayasa Lalu Lintas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Analisis Struktur I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Struktur Beton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mekanika Tanah II</t>
+  </si>
+  <si>
+    <t>Irigasi dan Drainase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Perancangan Geometrik Jalan</t>
+  </si>
+  <si>
+    <t>Manajemen Konstruksi</t>
+  </si>
+  <si>
+    <t>Analisis Struktur II</t>
+  </si>
+  <si>
+    <t>Struktur Baja</t>
+  </si>
+  <si>
+    <t>Dinamika Struktur &amp; Rekayasa Gempa</t>
+  </si>
+  <si>
+    <t>Rekayasa Pondasi</t>
+  </si>
+  <si>
+    <t>Perancangan Perkerasan Jalan</t>
+  </si>
+  <si>
+    <t>Metoda Pelaksanaan Konstruksi</t>
+  </si>
+  <si>
+    <t>Kerja Praktek/Magang</t>
+  </si>
+  <si>
+    <t>Rekayasa &amp; Perancangan Struktur</t>
+  </si>
+  <si>
+    <t>Struktur Beton Lanjut</t>
+  </si>
+  <si>
+    <t>Struktur Kayu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pengantar Dinamika Tanah dan Rekayasa Gempa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pengembangan Sumber Daya Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rekayasa Pantai dan Rawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Analisis Kebutuhan Pergerakan</t>
+  </si>
+  <si>
+    <t>Rekayasa Struktur dan Bahan Perkerasan</t>
+  </si>
+  <si>
+    <t>Manajemen Lalu Lintas</t>
+  </si>
+  <si>
+    <t>Ekonomi Teknik</t>
+  </si>
+  <si>
+    <t>Estimasi Biaya Konstruksi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Metode Konstruksi dan Manajemen Proyek Infrastruktur</t>
+  </si>
+  <si>
+    <t>Sistem Rekayasa Sipil</t>
+  </si>
+  <si>
+    <t>Beton Prategang</t>
+  </si>
+  <si>
+    <t>Struktur Baja Lanjut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dinding Penahan Tanah dan Stabilitas</t>
+  </si>
+  <si>
+    <t>Bangunan Air</t>
+  </si>
+  <si>
+    <t>Rekayasa Sungai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rekayasa Bangunan Tenaga Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rekayasa Jalan Rel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Evaluasi &amp; Pemeliharaan Perkerasan</t>
+  </si>
+  <si>
+    <t>Rekayasa Prasarana Antar Moda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Metoda Numerik Lanjut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Metodologi Penelitian</t>
+  </si>
+  <si>
+    <t>Analisis Rekayasa</t>
+  </si>
+  <si>
+    <t>Elastisitas dan Plastisitas</t>
+  </si>
+  <si>
+    <t>Mekanika Bahan Lanjut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Teknologi Beton Lanjut</t>
+  </si>
+  <si>
+    <t>Perilaku Struktur Beton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mekanika Tanah Lanjut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Penyelidikan Tanah Lapangan Dan Laboratorium</t>
+  </si>
+  <si>
+    <t>Perilaku Tanah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mekanika Fluida Lanjut</t>
+  </si>
+  <si>
+    <t>Perencanaan &amp; Pengelolaan SDA</t>
+  </si>
+  <si>
+    <t>Kebijakan dan Perencanaan Transportasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ekonomi Transportasi</t>
+  </si>
+  <si>
+    <t>Rekayasa Infrastruktur Transportasi</t>
+  </si>
+  <si>
+    <t>Produktivitas Konstruksi</t>
+  </si>
+  <si>
+    <t>Sistem Perencanaan dan Pengendalian Proyek</t>
   </si>
 </sst>
 </file>
@@ -1306,16 +2128,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E280" sqref="E280"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1360,7 +2182,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1372,6 +2194,9 @@
       </c>
       <c r="D2" t="s">
         <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>298</v>
       </c>
       <c r="F2" t="s">
         <v>294</v>
@@ -1385,7 +2210,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1397,6 +2222,9 @@
       </c>
       <c r="D3" t="s">
         <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>299</v>
       </c>
       <c r="F3" t="s">
         <v>295</v>
@@ -1410,7 +2238,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1422,6 +2250,9 @@
       </c>
       <c r="D4" t="s">
         <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>300</v>
       </c>
       <c r="F4" t="s">
         <v>294</v>
@@ -1435,7 +2266,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1447,6 +2278,9 @@
       </c>
       <c r="D5" t="s">
         <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>301</v>
       </c>
       <c r="F5" t="s">
         <v>296</v>
@@ -1460,7 +2294,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1472,6 +2306,9 @@
       </c>
       <c r="D6" t="s">
         <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>302</v>
       </c>
       <c r="F6" t="s">
         <v>294</v>
@@ -1485,7 +2322,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1497,6 +2334,9 @@
       </c>
       <c r="D7" t="s">
         <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>304</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -1510,7 +2350,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1522,6 +2362,9 @@
       </c>
       <c r="D8" t="s">
         <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>305</v>
       </c>
       <c r="F8" t="s">
         <v>295</v>
@@ -1535,7 +2378,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1547,6 +2390,9 @@
       </c>
       <c r="D9" t="s">
         <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>306</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -1560,7 +2406,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1572,6 +2418,9 @@
       </c>
       <c r="D10" t="s">
         <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>307</v>
       </c>
       <c r="F10" t="s">
         <v>294</v>
@@ -1585,7 +2434,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -1597,6 +2446,9 @@
       </c>
       <c r="D11" t="s">
         <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>308</v>
       </c>
       <c r="F11" t="s">
         <v>294</v>
@@ -1610,7 +2462,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1011</v>
       </c>
@@ -1622,6 +2474,9 @@
       </c>
       <c r="D12" t="s">
         <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>309</v>
       </c>
       <c r="F12" t="s">
         <v>297</v>
@@ -1635,7 +2490,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1012</v>
       </c>
@@ -1647,6 +2502,9 @@
       </c>
       <c r="D13" t="s">
         <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>310</v>
       </c>
       <c r="F13" t="s">
         <v>296</v>
@@ -1660,7 +2518,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1013</v>
       </c>
@@ -1672,6 +2530,9 @@
       </c>
       <c r="D14" t="s">
         <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>311</v>
       </c>
       <c r="F14" t="s">
         <v>295</v>
@@ -1685,7 +2546,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1014</v>
       </c>
@@ -1697,6 +2558,9 @@
       </c>
       <c r="D15" t="s">
         <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>312</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -1710,7 +2574,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1015</v>
       </c>
@@ -1722,6 +2586,9 @@
       </c>
       <c r="D16" t="s">
         <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>313</v>
       </c>
       <c r="F16" t="s">
         <v>297</v>
@@ -1735,7 +2602,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1016</v>
       </c>
@@ -1747,6 +2614,9 @@
       </c>
       <c r="D17" t="s">
         <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>314</v>
       </c>
       <c r="F17" t="s">
         <v>295</v>
@@ -1760,7 +2630,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1017</v>
       </c>
@@ -1772,6 +2642,9 @@
       </c>
       <c r="D18" t="s">
         <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>315</v>
       </c>
       <c r="F18" t="s">
         <v>295</v>
@@ -1785,7 +2658,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1018</v>
       </c>
@@ -1797,6 +2670,9 @@
       </c>
       <c r="D19" t="s">
         <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>316</v>
       </c>
       <c r="F19" t="s">
         <v>295</v>
@@ -1810,7 +2686,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1019</v>
       </c>
@@ -1822,6 +2698,9 @@
       </c>
       <c r="D20" t="s">
         <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>317</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1835,7 +2714,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1020</v>
       </c>
@@ -1847,6 +2726,9 @@
       </c>
       <c r="D21" t="s">
         <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>318</v>
       </c>
       <c r="F21" t="s">
         <v>297</v>
@@ -1860,7 +2742,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1021</v>
       </c>
@@ -1872,6 +2754,9 @@
       </c>
       <c r="D22" t="s">
         <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>319</v>
       </c>
       <c r="F22" t="s">
         <v>297</v>
@@ -1885,7 +2770,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1022</v>
       </c>
@@ -1897,6 +2782,9 @@
       </c>
       <c r="D23" t="s">
         <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>320</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -1910,7 +2798,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1023</v>
       </c>
@@ -1922,6 +2810,9 @@
       </c>
       <c r="D24" t="s">
         <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>321</v>
       </c>
       <c r="F24" t="s">
         <v>295</v>
@@ -1935,7 +2826,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1024</v>
       </c>
@@ -1947,6 +2838,9 @@
       </c>
       <c r="D25" t="s">
         <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>322</v>
       </c>
       <c r="F25" t="s">
         <v>294</v>
@@ -1960,7 +2854,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1025</v>
       </c>
@@ -1972,6 +2866,9 @@
       </c>
       <c r="D26" t="s">
         <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>323</v>
       </c>
       <c r="F26" t="s">
         <v>294</v>
@@ -1985,7 +2882,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1026</v>
       </c>
@@ -1997,6 +2894,9 @@
       </c>
       <c r="D27" t="s">
         <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>324</v>
       </c>
       <c r="F27" t="s">
         <v>294</v>
@@ -2010,7 +2910,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1027</v>
       </c>
@@ -2022,6 +2922,9 @@
       </c>
       <c r="D28" t="s">
         <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>325</v>
       </c>
       <c r="F28" t="s">
         <v>296</v>
@@ -2035,7 +2938,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1028</v>
       </c>
@@ -2047,6 +2950,9 @@
       </c>
       <c r="D29" t="s">
         <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>326</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -2060,7 +2966,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1029</v>
       </c>
@@ -2072,6 +2978,9 @@
       </c>
       <c r="D30" t="s">
         <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>327</v>
       </c>
       <c r="F30" t="s">
         <v>296</v>
@@ -2085,7 +2994,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1030</v>
       </c>
@@ -2097,6 +3006,9 @@
       </c>
       <c r="D31" t="s">
         <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>328</v>
       </c>
       <c r="F31" t="s">
         <v>297</v>
@@ -2110,7 +3022,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1031</v>
       </c>
@@ -2122,6 +3034,9 @@
       </c>
       <c r="D32" t="s">
         <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>329</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -2135,7 +3050,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1032</v>
       </c>
@@ -2147,6 +3062,9 @@
       </c>
       <c r="D33" t="s">
         <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>330</v>
       </c>
       <c r="F33" t="s">
         <v>295</v>
@@ -2160,7 +3078,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1033</v>
       </c>
@@ -2172,6 +3090,9 @@
       </c>
       <c r="D34" t="s">
         <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>331</v>
       </c>
       <c r="F34" t="s">
         <v>296</v>
@@ -2185,7 +3106,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1034</v>
       </c>
@@ -2197,6 +3118,9 @@
       </c>
       <c r="D35" t="s">
         <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>332</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -2210,7 +3134,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1035</v>
       </c>
@@ -2222,6 +3146,9 @@
       </c>
       <c r="D36" t="s">
         <v>49</v>
+      </c>
+      <c r="E36" t="s">
+        <v>333</v>
       </c>
       <c r="F36" t="s">
         <v>296</v>
@@ -2235,7 +3162,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1036</v>
       </c>
@@ -2247,6 +3174,9 @@
       </c>
       <c r="D37" t="s">
         <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>334</v>
       </c>
       <c r="F37" t="s">
         <v>294</v>
@@ -2260,7 +3190,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1037</v>
       </c>
@@ -2272,6 +3202,9 @@
       </c>
       <c r="D38" t="s">
         <v>51</v>
+      </c>
+      <c r="E38" t="s">
+        <v>335</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -2285,7 +3218,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1038</v>
       </c>
@@ -2297,6 +3230,9 @@
       </c>
       <c r="D39" t="s">
         <v>52</v>
+      </c>
+      <c r="E39" t="s">
+        <v>336</v>
       </c>
       <c r="F39" t="s">
         <v>295</v>
@@ -2310,7 +3246,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1039</v>
       </c>
@@ -2322,6 +3258,9 @@
       </c>
       <c r="D40" t="s">
         <v>53</v>
+      </c>
+      <c r="E40" t="s">
+        <v>337</v>
       </c>
       <c r="F40" t="s">
         <v>295</v>
@@ -2335,7 +3274,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1040</v>
       </c>
@@ -2347,6 +3286,9 @@
       </c>
       <c r="D41" t="s">
         <v>54</v>
+      </c>
+      <c r="E41" t="s">
+        <v>338</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -2360,7 +3302,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1041</v>
       </c>
@@ -2373,11 +3315,14 @@
       <c r="D42" t="s">
         <v>55</v>
       </c>
+      <c r="E42" t="s">
+        <v>339</v>
+      </c>
       <c r="F42" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1042</v>
       </c>
@@ -2390,11 +3335,14 @@
       <c r="D43" t="s">
         <v>56</v>
       </c>
+      <c r="E43" t="s">
+        <v>340</v>
+      </c>
       <c r="F43" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1043</v>
       </c>
@@ -2407,11 +3355,14 @@
       <c r="D44" t="s">
         <v>57</v>
       </c>
+      <c r="E44" t="s">
+        <v>341</v>
+      </c>
       <c r="F44" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1044</v>
       </c>
@@ -2424,11 +3375,14 @@
       <c r="D45" t="s">
         <v>58</v>
       </c>
+      <c r="E45" t="s">
+        <v>342</v>
+      </c>
       <c r="F45" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1045</v>
       </c>
@@ -2441,11 +3395,14 @@
       <c r="D46" t="s">
         <v>59</v>
       </c>
+      <c r="E46" t="s">
+        <v>343</v>
+      </c>
       <c r="F46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1046</v>
       </c>
@@ -2458,11 +3415,14 @@
       <c r="D47" t="s">
         <v>60</v>
       </c>
+      <c r="E47" t="s">
+        <v>344</v>
+      </c>
       <c r="F47" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1047</v>
       </c>
@@ -2475,11 +3435,14 @@
       <c r="D48" t="s">
         <v>61</v>
       </c>
+      <c r="E48" t="s">
+        <v>345</v>
+      </c>
       <c r="F48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1048</v>
       </c>
@@ -2492,11 +3455,14 @@
       <c r="D49" t="s">
         <v>62</v>
       </c>
+      <c r="E49" t="s">
+        <v>346</v>
+      </c>
       <c r="F49" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1049</v>
       </c>
@@ -2509,11 +3475,14 @@
       <c r="D50" t="s">
         <v>63</v>
       </c>
+      <c r="E50" t="s">
+        <v>347</v>
+      </c>
       <c r="F50" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1050</v>
       </c>
@@ -2526,11 +3495,14 @@
       <c r="D51" t="s">
         <v>64</v>
       </c>
+      <c r="E51" t="s">
+        <v>348</v>
+      </c>
       <c r="F51" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1051</v>
       </c>
@@ -2543,11 +3515,14 @@
       <c r="D52" t="s">
         <v>65</v>
       </c>
+      <c r="E52" t="s">
+        <v>349</v>
+      </c>
       <c r="F52" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1052</v>
       </c>
@@ -2560,11 +3535,14 @@
       <c r="D53" t="s">
         <v>66</v>
       </c>
+      <c r="E53" t="s">
+        <v>350</v>
+      </c>
       <c r="F53" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1053</v>
       </c>
@@ -2577,11 +3555,14 @@
       <c r="D54" t="s">
         <v>67</v>
       </c>
+      <c r="E54" t="s">
+        <v>351</v>
+      </c>
       <c r="F54" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1054</v>
       </c>
@@ -2594,11 +3575,14 @@
       <c r="D55" t="s">
         <v>68</v>
       </c>
+      <c r="E55" t="s">
+        <v>352</v>
+      </c>
       <c r="F55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1055</v>
       </c>
@@ -2611,11 +3595,14 @@
       <c r="D56" t="s">
         <v>69</v>
       </c>
+      <c r="E56" t="s">
+        <v>353</v>
+      </c>
       <c r="F56" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1056</v>
       </c>
@@ -2628,11 +3615,14 @@
       <c r="D57" t="s">
         <v>70</v>
       </c>
+      <c r="E57" t="s">
+        <v>354</v>
+      </c>
       <c r="F57" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1057</v>
       </c>
@@ -2645,11 +3635,14 @@
       <c r="D58" t="s">
         <v>71</v>
       </c>
+      <c r="E58" t="s">
+        <v>355</v>
+      </c>
       <c r="F58" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1058</v>
       </c>
@@ -2662,11 +3655,14 @@
       <c r="D59" t="s">
         <v>72</v>
       </c>
+      <c r="E59" t="s">
+        <v>356</v>
+      </c>
       <c r="F59" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1059</v>
       </c>
@@ -2679,11 +3675,14 @@
       <c r="D60" t="s">
         <v>73</v>
       </c>
+      <c r="E60" t="s">
+        <v>357</v>
+      </c>
       <c r="F60" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1060</v>
       </c>
@@ -2696,11 +3695,14 @@
       <c r="D61" t="s">
         <v>74</v>
       </c>
+      <c r="E61" t="s">
+        <v>358</v>
+      </c>
       <c r="F61" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1061</v>
       </c>
@@ -2713,11 +3715,14 @@
       <c r="D62" t="s">
         <v>75</v>
       </c>
+      <c r="E62" t="s">
+        <v>359</v>
+      </c>
       <c r="F62" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1062</v>
       </c>
@@ -2730,11 +3735,14 @@
       <c r="D63" t="s">
         <v>76</v>
       </c>
+      <c r="E63" t="s">
+        <v>360</v>
+      </c>
       <c r="F63" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1063</v>
       </c>
@@ -2747,11 +3755,14 @@
       <c r="D64" t="s">
         <v>77</v>
       </c>
+      <c r="E64" t="s">
+        <v>361</v>
+      </c>
       <c r="F64" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1064</v>
       </c>
@@ -2764,11 +3775,14 @@
       <c r="D65" t="s">
         <v>78</v>
       </c>
+      <c r="E65" t="s">
+        <v>362</v>
+      </c>
       <c r="F65" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1065</v>
       </c>
@@ -2781,11 +3795,14 @@
       <c r="D66" t="s">
         <v>79</v>
       </c>
+      <c r="E66" t="s">
+        <v>363</v>
+      </c>
       <c r="F66" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1066</v>
       </c>
@@ -2798,11 +3815,14 @@
       <c r="D67" t="s">
         <v>80</v>
       </c>
+      <c r="E67" t="s">
+        <v>364</v>
+      </c>
       <c r="F67" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1067</v>
       </c>
@@ -2815,11 +3835,14 @@
       <c r="D68" t="s">
         <v>81</v>
       </c>
+      <c r="E68" t="s">
+        <v>365</v>
+      </c>
       <c r="F68" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1068</v>
       </c>
@@ -2832,11 +3855,14 @@
       <c r="D69" t="s">
         <v>82</v>
       </c>
+      <c r="E69" t="s">
+        <v>366</v>
+      </c>
       <c r="F69" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1069</v>
       </c>
@@ -2849,11 +3875,14 @@
       <c r="D70" t="s">
         <v>83</v>
       </c>
+      <c r="E70" t="s">
+        <v>367</v>
+      </c>
       <c r="F70" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1070</v>
       </c>
@@ -2866,11 +3895,14 @@
       <c r="D71" t="s">
         <v>84</v>
       </c>
+      <c r="E71" t="s">
+        <v>368</v>
+      </c>
       <c r="F71" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2001</v>
       </c>
@@ -2883,11 +3915,14 @@
       <c r="D72" t="s">
         <v>85</v>
       </c>
+      <c r="E72" t="s">
+        <v>369</v>
+      </c>
       <c r="F72" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2002</v>
       </c>
@@ -2900,11 +3935,14 @@
       <c r="D73" t="s">
         <v>86</v>
       </c>
+      <c r="E73" t="s">
+        <v>370</v>
+      </c>
       <c r="F73" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2003</v>
       </c>
@@ -2917,11 +3955,14 @@
       <c r="D74" t="s">
         <v>87</v>
       </c>
+      <c r="E74" t="s">
+        <v>371</v>
+      </c>
       <c r="F74" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2004</v>
       </c>
@@ -2934,11 +3975,14 @@
       <c r="D75" t="s">
         <v>88</v>
       </c>
+      <c r="E75" t="s">
+        <v>372</v>
+      </c>
       <c r="F75" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2005</v>
       </c>
@@ -2951,11 +3995,14 @@
       <c r="D76" t="s">
         <v>89</v>
       </c>
+      <c r="E76" t="s">
+        <v>303</v>
+      </c>
       <c r="F76" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2006</v>
       </c>
@@ -2968,11 +4015,14 @@
       <c r="D77" t="s">
         <v>90</v>
       </c>
+      <c r="E77" t="s">
+        <v>373</v>
+      </c>
       <c r="F77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2007</v>
       </c>
@@ -2985,11 +4035,14 @@
       <c r="D78" t="s">
         <v>91</v>
       </c>
+      <c r="E78" t="s">
+        <v>374</v>
+      </c>
       <c r="F78" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2008</v>
       </c>
@@ -3002,11 +4055,14 @@
       <c r="D79" t="s">
         <v>92</v>
       </c>
+      <c r="E79" t="s">
+        <v>375</v>
+      </c>
       <c r="F79" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2009</v>
       </c>
@@ -3019,11 +4075,14 @@
       <c r="D80" t="s">
         <v>93</v>
       </c>
+      <c r="E80" t="s">
+        <v>376</v>
+      </c>
       <c r="F80" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2010</v>
       </c>
@@ -3036,11 +4095,14 @@
       <c r="D81" t="s">
         <v>94</v>
       </c>
+      <c r="E81" t="s">
+        <v>377</v>
+      </c>
       <c r="F81" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2011</v>
       </c>
@@ -3053,11 +4115,14 @@
       <c r="D82" t="s">
         <v>95</v>
       </c>
+      <c r="E82" t="s">
+        <v>378</v>
+      </c>
       <c r="F82" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2012</v>
       </c>
@@ -3070,11 +4135,14 @@
       <c r="D83" t="s">
         <v>96</v>
       </c>
+      <c r="E83" t="s">
+        <v>379</v>
+      </c>
       <c r="F83" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2013</v>
       </c>
@@ -3087,11 +4155,14 @@
       <c r="D84" t="s">
         <v>97</v>
       </c>
+      <c r="E84" t="s">
+        <v>380</v>
+      </c>
       <c r="F84" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2014</v>
       </c>
@@ -3104,11 +4175,14 @@
       <c r="D85" t="s">
         <v>98</v>
       </c>
+      <c r="E85" t="s">
+        <v>381</v>
+      </c>
       <c r="F85" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2015</v>
       </c>
@@ -3121,11 +4195,14 @@
       <c r="D86" t="s">
         <v>99</v>
       </c>
+      <c r="E86" t="s">
+        <v>382</v>
+      </c>
       <c r="F86" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2016</v>
       </c>
@@ -3138,11 +4215,14 @@
       <c r="D87" t="s">
         <v>100</v>
       </c>
+      <c r="E87" t="s">
+        <v>383</v>
+      </c>
       <c r="F87" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2017</v>
       </c>
@@ -3155,11 +4235,14 @@
       <c r="D88" t="s">
         <v>101</v>
       </c>
+      <c r="E88" t="s">
+        <v>384</v>
+      </c>
       <c r="F88" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2018</v>
       </c>
@@ -3172,11 +4255,14 @@
       <c r="D89" t="s">
         <v>102</v>
       </c>
+      <c r="E89" t="s">
+        <v>385</v>
+      </c>
       <c r="F89" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2019</v>
       </c>
@@ -3189,11 +4275,14 @@
       <c r="D90" t="s">
         <v>103</v>
       </c>
+      <c r="E90" t="s">
+        <v>386</v>
+      </c>
       <c r="F90" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2020</v>
       </c>
@@ -3206,11 +4295,14 @@
       <c r="D91" t="s">
         <v>104</v>
       </c>
+      <c r="E91" t="s">
+        <v>387</v>
+      </c>
       <c r="F91" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2021</v>
       </c>
@@ -3223,11 +4315,14 @@
       <c r="D92" t="s">
         <v>105</v>
       </c>
+      <c r="E92" t="s">
+        <v>388</v>
+      </c>
       <c r="F92" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2022</v>
       </c>
@@ -3240,11 +4335,14 @@
       <c r="D93" t="s">
         <v>106</v>
       </c>
+      <c r="E93" t="s">
+        <v>389</v>
+      </c>
       <c r="F93" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2023</v>
       </c>
@@ -3257,11 +4355,14 @@
       <c r="D94" t="s">
         <v>107</v>
       </c>
+      <c r="E94" t="s">
+        <v>390</v>
+      </c>
       <c r="F94" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2024</v>
       </c>
@@ -3274,11 +4375,14 @@
       <c r="D95" t="s">
         <v>108</v>
       </c>
+      <c r="E95" t="s">
+        <v>391</v>
+      </c>
       <c r="F95" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2025</v>
       </c>
@@ -3291,11 +4395,14 @@
       <c r="D96" t="s">
         <v>109</v>
       </c>
+      <c r="E96" t="s">
+        <v>392</v>
+      </c>
       <c r="F96" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2026</v>
       </c>
@@ -3308,11 +4415,14 @@
       <c r="D97" t="s">
         <v>110</v>
       </c>
+      <c r="E97" t="s">
+        <v>393</v>
+      </c>
       <c r="F97" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2027</v>
       </c>
@@ -3325,11 +4435,14 @@
       <c r="D98" t="s">
         <v>111</v>
       </c>
+      <c r="E98" t="s">
+        <v>394</v>
+      </c>
       <c r="F98" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2028</v>
       </c>
@@ -3342,11 +4455,14 @@
       <c r="D99" t="s">
         <v>112</v>
       </c>
+      <c r="E99" t="s">
+        <v>395</v>
+      </c>
       <c r="F99" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2029</v>
       </c>
@@ -3359,11 +4475,14 @@
       <c r="D100" t="s">
         <v>113</v>
       </c>
+      <c r="E100" t="s">
+        <v>396</v>
+      </c>
       <c r="F100" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2030</v>
       </c>
@@ -3376,11 +4495,14 @@
       <c r="D101" t="s">
         <v>114</v>
       </c>
+      <c r="E101" t="s">
+        <v>397</v>
+      </c>
       <c r="F101" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2031</v>
       </c>
@@ -3393,11 +4515,14 @@
       <c r="D102" t="s">
         <v>115</v>
       </c>
+      <c r="E102" t="s">
+        <v>398</v>
+      </c>
       <c r="F102" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2032</v>
       </c>
@@ -3410,11 +4535,14 @@
       <c r="D103" t="s">
         <v>116</v>
       </c>
+      <c r="E103" t="s">
+        <v>399</v>
+      </c>
       <c r="F103" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2033</v>
       </c>
@@ -3427,11 +4555,14 @@
       <c r="D104" t="s">
         <v>117</v>
       </c>
+      <c r="E104" t="s">
+        <v>400</v>
+      </c>
       <c r="F104" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2034</v>
       </c>
@@ -3444,11 +4575,14 @@
       <c r="D105" t="s">
         <v>118</v>
       </c>
+      <c r="E105" t="s">
+        <v>401</v>
+      </c>
       <c r="F105" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2035</v>
       </c>
@@ -3461,11 +4595,14 @@
       <c r="D106" t="s">
         <v>119</v>
       </c>
+      <c r="E106" t="s">
+        <v>402</v>
+      </c>
       <c r="F106" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2036</v>
       </c>
@@ -3478,11 +4615,14 @@
       <c r="D107" t="s">
         <v>120</v>
       </c>
+      <c r="E107" t="s">
+        <v>403</v>
+      </c>
       <c r="F107" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2037</v>
       </c>
@@ -3495,11 +4635,14 @@
       <c r="D108" t="s">
         <v>121</v>
       </c>
+      <c r="E108" t="s">
+        <v>348</v>
+      </c>
       <c r="F108" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2038</v>
       </c>
@@ -3512,11 +4655,14 @@
       <c r="D109" t="s">
         <v>122</v>
       </c>
+      <c r="E109" t="s">
+        <v>404</v>
+      </c>
       <c r="F109" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2039</v>
       </c>
@@ -3529,11 +4675,14 @@
       <c r="D110" t="s">
         <v>123</v>
       </c>
+      <c r="E110" t="s">
+        <v>405</v>
+      </c>
       <c r="F110" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2040</v>
       </c>
@@ -3546,11 +4695,14 @@
       <c r="D111" t="s">
         <v>124</v>
       </c>
+      <c r="E111" t="s">
+        <v>406</v>
+      </c>
       <c r="F111" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2041</v>
       </c>
@@ -3563,11 +4715,14 @@
       <c r="D112" t="s">
         <v>125</v>
       </c>
+      <c r="E112" t="s">
+        <v>317</v>
+      </c>
       <c r="F112" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2042</v>
       </c>
@@ -3580,11 +4735,14 @@
       <c r="D113" t="s">
         <v>126</v>
       </c>
+      <c r="E113" t="s">
+        <v>407</v>
+      </c>
       <c r="F113" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2043</v>
       </c>
@@ -3597,11 +4755,14 @@
       <c r="D114" t="s">
         <v>127</v>
       </c>
+      <c r="E114" t="s">
+        <v>408</v>
+      </c>
       <c r="F114" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2044</v>
       </c>
@@ -3614,11 +4775,14 @@
       <c r="D115" t="s">
         <v>128</v>
       </c>
+      <c r="E115" t="s">
+        <v>409</v>
+      </c>
       <c r="F115" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2045</v>
       </c>
@@ -3631,11 +4795,14 @@
       <c r="D116" t="s">
         <v>129</v>
       </c>
+      <c r="E116" t="s">
+        <v>410</v>
+      </c>
       <c r="F116" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2046</v>
       </c>
@@ -3648,11 +4815,14 @@
       <c r="D117" t="s">
         <v>130</v>
       </c>
+      <c r="E117" t="s">
+        <v>411</v>
+      </c>
       <c r="F117" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2047</v>
       </c>
@@ -3665,11 +4835,14 @@
       <c r="D118" t="s">
         <v>131</v>
       </c>
+      <c r="E118" t="s">
+        <v>412</v>
+      </c>
       <c r="F118" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2048</v>
       </c>
@@ -3682,11 +4855,14 @@
       <c r="D119" t="s">
         <v>132</v>
       </c>
+      <c r="E119" t="s">
+        <v>413</v>
+      </c>
       <c r="F119" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2049</v>
       </c>
@@ -3699,11 +4875,14 @@
       <c r="D120" t="s">
         <v>133</v>
       </c>
+      <c r="E120" t="s">
+        <v>414</v>
+      </c>
       <c r="F120" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2050</v>
       </c>
@@ -3716,11 +4895,14 @@
       <c r="D121" t="s">
         <v>134</v>
       </c>
+      <c r="E121" t="s">
+        <v>415</v>
+      </c>
       <c r="F121" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2051</v>
       </c>
@@ -3733,11 +4915,14 @@
       <c r="D122" t="s">
         <v>135</v>
       </c>
+      <c r="E122" t="s">
+        <v>416</v>
+      </c>
       <c r="F122" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2052</v>
       </c>
@@ -3750,11 +4935,14 @@
       <c r="D123" t="s">
         <v>136</v>
       </c>
+      <c r="E123" t="s">
+        <v>417</v>
+      </c>
       <c r="F123" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2053</v>
       </c>
@@ -3767,11 +4955,14 @@
       <c r="D124" t="s">
         <v>137</v>
       </c>
+      <c r="E124" t="s">
+        <v>418</v>
+      </c>
       <c r="F124" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2054</v>
       </c>
@@ -3784,11 +4975,14 @@
       <c r="D125" t="s">
         <v>138</v>
       </c>
+      <c r="E125" t="s">
+        <v>419</v>
+      </c>
       <c r="F125" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2055</v>
       </c>
@@ -3801,11 +4995,14 @@
       <c r="D126" t="s">
         <v>139</v>
       </c>
+      <c r="E126" t="s">
+        <v>420</v>
+      </c>
       <c r="F126" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2056</v>
       </c>
@@ -3818,11 +5015,14 @@
       <c r="D127" t="s">
         <v>140</v>
       </c>
+      <c r="E127" t="s">
+        <v>421</v>
+      </c>
       <c r="F127" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2057</v>
       </c>
@@ -3835,11 +5035,14 @@
       <c r="D128" t="s">
         <v>141</v>
       </c>
+      <c r="E128" t="s">
+        <v>422</v>
+      </c>
       <c r="F128" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2058</v>
       </c>
@@ -3852,11 +5055,14 @@
       <c r="D129" t="s">
         <v>142</v>
       </c>
+      <c r="E129" t="s">
+        <v>423</v>
+      </c>
       <c r="F129" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2059</v>
       </c>
@@ -3869,11 +5075,14 @@
       <c r="D130" t="s">
         <v>143</v>
       </c>
+      <c r="E130" t="s">
+        <v>424</v>
+      </c>
       <c r="F130" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2060</v>
       </c>
@@ -3886,11 +5095,14 @@
       <c r="D131" t="s">
         <v>144</v>
       </c>
+      <c r="E131" t="s">
+        <v>425</v>
+      </c>
       <c r="F131" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2061</v>
       </c>
@@ -3903,11 +5115,14 @@
       <c r="D132" t="s">
         <v>145</v>
       </c>
+      <c r="E132" t="s">
+        <v>426</v>
+      </c>
       <c r="F132" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2062</v>
       </c>
@@ -3920,11 +5135,14 @@
       <c r="D133" t="s">
         <v>146</v>
       </c>
+      <c r="E133" t="s">
+        <v>427</v>
+      </c>
       <c r="F133" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2063</v>
       </c>
@@ -3937,11 +5155,14 @@
       <c r="D134" t="s">
         <v>147</v>
       </c>
+      <c r="E134" t="s">
+        <v>428</v>
+      </c>
       <c r="F134" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2064</v>
       </c>
@@ -3954,11 +5175,14 @@
       <c r="D135" t="s">
         <v>148</v>
       </c>
+      <c r="E135" t="s">
+        <v>429</v>
+      </c>
       <c r="F135" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2065</v>
       </c>
@@ -3971,11 +5195,14 @@
       <c r="D136" t="s">
         <v>149</v>
       </c>
+      <c r="E136" t="s">
+        <v>430</v>
+      </c>
       <c r="F136" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2066</v>
       </c>
@@ -3988,11 +5215,14 @@
       <c r="D137" t="s">
         <v>150</v>
       </c>
+      <c r="E137" t="s">
+        <v>431</v>
+      </c>
       <c r="F137" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2067</v>
       </c>
@@ -4005,11 +5235,14 @@
       <c r="D138" t="s">
         <v>151</v>
       </c>
+      <c r="E138" t="s">
+        <v>432</v>
+      </c>
       <c r="F138" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2068</v>
       </c>
@@ -4022,11 +5255,14 @@
       <c r="D139" t="s">
         <v>152</v>
       </c>
+      <c r="E139" t="s">
+        <v>433</v>
+      </c>
       <c r="F139" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2069</v>
       </c>
@@ -4039,11 +5275,14 @@
       <c r="D140" t="s">
         <v>153</v>
       </c>
+      <c r="E140" t="s">
+        <v>434</v>
+      </c>
       <c r="F140" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>3001</v>
       </c>
@@ -4056,11 +5295,14 @@
       <c r="D141" t="s">
         <v>154</v>
       </c>
+      <c r="E141" t="s">
+        <v>435</v>
+      </c>
       <c r="F141" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>3002</v>
       </c>
@@ -4073,11 +5315,14 @@
       <c r="D142" t="s">
         <v>155</v>
       </c>
+      <c r="E142" t="s">
+        <v>436</v>
+      </c>
       <c r="F142" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3003</v>
       </c>
@@ -4090,11 +5335,14 @@
       <c r="D143" t="s">
         <v>156</v>
       </c>
+      <c r="E143" t="s">
+        <v>437</v>
+      </c>
       <c r="F143" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3004</v>
       </c>
@@ -4107,11 +5355,14 @@
       <c r="D144" t="s">
         <v>157</v>
       </c>
+      <c r="E144" t="s">
+        <v>438</v>
+      </c>
       <c r="F144" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>3005</v>
       </c>
@@ -4124,11 +5375,14 @@
       <c r="D145" t="s">
         <v>158</v>
       </c>
+      <c r="E145" t="s">
+        <v>439</v>
+      </c>
       <c r="F145" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>3006</v>
       </c>
@@ -4141,11 +5395,14 @@
       <c r="D146" t="s">
         <v>159</v>
       </c>
+      <c r="E146" t="s">
+        <v>440</v>
+      </c>
       <c r="F146" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>3007</v>
       </c>
@@ -4158,11 +5415,14 @@
       <c r="D147" t="s">
         <v>160</v>
       </c>
+      <c r="E147" t="s">
+        <v>441</v>
+      </c>
       <c r="F147" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3008</v>
       </c>
@@ -4175,11 +5435,14 @@
       <c r="D148" t="s">
         <v>161</v>
       </c>
+      <c r="E148" t="s">
+        <v>442</v>
+      </c>
       <c r="F148" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3009</v>
       </c>
@@ -4192,11 +5455,14 @@
       <c r="D149" t="s">
         <v>162</v>
       </c>
+      <c r="E149" t="s">
+        <v>443</v>
+      </c>
       <c r="F149" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>3010</v>
       </c>
@@ -4209,11 +5475,14 @@
       <c r="D150" t="s">
         <v>163</v>
       </c>
+      <c r="E150" t="s">
+        <v>444</v>
+      </c>
       <c r="F150" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>3011</v>
       </c>
@@ -4226,11 +5495,14 @@
       <c r="D151" t="s">
         <v>164</v>
       </c>
+      <c r="E151" t="s">
+        <v>445</v>
+      </c>
       <c r="F151" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>3012</v>
       </c>
@@ -4243,11 +5515,14 @@
       <c r="D152" t="s">
         <v>165</v>
       </c>
+      <c r="E152" t="s">
+        <v>446</v>
+      </c>
       <c r="F152" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>3013</v>
       </c>
@@ -4260,11 +5535,14 @@
       <c r="D153" t="s">
         <v>166</v>
       </c>
+      <c r="E153" t="s">
+        <v>447</v>
+      </c>
       <c r="F153" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>3014</v>
       </c>
@@ -4277,11 +5555,14 @@
       <c r="D154" t="s">
         <v>167</v>
       </c>
+      <c r="E154" t="s">
+        <v>448</v>
+      </c>
       <c r="F154" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>3015</v>
       </c>
@@ -4294,11 +5575,14 @@
       <c r="D155" t="s">
         <v>168</v>
       </c>
+      <c r="E155" t="s">
+        <v>449</v>
+      </c>
       <c r="F155" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>3016</v>
       </c>
@@ -4311,11 +5595,14 @@
       <c r="D156" t="s">
         <v>169</v>
       </c>
+      <c r="E156" t="s">
+        <v>450</v>
+      </c>
       <c r="F156" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>3017</v>
       </c>
@@ -4328,11 +5615,14 @@
       <c r="D157" t="s">
         <v>170</v>
       </c>
+      <c r="E157" t="s">
+        <v>451</v>
+      </c>
       <c r="F157" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>3018</v>
       </c>
@@ -4345,11 +5635,14 @@
       <c r="D158" t="s">
         <v>171</v>
       </c>
+      <c r="E158" t="s">
+        <v>452</v>
+      </c>
       <c r="F158" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>3019</v>
       </c>
@@ -4362,11 +5655,14 @@
       <c r="D159" t="s">
         <v>172</v>
       </c>
+      <c r="E159" t="s">
+        <v>453</v>
+      </c>
       <c r="F159" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>3020</v>
       </c>
@@ -4379,11 +5675,14 @@
       <c r="D160" t="s">
         <v>173</v>
       </c>
+      <c r="E160" t="s">
+        <v>454</v>
+      </c>
       <c r="F160" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>3021</v>
       </c>
@@ -4396,11 +5695,14 @@
       <c r="D161" t="s">
         <v>174</v>
       </c>
+      <c r="E161" t="s">
+        <v>455</v>
+      </c>
       <c r="F161" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>3022</v>
       </c>
@@ -4413,11 +5715,14 @@
       <c r="D162" t="s">
         <v>175</v>
       </c>
+      <c r="E162" t="s">
+        <v>456</v>
+      </c>
       <c r="F162" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>3023</v>
       </c>
@@ -4430,11 +5735,14 @@
       <c r="D163" t="s">
         <v>176</v>
       </c>
+      <c r="E163" t="s">
+        <v>457</v>
+      </c>
       <c r="F163" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>3024</v>
       </c>
@@ -4447,11 +5755,14 @@
       <c r="D164" t="s">
         <v>177</v>
       </c>
+      <c r="E164" t="s">
+        <v>458</v>
+      </c>
       <c r="F164" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>3025</v>
       </c>
@@ -4464,11 +5775,14 @@
       <c r="D165" t="s">
         <v>178</v>
       </c>
+      <c r="E165" t="s">
+        <v>459</v>
+      </c>
       <c r="F165" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>3026</v>
       </c>
@@ -4481,11 +5795,14 @@
       <c r="D166" t="s">
         <v>179</v>
       </c>
+      <c r="E166" t="s">
+        <v>460</v>
+      </c>
       <c r="F166" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>3027</v>
       </c>
@@ -4498,11 +5815,14 @@
       <c r="D167" t="s">
         <v>180</v>
       </c>
+      <c r="E167" t="s">
+        <v>461</v>
+      </c>
       <c r="F167" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>3028</v>
       </c>
@@ -4515,11 +5835,14 @@
       <c r="D168" t="s">
         <v>181</v>
       </c>
+      <c r="E168" t="s">
+        <v>462</v>
+      </c>
       <c r="F168" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>3029</v>
       </c>
@@ -4532,11 +5855,14 @@
       <c r="D169" t="s">
         <v>182</v>
       </c>
+      <c r="E169" t="s">
+        <v>463</v>
+      </c>
       <c r="F169" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>3030</v>
       </c>
@@ -4549,11 +5875,14 @@
       <c r="D170" t="s">
         <v>183</v>
       </c>
+      <c r="E170" t="s">
+        <v>464</v>
+      </c>
       <c r="F170" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>3031</v>
       </c>
@@ -4566,11 +5895,14 @@
       <c r="D171" t="s">
         <v>184</v>
       </c>
+      <c r="E171" t="s">
+        <v>465</v>
+      </c>
       <c r="F171" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>3032</v>
       </c>
@@ -4583,11 +5915,14 @@
       <c r="D172" t="s">
         <v>185</v>
       </c>
+      <c r="E172" t="s">
+        <v>466</v>
+      </c>
       <c r="F172" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>3033</v>
       </c>
@@ -4600,11 +5935,14 @@
       <c r="D173" t="s">
         <v>186</v>
       </c>
+      <c r="E173" t="s">
+        <v>467</v>
+      </c>
       <c r="F173" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>3034</v>
       </c>
@@ -4617,11 +5955,14 @@
       <c r="D174" t="s">
         <v>187</v>
       </c>
+      <c r="E174" t="s">
+        <v>468</v>
+      </c>
       <c r="F174" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>3035</v>
       </c>
@@ -4634,11 +5975,14 @@
       <c r="D175" t="s">
         <v>188</v>
       </c>
+      <c r="E175" t="s">
+        <v>469</v>
+      </c>
       <c r="F175" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>3036</v>
       </c>
@@ -4651,11 +5995,14 @@
       <c r="D176" t="s">
         <v>189</v>
       </c>
+      <c r="E176" t="s">
+        <v>470</v>
+      </c>
       <c r="F176" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>3037</v>
       </c>
@@ -4668,11 +6015,14 @@
       <c r="D177" t="s">
         <v>190</v>
       </c>
+      <c r="E177" t="s">
+        <v>471</v>
+      </c>
       <c r="F177" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>3038</v>
       </c>
@@ -4685,11 +6035,14 @@
       <c r="D178" t="s">
         <v>191</v>
       </c>
+      <c r="E178" t="s">
+        <v>472</v>
+      </c>
       <c r="F178" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>3039</v>
       </c>
@@ -4702,11 +6055,14 @@
       <c r="D179" t="s">
         <v>192</v>
       </c>
+      <c r="E179" t="s">
+        <v>473</v>
+      </c>
       <c r="F179" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>3040</v>
       </c>
@@ -4719,11 +6075,14 @@
       <c r="D180" t="s">
         <v>193</v>
       </c>
+      <c r="E180" t="s">
+        <v>474</v>
+      </c>
       <c r="F180" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>3041</v>
       </c>
@@ -4736,11 +6095,14 @@
       <c r="D181" t="s">
         <v>194</v>
       </c>
+      <c r="E181" t="s">
+        <v>475</v>
+      </c>
       <c r="F181" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>3042</v>
       </c>
@@ -4753,11 +6115,14 @@
       <c r="D182" t="s">
         <v>195</v>
       </c>
+      <c r="E182" t="s">
+        <v>476</v>
+      </c>
       <c r="F182" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>3043</v>
       </c>
@@ -4770,11 +6135,14 @@
       <c r="D183" t="s">
         <v>196</v>
       </c>
+      <c r="E183" t="s">
+        <v>477</v>
+      </c>
       <c r="F183" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>3044</v>
       </c>
@@ -4787,11 +6155,14 @@
       <c r="D184" t="s">
         <v>197</v>
       </c>
+      <c r="E184" t="s">
+        <v>478</v>
+      </c>
       <c r="F184" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>3045</v>
       </c>
@@ -4804,11 +6175,14 @@
       <c r="D185" t="s">
         <v>198</v>
       </c>
+      <c r="E185" t="s">
+        <v>479</v>
+      </c>
       <c r="F185" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>3046</v>
       </c>
@@ -4821,11 +6195,14 @@
       <c r="D186" t="s">
         <v>199</v>
       </c>
+      <c r="E186" t="s">
+        <v>480</v>
+      </c>
       <c r="F186" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>3047</v>
       </c>
@@ -4838,11 +6215,14 @@
       <c r="D187" t="s">
         <v>200</v>
       </c>
+      <c r="E187" t="s">
+        <v>481</v>
+      </c>
       <c r="F187" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>3048</v>
       </c>
@@ -4855,11 +6235,14 @@
       <c r="D188" t="s">
         <v>201</v>
       </c>
+      <c r="E188" t="s">
+        <v>482</v>
+      </c>
       <c r="F188" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>3049</v>
       </c>
@@ -4872,11 +6255,14 @@
       <c r="D189" t="s">
         <v>202</v>
       </c>
+      <c r="E189" t="s">
+        <v>483</v>
+      </c>
       <c r="F189" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>3050</v>
       </c>
@@ -4889,11 +6275,14 @@
       <c r="D190" t="s">
         <v>203</v>
       </c>
+      <c r="E190" t="s">
+        <v>484</v>
+      </c>
       <c r="F190" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>3051</v>
       </c>
@@ -4906,11 +6295,14 @@
       <c r="D191" t="s">
         <v>204</v>
       </c>
+      <c r="E191" t="s">
+        <v>485</v>
+      </c>
       <c r="F191" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>3052</v>
       </c>
@@ -4923,11 +6315,14 @@
       <c r="D192" t="s">
         <v>205</v>
       </c>
+      <c r="E192" t="s">
+        <v>486</v>
+      </c>
       <c r="F192" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>3053</v>
       </c>
@@ -4940,11 +6335,14 @@
       <c r="D193" t="s">
         <v>206</v>
       </c>
+      <c r="E193" t="s">
+        <v>487</v>
+      </c>
       <c r="F193" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>3054</v>
       </c>
@@ -4957,11 +6355,14 @@
       <c r="D194" t="s">
         <v>207</v>
       </c>
+      <c r="E194" t="s">
+        <v>488</v>
+      </c>
       <c r="F194" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>3055</v>
       </c>
@@ -4974,11 +6375,14 @@
       <c r="D195" t="s">
         <v>208</v>
       </c>
+      <c r="E195" t="s">
+        <v>489</v>
+      </c>
       <c r="F195" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>3056</v>
       </c>
@@ -4991,11 +6395,14 @@
       <c r="D196" t="s">
         <v>209</v>
       </c>
+      <c r="E196" t="s">
+        <v>490</v>
+      </c>
       <c r="F196" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>3057</v>
       </c>
@@ -5008,11 +6415,14 @@
       <c r="D197" t="s">
         <v>210</v>
       </c>
+      <c r="E197" t="s">
+        <v>491</v>
+      </c>
       <c r="F197" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>3058</v>
       </c>
@@ -5025,11 +6435,14 @@
       <c r="D198" t="s">
         <v>211</v>
       </c>
+      <c r="E198" t="s">
+        <v>492</v>
+      </c>
       <c r="F198" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>3059</v>
       </c>
@@ -5042,11 +6455,14 @@
       <c r="D199" t="s">
         <v>212</v>
       </c>
+      <c r="E199" t="s">
+        <v>493</v>
+      </c>
       <c r="F199" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>3060</v>
       </c>
@@ -5059,11 +6475,14 @@
       <c r="D200" t="s">
         <v>213</v>
       </c>
+      <c r="E200" t="s">
+        <v>494</v>
+      </c>
       <c r="F200" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>3061</v>
       </c>
@@ -5076,11 +6495,14 @@
       <c r="D201" t="s">
         <v>214</v>
       </c>
+      <c r="E201" t="s">
+        <v>495</v>
+      </c>
       <c r="F201" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>3062</v>
       </c>
@@ -5093,11 +6515,14 @@
       <c r="D202" t="s">
         <v>215</v>
       </c>
+      <c r="E202" t="s">
+        <v>496</v>
+      </c>
       <c r="F202" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>3063</v>
       </c>
@@ -5110,11 +6535,14 @@
       <c r="D203" t="s">
         <v>216</v>
       </c>
+      <c r="E203" t="s">
+        <v>497</v>
+      </c>
       <c r="F203" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>3064</v>
       </c>
@@ -5127,11 +6555,14 @@
       <c r="D204" t="s">
         <v>217</v>
       </c>
+      <c r="E204" t="s">
+        <v>498</v>
+      </c>
       <c r="F204" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>3065</v>
       </c>
@@ -5144,11 +6575,14 @@
       <c r="D205" t="s">
         <v>218</v>
       </c>
+      <c r="E205" t="s">
+        <v>483</v>
+      </c>
       <c r="F205" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>3066</v>
       </c>
@@ -5161,11 +6595,14 @@
       <c r="D206" t="s">
         <v>219</v>
       </c>
+      <c r="E206" t="s">
+        <v>499</v>
+      </c>
       <c r="F206" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>3067</v>
       </c>
@@ -5178,11 +6615,14 @@
       <c r="D207" t="s">
         <v>220</v>
       </c>
+      <c r="E207" t="s">
+        <v>500</v>
+      </c>
       <c r="F207" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>3068</v>
       </c>
@@ -5195,11 +6635,14 @@
       <c r="D208" t="s">
         <v>221</v>
       </c>
+      <c r="E208" t="s">
+        <v>501</v>
+      </c>
       <c r="F208" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>3069</v>
       </c>
@@ -5212,11 +6655,14 @@
       <c r="D209" t="s">
         <v>222</v>
       </c>
+      <c r="E209" t="s">
+        <v>502</v>
+      </c>
       <c r="F209" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>3070</v>
       </c>
@@ -5229,11 +6675,14 @@
       <c r="D210" t="s">
         <v>223</v>
       </c>
+      <c r="E210" t="s">
+        <v>503</v>
+      </c>
       <c r="F210" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>4001</v>
       </c>
@@ -5246,11 +6695,14 @@
       <c r="D211" t="s">
         <v>224</v>
       </c>
+      <c r="E211" t="s">
+        <v>504</v>
+      </c>
       <c r="F211" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>4002</v>
       </c>
@@ -5263,11 +6715,14 @@
       <c r="D212" t="s">
         <v>225</v>
       </c>
+      <c r="E212" t="s">
+        <v>505</v>
+      </c>
       <c r="F212" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>4003</v>
       </c>
@@ -5280,11 +6735,14 @@
       <c r="D213" t="s">
         <v>226</v>
       </c>
+      <c r="E213" t="s">
+        <v>506</v>
+      </c>
       <c r="F213" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>4004</v>
       </c>
@@ -5297,11 +6755,14 @@
       <c r="D214" t="s">
         <v>227</v>
       </c>
+      <c r="E214" t="s">
+        <v>507</v>
+      </c>
       <c r="F214" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>4005</v>
       </c>
@@ -5314,11 +6775,14 @@
       <c r="D215" t="s">
         <v>228</v>
       </c>
+      <c r="E215" t="s">
+        <v>508</v>
+      </c>
       <c r="F215" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>4006</v>
       </c>
@@ -5331,11 +6795,14 @@
       <c r="D216" t="s">
         <v>229</v>
       </c>
+      <c r="E216" t="s">
+        <v>509</v>
+      </c>
       <c r="F216" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>4007</v>
       </c>
@@ -5348,11 +6815,14 @@
       <c r="D217" t="s">
         <v>230</v>
       </c>
+      <c r="E217" t="s">
+        <v>510</v>
+      </c>
       <c r="F217" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>4008</v>
       </c>
@@ -5365,11 +6835,14 @@
       <c r="D218" t="s">
         <v>231</v>
       </c>
+      <c r="E218" t="s">
+        <v>511</v>
+      </c>
       <c r="F218" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>4009</v>
       </c>
@@ -5382,11 +6855,14 @@
       <c r="D219" t="s">
         <v>232</v>
       </c>
+      <c r="E219" t="s">
+        <v>512</v>
+      </c>
       <c r="F219" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>4010</v>
       </c>
@@ -5399,11 +6875,14 @@
       <c r="D220" t="s">
         <v>233</v>
       </c>
+      <c r="E220" t="s">
+        <v>513</v>
+      </c>
       <c r="F220" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>4011</v>
       </c>
@@ -5416,11 +6895,14 @@
       <c r="D221" t="s">
         <v>234</v>
       </c>
+      <c r="E221" t="s">
+        <v>514</v>
+      </c>
       <c r="F221" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>4012</v>
       </c>
@@ -5433,11 +6915,14 @@
       <c r="D222" t="s">
         <v>235</v>
       </c>
+      <c r="E222" t="s">
+        <v>515</v>
+      </c>
       <c r="F222" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>4013</v>
       </c>
@@ -5450,11 +6935,14 @@
       <c r="D223" t="s">
         <v>236</v>
       </c>
+      <c r="E223" t="s">
+        <v>516</v>
+      </c>
       <c r="F223" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>4014</v>
       </c>
@@ -5467,11 +6955,14 @@
       <c r="D224" t="s">
         <v>237</v>
       </c>
+      <c r="E224" t="s">
+        <v>510</v>
+      </c>
       <c r="F224" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>4015</v>
       </c>
@@ -5484,11 +6975,14 @@
       <c r="D225" t="s">
         <v>238</v>
       </c>
+      <c r="E225" t="s">
+        <v>517</v>
+      </c>
       <c r="F225" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>4016</v>
       </c>
@@ -5501,11 +6995,14 @@
       <c r="D226" t="s">
         <v>239</v>
       </c>
+      <c r="E226" t="s">
+        <v>518</v>
+      </c>
       <c r="F226" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>4017</v>
       </c>
@@ -5518,11 +7015,14 @@
       <c r="D227" t="s">
         <v>240</v>
       </c>
+      <c r="E227" t="s">
+        <v>519</v>
+      </c>
       <c r="F227" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>4018</v>
       </c>
@@ -5535,11 +7035,14 @@
       <c r="D228" t="s">
         <v>241</v>
       </c>
+      <c r="E228" t="s">
+        <v>520</v>
+      </c>
       <c r="F228" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>4019</v>
       </c>
@@ -5552,11 +7055,14 @@
       <c r="D229" t="s">
         <v>242</v>
       </c>
+      <c r="E229" t="s">
+        <v>521</v>
+      </c>
       <c r="F229" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>4020</v>
       </c>
@@ -5569,11 +7075,14 @@
       <c r="D230" t="s">
         <v>243</v>
       </c>
+      <c r="E230" t="s">
+        <v>522</v>
+      </c>
       <c r="F230" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>4021</v>
       </c>
@@ -5586,11 +7095,14 @@
       <c r="D231" t="s">
         <v>244</v>
       </c>
+      <c r="E231" t="s">
+        <v>523</v>
+      </c>
       <c r="F231" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>4022</v>
       </c>
@@ -5603,11 +7115,14 @@
       <c r="D232" t="s">
         <v>245</v>
       </c>
+      <c r="E232" t="s">
+        <v>524</v>
+      </c>
       <c r="F232" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>4023</v>
       </c>
@@ -5620,11 +7135,14 @@
       <c r="D233" t="s">
         <v>246</v>
       </c>
+      <c r="E233" t="s">
+        <v>525</v>
+      </c>
       <c r="F233" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>4024</v>
       </c>
@@ -5637,11 +7155,14 @@
       <c r="D234" t="s">
         <v>247</v>
       </c>
+      <c r="E234" t="s">
+        <v>526</v>
+      </c>
       <c r="F234" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>4025</v>
       </c>
@@ -5654,11 +7175,14 @@
       <c r="D235" t="s">
         <v>248</v>
       </c>
+      <c r="E235" t="s">
+        <v>527</v>
+      </c>
       <c r="F235" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>4026</v>
       </c>
@@ -5671,11 +7195,14 @@
       <c r="D236" t="s">
         <v>249</v>
       </c>
+      <c r="E236" t="s">
+        <v>528</v>
+      </c>
       <c r="F236" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>4027</v>
       </c>
@@ -5688,11 +7215,14 @@
       <c r="D237" t="s">
         <v>250</v>
       </c>
+      <c r="E237" t="s">
+        <v>529</v>
+      </c>
       <c r="F237" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>4028</v>
       </c>
@@ -5705,11 +7235,14 @@
       <c r="D238" t="s">
         <v>251</v>
       </c>
+      <c r="E238" t="s">
+        <v>530</v>
+      </c>
       <c r="F238" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>4029</v>
       </c>
@@ -5722,11 +7255,14 @@
       <c r="D239" t="s">
         <v>252</v>
       </c>
+      <c r="E239" t="s">
+        <v>531</v>
+      </c>
       <c r="F239" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>4030</v>
       </c>
@@ -5739,11 +7275,14 @@
       <c r="D240" t="s">
         <v>253</v>
       </c>
+      <c r="E240" t="s">
+        <v>532</v>
+      </c>
       <c r="F240" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>4031</v>
       </c>
@@ -5756,11 +7295,14 @@
       <c r="D241" t="s">
         <v>254</v>
       </c>
+      <c r="E241" t="s">
+        <v>470</v>
+      </c>
       <c r="F241" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>4032</v>
       </c>
@@ -5773,11 +7315,14 @@
       <c r="D242" t="s">
         <v>255</v>
       </c>
+      <c r="E242" t="s">
+        <v>533</v>
+      </c>
       <c r="F242" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>4033</v>
       </c>
@@ -5790,11 +7335,14 @@
       <c r="D243" t="s">
         <v>256</v>
       </c>
+      <c r="E243" t="s">
+        <v>534</v>
+      </c>
       <c r="F243" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>4034</v>
       </c>
@@ -5807,11 +7355,14 @@
       <c r="D244" t="s">
         <v>257</v>
       </c>
+      <c r="E244" t="s">
+        <v>535</v>
+      </c>
       <c r="F244" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>4035</v>
       </c>
@@ -5824,11 +7375,14 @@
       <c r="D245" t="s">
         <v>258</v>
       </c>
+      <c r="E245" t="s">
+        <v>536</v>
+      </c>
       <c r="F245" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>4036</v>
       </c>
@@ -5841,11 +7395,14 @@
       <c r="D246" t="s">
         <v>259</v>
       </c>
+      <c r="E246" t="s">
+        <v>537</v>
+      </c>
       <c r="F246" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>4037</v>
       </c>
@@ -5858,11 +7415,14 @@
       <c r="D247" t="s">
         <v>260</v>
       </c>
+      <c r="E247" t="s">
+        <v>538</v>
+      </c>
       <c r="F247" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>4038</v>
       </c>
@@ -5875,11 +7435,14 @@
       <c r="D248" t="s">
         <v>261</v>
       </c>
+      <c r="E248" t="s">
+        <v>539</v>
+      </c>
       <c r="F248" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>4039</v>
       </c>
@@ -5892,11 +7455,14 @@
       <c r="D249" t="s">
         <v>262</v>
       </c>
+      <c r="E249" t="s">
+        <v>540</v>
+      </c>
       <c r="F249" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>4040</v>
       </c>
@@ -5909,11 +7475,14 @@
       <c r="D250" t="s">
         <v>263</v>
       </c>
+      <c r="E250" t="s">
+        <v>541</v>
+      </c>
       <c r="F250" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>4041</v>
       </c>
@@ -5926,11 +7495,14 @@
       <c r="D251" t="s">
         <v>264</v>
       </c>
+      <c r="E251" t="s">
+        <v>542</v>
+      </c>
       <c r="F251" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>4042</v>
       </c>
@@ -5943,11 +7515,14 @@
       <c r="D252" t="s">
         <v>265</v>
       </c>
+      <c r="E252" t="s">
+        <v>543</v>
+      </c>
       <c r="F252" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>4043</v>
       </c>
@@ -5960,11 +7535,14 @@
       <c r="D253" t="s">
         <v>266</v>
       </c>
+      <c r="E253" t="s">
+        <v>544</v>
+      </c>
       <c r="F253" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>4044</v>
       </c>
@@ -5977,11 +7555,14 @@
       <c r="D254" t="s">
         <v>267</v>
       </c>
+      <c r="E254" t="s">
+        <v>545</v>
+      </c>
       <c r="F254" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>4045</v>
       </c>
@@ -5994,11 +7575,14 @@
       <c r="D255" t="s">
         <v>268</v>
       </c>
+      <c r="E255" t="s">
+        <v>546</v>
+      </c>
       <c r="F255" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>4046</v>
       </c>
@@ -6011,11 +7595,14 @@
       <c r="D256" t="s">
         <v>269</v>
       </c>
+      <c r="E256" t="s">
+        <v>547</v>
+      </c>
       <c r="F256" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>4047</v>
       </c>
@@ -6028,11 +7615,14 @@
       <c r="D257" t="s">
         <v>270</v>
       </c>
+      <c r="E257" t="s">
+        <v>548</v>
+      </c>
       <c r="F257" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>4048</v>
       </c>
@@ -6045,11 +7635,14 @@
       <c r="D258" t="s">
         <v>271</v>
       </c>
+      <c r="E258" t="s">
+        <v>549</v>
+      </c>
       <c r="F258" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>4049</v>
       </c>
@@ -6062,11 +7655,14 @@
       <c r="D259" t="s">
         <v>272</v>
       </c>
+      <c r="E259" t="s">
+        <v>550</v>
+      </c>
       <c r="F259" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>4050</v>
       </c>
@@ -6079,11 +7675,14 @@
       <c r="D260" t="s">
         <v>273</v>
       </c>
+      <c r="E260" t="s">
+        <v>551</v>
+      </c>
       <c r="F260" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>4051</v>
       </c>
@@ -6096,11 +7695,14 @@
       <c r="D261" t="s">
         <v>274</v>
       </c>
+      <c r="E261" t="s">
+        <v>552</v>
+      </c>
       <c r="F261" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>4052</v>
       </c>
@@ -6113,11 +7715,14 @@
       <c r="D262" t="s">
         <v>275</v>
       </c>
+      <c r="E262" t="s">
+        <v>553</v>
+      </c>
       <c r="F262" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>4053</v>
       </c>
@@ -6130,11 +7735,14 @@
       <c r="D263" t="s">
         <v>276</v>
       </c>
+      <c r="E263" t="s">
+        <v>554</v>
+      </c>
       <c r="F263" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>4054</v>
       </c>
@@ -6147,11 +7755,14 @@
       <c r="D264" t="s">
         <v>277</v>
       </c>
+      <c r="E264" t="s">
+        <v>555</v>
+      </c>
       <c r="F264" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>4055</v>
       </c>
@@ -6164,11 +7775,14 @@
       <c r="D265" t="s">
         <v>278</v>
       </c>
+      <c r="E265" t="s">
+        <v>556</v>
+      </c>
       <c r="F265" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>4056</v>
       </c>
@@ -6181,11 +7795,14 @@
       <c r="D266" t="s">
         <v>279</v>
       </c>
+      <c r="E266" t="s">
+        <v>557</v>
+      </c>
       <c r="F266" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>4057</v>
       </c>
@@ -6198,11 +7815,14 @@
       <c r="D267" t="s">
         <v>280</v>
       </c>
+      <c r="E267" t="s">
+        <v>558</v>
+      </c>
       <c r="F267" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>4058</v>
       </c>
@@ -6215,11 +7835,14 @@
       <c r="D268" t="s">
         <v>281</v>
       </c>
+      <c r="E268" t="s">
+        <v>559</v>
+      </c>
       <c r="F268" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>4059</v>
       </c>
@@ -6232,11 +7855,14 @@
       <c r="D269" t="s">
         <v>282</v>
       </c>
+      <c r="E269" t="s">
+        <v>560</v>
+      </c>
       <c r="F269" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>4060</v>
       </c>
@@ -6249,11 +7875,14 @@
       <c r="D270" t="s">
         <v>283</v>
       </c>
+      <c r="E270" t="s">
+        <v>561</v>
+      </c>
       <c r="F270" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>4061</v>
       </c>
@@ -6266,11 +7895,14 @@
       <c r="D271" t="s">
         <v>284</v>
       </c>
+      <c r="E271" t="s">
+        <v>562</v>
+      </c>
       <c r="F271" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>4062</v>
       </c>
@@ -6283,11 +7915,14 @@
       <c r="D272" t="s">
         <v>285</v>
       </c>
+      <c r="E272" t="s">
+        <v>563</v>
+      </c>
       <c r="F272" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>4063</v>
       </c>
@@ -6300,11 +7935,14 @@
       <c r="D273" t="s">
         <v>286</v>
       </c>
+      <c r="E273" t="s">
+        <v>564</v>
+      </c>
       <c r="F273" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>4064</v>
       </c>
@@ -6317,11 +7955,14 @@
       <c r="D274" t="s">
         <v>287</v>
       </c>
+      <c r="E274" t="s">
+        <v>565</v>
+      </c>
       <c r="F274" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>4065</v>
       </c>
@@ -6334,11 +7975,14 @@
       <c r="D275" t="s">
         <v>288</v>
       </c>
+      <c r="E275" t="s">
+        <v>566</v>
+      </c>
       <c r="F275" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>4066</v>
       </c>
@@ -6351,11 +7995,14 @@
       <c r="D276" t="s">
         <v>289</v>
       </c>
+      <c r="E276" t="s">
+        <v>567</v>
+      </c>
       <c r="F276" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>4067</v>
       </c>
@@ -6368,11 +8015,14 @@
       <c r="D277" t="s">
         <v>290</v>
       </c>
+      <c r="E277" t="s">
+        <v>568</v>
+      </c>
       <c r="F277" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>4068</v>
       </c>
@@ -6385,11 +8035,14 @@
       <c r="D278" t="s">
         <v>291</v>
       </c>
+      <c r="E278" t="s">
+        <v>569</v>
+      </c>
       <c r="F278" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>4069</v>
       </c>
@@ -6402,11 +8055,14 @@
       <c r="D279" t="s">
         <v>292</v>
       </c>
+      <c r="E279" t="s">
+        <v>570</v>
+      </c>
       <c r="F279" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>4070</v>
       </c>
@@ -6418,6 +8074,9 @@
       </c>
       <c r="D280" t="s">
         <v>293</v>
+      </c>
+      <c r="E280" t="s">
+        <v>571</v>
       </c>
       <c r="F280" t="s">
         <v>294</v>

--- a/mata_kuliah.xlsx
+++ b/mata_kuliah.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="G263" sqref="G263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1376,6 +1376,9 @@
       <c r="F2" t="s">
         <v>294</v>
       </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1401,6 +1404,9 @@
       <c r="F3" t="s">
         <v>295</v>
       </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1426,6 +1432,9 @@
       <c r="F4" t="s">
         <v>294</v>
       </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1451,6 +1460,9 @@
       <c r="F5" t="s">
         <v>296</v>
       </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1476,6 +1488,9 @@
       <c r="F6" t="s">
         <v>294</v>
       </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1501,6 +1516,9 @@
       <c r="F7" t="s">
         <v>12</v>
       </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1526,6 +1544,9 @@
       <c r="F8" t="s">
         <v>295</v>
       </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1551,6 +1572,9 @@
       <c r="F9" t="s">
         <v>13</v>
       </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1576,6 +1600,9 @@
       <c r="F10" t="s">
         <v>294</v>
       </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1601,6 +1628,9 @@
       <c r="F11" t="s">
         <v>294</v>
       </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1626,6 +1656,9 @@
       <c r="F12" t="s">
         <v>297</v>
       </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1651,6 +1684,9 @@
       <c r="F13" t="s">
         <v>296</v>
       </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1676,6 +1712,9 @@
       <c r="F14" t="s">
         <v>295</v>
       </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1701,6 +1740,9 @@
       <c r="F15" t="s">
         <v>13</v>
       </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1726,6 +1768,9 @@
       <c r="F16" t="s">
         <v>297</v>
       </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1751,6 +1796,9 @@
       <c r="F17" t="s">
         <v>295</v>
       </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1776,6 +1824,9 @@
       <c r="F18" t="s">
         <v>295</v>
       </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1801,6 +1852,9 @@
       <c r="F19" t="s">
         <v>295</v>
       </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1826,6 +1880,9 @@
       <c r="F20" t="s">
         <v>12</v>
       </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1851,6 +1908,9 @@
       <c r="F21" t="s">
         <v>297</v>
       </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -1876,6 +1936,9 @@
       <c r="F22" t="s">
         <v>297</v>
       </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -1901,6 +1964,9 @@
       <c r="F23" t="s">
         <v>13</v>
       </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -1926,6 +1992,9 @@
       <c r="F24" t="s">
         <v>295</v>
       </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -1951,6 +2020,9 @@
       <c r="F25" t="s">
         <v>294</v>
       </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -1976,6 +2048,9 @@
       <c r="F26" t="s">
         <v>294</v>
       </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -2001,6 +2076,9 @@
       <c r="F27" t="s">
         <v>294</v>
       </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2026,6 +2104,9 @@
       <c r="F28" t="s">
         <v>296</v>
       </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2051,6 +2132,9 @@
       <c r="F29" t="s">
         <v>13</v>
       </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -2076,6 +2160,9 @@
       <c r="F30" t="s">
         <v>296</v>
       </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2101,6 +2188,9 @@
       <c r="F31" t="s">
         <v>297</v>
       </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -2126,6 +2216,9 @@
       <c r="F32" t="s">
         <v>13</v>
       </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -2151,6 +2244,9 @@
       <c r="F33" t="s">
         <v>295</v>
       </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -2176,6 +2272,9 @@
       <c r="F34" t="s">
         <v>296</v>
       </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -2201,6 +2300,9 @@
       <c r="F35" t="s">
         <v>12</v>
       </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -2226,6 +2328,9 @@
       <c r="F36" t="s">
         <v>296</v>
       </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -2251,6 +2356,9 @@
       <c r="F37" t="s">
         <v>294</v>
       </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -2276,6 +2384,9 @@
       <c r="F38" t="s">
         <v>13</v>
       </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -2301,6 +2412,9 @@
       <c r="F39" t="s">
         <v>295</v>
       </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -2326,6 +2440,9 @@
       <c r="F40" t="s">
         <v>295</v>
       </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -2351,6 +2468,9 @@
       <c r="F41" t="s">
         <v>13</v>
       </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -2376,6 +2496,9 @@
       <c r="F42" t="s">
         <v>294</v>
       </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43">
@@ -2393,6 +2516,9 @@
       <c r="F43" t="s">
         <v>294</v>
       </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44">
@@ -2410,6 +2536,9 @@
       <c r="F44" t="s">
         <v>297</v>
       </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45">
@@ -2427,6 +2556,9 @@
       <c r="F45" t="s">
         <v>12</v>
       </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46">
@@ -2444,6 +2576,9 @@
       <c r="F46" t="s">
         <v>295</v>
       </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47">
@@ -2461,6 +2596,9 @@
       <c r="F47" t="s">
         <v>295</v>
       </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48">
@@ -2478,8 +2616,11 @@
       <c r="F48" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1048</v>
       </c>
@@ -2495,8 +2636,11 @@
       <c r="F49" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1049</v>
       </c>
@@ -2512,8 +2656,11 @@
       <c r="F50" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1050</v>
       </c>
@@ -2529,8 +2676,11 @@
       <c r="F51" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1051</v>
       </c>
@@ -2546,8 +2696,11 @@
       <c r="F52" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1052</v>
       </c>
@@ -2563,8 +2716,11 @@
       <c r="F53" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1053</v>
       </c>
@@ -2580,8 +2736,11 @@
       <c r="F54" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1054</v>
       </c>
@@ -2597,8 +2756,11 @@
       <c r="F55" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1055</v>
       </c>
@@ -2614,8 +2776,11 @@
       <c r="F56" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1056</v>
       </c>
@@ -2631,8 +2796,11 @@
       <c r="F57" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1057</v>
       </c>
@@ -2648,8 +2816,11 @@
       <c r="F58" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1058</v>
       </c>
@@ -2665,8 +2836,11 @@
       <c r="F59" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1059</v>
       </c>
@@ -2682,8 +2856,11 @@
       <c r="F60" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1060</v>
       </c>
@@ -2699,8 +2876,11 @@
       <c r="F61" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1061</v>
       </c>
@@ -2716,8 +2896,11 @@
       <c r="F62" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1062</v>
       </c>
@@ -2733,8 +2916,11 @@
       <c r="F63" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1063</v>
       </c>
@@ -2750,8 +2936,11 @@
       <c r="F64" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1064</v>
       </c>
@@ -2767,8 +2956,11 @@
       <c r="F65" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1065</v>
       </c>
@@ -2784,8 +2976,11 @@
       <c r="F66" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1066</v>
       </c>
@@ -2801,8 +2996,11 @@
       <c r="F67" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1067</v>
       </c>
@@ -2818,8 +3016,11 @@
       <c r="F68" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1068</v>
       </c>
@@ -2835,8 +3036,11 @@
       <c r="F69" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1069</v>
       </c>
@@ -2852,8 +3056,11 @@
       <c r="F70" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1070</v>
       </c>
@@ -2869,8 +3076,11 @@
       <c r="F71" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2001</v>
       </c>
@@ -2886,8 +3096,11 @@
       <c r="F72" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2002</v>
       </c>
@@ -2903,8 +3116,11 @@
       <c r="F73" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2003</v>
       </c>
@@ -2920,8 +3136,11 @@
       <c r="F74" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2004</v>
       </c>
@@ -2937,8 +3156,11 @@
       <c r="F75" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2005</v>
       </c>
@@ -2954,8 +3176,11 @@
       <c r="F76" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2006</v>
       </c>
@@ -2971,8 +3196,11 @@
       <c r="F77" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2007</v>
       </c>
@@ -2988,8 +3216,11 @@
       <c r="F78" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2008</v>
       </c>
@@ -3005,8 +3236,11 @@
       <c r="F79" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2009</v>
       </c>
@@ -3022,8 +3256,11 @@
       <c r="F80" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2010</v>
       </c>
@@ -3039,8 +3276,11 @@
       <c r="F81" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2011</v>
       </c>
@@ -3056,8 +3296,11 @@
       <c r="F82" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2012</v>
       </c>
@@ -3073,8 +3316,11 @@
       <c r="F83" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2013</v>
       </c>
@@ -3090,8 +3336,11 @@
       <c r="F84" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2014</v>
       </c>
@@ -3107,8 +3356,11 @@
       <c r="F85" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2015</v>
       </c>
@@ -3124,8 +3376,11 @@
       <c r="F86" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2016</v>
       </c>
@@ -3141,8 +3396,11 @@
       <c r="F87" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2017</v>
       </c>
@@ -3158,8 +3416,11 @@
       <c r="F88" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2018</v>
       </c>
@@ -3175,8 +3436,11 @@
       <c r="F89" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2019</v>
       </c>
@@ -3192,8 +3456,11 @@
       <c r="F90" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2020</v>
       </c>
@@ -3209,8 +3476,11 @@
       <c r="F91" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2021</v>
       </c>
@@ -3226,8 +3496,11 @@
       <c r="F92" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2022</v>
       </c>
@@ -3243,8 +3516,11 @@
       <c r="F93" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2023</v>
       </c>
@@ -3260,8 +3536,11 @@
       <c r="F94" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2024</v>
       </c>
@@ -3277,8 +3556,11 @@
       <c r="F95" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2025</v>
       </c>
@@ -3294,8 +3576,11 @@
       <c r="F96" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2026</v>
       </c>
@@ -3311,8 +3596,11 @@
       <c r="F97" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2027</v>
       </c>
@@ -3328,8 +3616,11 @@
       <c r="F98" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2028</v>
       </c>
@@ -3345,8 +3636,11 @@
       <c r="F99" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2029</v>
       </c>
@@ -3362,8 +3656,11 @@
       <c r="F100" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2030</v>
       </c>
@@ -3379,8 +3676,11 @@
       <c r="F101" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2031</v>
       </c>
@@ -3396,8 +3696,11 @@
       <c r="F102" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2032</v>
       </c>
@@ -3413,8 +3716,11 @@
       <c r="F103" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2033</v>
       </c>
@@ -3430,8 +3736,11 @@
       <c r="F104" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2034</v>
       </c>
@@ -3447,8 +3756,11 @@
       <c r="F105" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2035</v>
       </c>
@@ -3464,8 +3776,11 @@
       <c r="F106" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2036</v>
       </c>
@@ -3481,8 +3796,11 @@
       <c r="F107" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2037</v>
       </c>
@@ -3498,8 +3816,11 @@
       <c r="F108" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2038</v>
       </c>
@@ -3515,8 +3836,11 @@
       <c r="F109" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2039</v>
       </c>
@@ -3532,8 +3856,11 @@
       <c r="F110" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2040</v>
       </c>
@@ -3549,8 +3876,11 @@
       <c r="F111" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2041</v>
       </c>
@@ -3566,8 +3896,11 @@
       <c r="F112" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2042</v>
       </c>
@@ -3583,8 +3916,11 @@
       <c r="F113" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2043</v>
       </c>
@@ -3600,8 +3936,11 @@
       <c r="F114" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2044</v>
       </c>
@@ -3617,8 +3956,11 @@
       <c r="F115" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2045</v>
       </c>
@@ -3634,8 +3976,11 @@
       <c r="F116" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2046</v>
       </c>
@@ -3651,8 +3996,11 @@
       <c r="F117" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2047</v>
       </c>
@@ -3668,8 +4016,11 @@
       <c r="F118" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2048</v>
       </c>
@@ -3685,8 +4036,11 @@
       <c r="F119" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2049</v>
       </c>
@@ -3702,8 +4056,11 @@
       <c r="F120" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2050</v>
       </c>
@@ -3719,8 +4076,11 @@
       <c r="F121" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2051</v>
       </c>
@@ -3736,8 +4096,11 @@
       <c r="F122" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2052</v>
       </c>
@@ -3753,8 +4116,11 @@
       <c r="F123" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2053</v>
       </c>
@@ -3770,8 +4136,11 @@
       <c r="F124" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2054</v>
       </c>
@@ -3787,8 +4156,11 @@
       <c r="F125" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2055</v>
       </c>
@@ -3804,8 +4176,11 @@
       <c r="F126" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2056</v>
       </c>
@@ -3821,8 +4196,11 @@
       <c r="F127" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2057</v>
       </c>
@@ -3838,8 +4216,11 @@
       <c r="F128" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2058</v>
       </c>
@@ -3855,8 +4236,11 @@
       <c r="F129" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2059</v>
       </c>
@@ -3872,8 +4256,11 @@
       <c r="F130" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2060</v>
       </c>
@@ -3889,8 +4276,11 @@
       <c r="F131" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2061</v>
       </c>
@@ -3906,8 +4296,11 @@
       <c r="F132" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2062</v>
       </c>
@@ -3923,8 +4316,11 @@
       <c r="F133" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2063</v>
       </c>
@@ -3940,8 +4336,11 @@
       <c r="F134" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2064</v>
       </c>
@@ -3957,8 +4356,11 @@
       <c r="F135" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2065</v>
       </c>
@@ -3974,8 +4376,11 @@
       <c r="F136" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2066</v>
       </c>
@@ -3991,8 +4396,11 @@
       <c r="F137" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2067</v>
       </c>
@@ -4008,8 +4416,11 @@
       <c r="F138" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2068</v>
       </c>
@@ -4025,8 +4436,11 @@
       <c r="F139" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2069</v>
       </c>
@@ -4042,8 +4456,11 @@
       <c r="F140" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>3001</v>
       </c>
@@ -4059,8 +4476,11 @@
       <c r="F141" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>3002</v>
       </c>
@@ -4076,8 +4496,11 @@
       <c r="F142" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>3003</v>
       </c>
@@ -4093,8 +4516,11 @@
       <c r="F143" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3004</v>
       </c>
@@ -4110,8 +4536,11 @@
       <c r="F144" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>3005</v>
       </c>
@@ -4127,8 +4556,11 @@
       <c r="F145" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>3006</v>
       </c>
@@ -4144,8 +4576,11 @@
       <c r="F146" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>3007</v>
       </c>
@@ -4161,8 +4596,11 @@
       <c r="F147" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>3008</v>
       </c>
@@ -4178,8 +4616,11 @@
       <c r="F148" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>3009</v>
       </c>
@@ -4195,8 +4636,11 @@
       <c r="F149" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>3010</v>
       </c>
@@ -4212,8 +4656,11 @@
       <c r="F150" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>3011</v>
       </c>
@@ -4229,8 +4676,11 @@
       <c r="F151" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>3012</v>
       </c>
@@ -4246,8 +4696,11 @@
       <c r="F152" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>3013</v>
       </c>
@@ -4263,8 +4716,11 @@
       <c r="F153" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>3014</v>
       </c>
@@ -4280,8 +4736,11 @@
       <c r="F154" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>3015</v>
       </c>
@@ -4297,8 +4756,11 @@
       <c r="F155" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>3016</v>
       </c>
@@ -4314,8 +4776,11 @@
       <c r="F156" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>3017</v>
       </c>
@@ -4331,8 +4796,11 @@
       <c r="F157" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>3018</v>
       </c>
@@ -4348,8 +4816,11 @@
       <c r="F158" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>3019</v>
       </c>
@@ -4365,8 +4836,11 @@
       <c r="F159" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>3020</v>
       </c>
@@ -4382,8 +4856,11 @@
       <c r="F160" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>3021</v>
       </c>
@@ -4399,8 +4876,11 @@
       <c r="F161" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>3022</v>
       </c>
@@ -4416,8 +4896,11 @@
       <c r="F162" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>3023</v>
       </c>
@@ -4433,8 +4916,11 @@
       <c r="F163" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>3024</v>
       </c>
@@ -4450,8 +4936,11 @@
       <c r="F164" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>3025</v>
       </c>
@@ -4467,8 +4956,11 @@
       <c r="F165" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>3026</v>
       </c>
@@ -4484,8 +4976,11 @@
       <c r="F166" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>3027</v>
       </c>
@@ -4501,8 +4996,11 @@
       <c r="F167" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>3028</v>
       </c>
@@ -4518,8 +5016,11 @@
       <c r="F168" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>3029</v>
       </c>
@@ -4535,8 +5036,11 @@
       <c r="F169" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>3030</v>
       </c>
@@ -4552,8 +5056,11 @@
       <c r="F170" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>3031</v>
       </c>
@@ -4569,8 +5076,11 @@
       <c r="F171" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>3032</v>
       </c>
@@ -4586,8 +5096,11 @@
       <c r="F172" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>3033</v>
       </c>
@@ -4603,8 +5116,11 @@
       <c r="F173" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>3034</v>
       </c>
@@ -4620,8 +5136,11 @@
       <c r="F174" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>3035</v>
       </c>
@@ -4637,8 +5156,11 @@
       <c r="F175" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>3036</v>
       </c>
@@ -4654,8 +5176,11 @@
       <c r="F176" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>3037</v>
       </c>
@@ -4671,8 +5196,11 @@
       <c r="F177" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>3038</v>
       </c>
@@ -4688,8 +5216,11 @@
       <c r="F178" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>3039</v>
       </c>
@@ -4705,8 +5236,11 @@
       <c r="F179" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>3040</v>
       </c>
@@ -4722,8 +5256,11 @@
       <c r="F180" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>3041</v>
       </c>
@@ -4739,8 +5276,11 @@
       <c r="F181" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>3042</v>
       </c>
@@ -4756,8 +5296,11 @@
       <c r="F182" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>3043</v>
       </c>
@@ -4773,8 +5316,11 @@
       <c r="F183" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>3044</v>
       </c>
@@ -4790,8 +5336,11 @@
       <c r="F184" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>3045</v>
       </c>
@@ -4807,8 +5356,11 @@
       <c r="F185" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>3046</v>
       </c>
@@ -4824,8 +5376,11 @@
       <c r="F186" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>3047</v>
       </c>
@@ -4841,8 +5396,11 @@
       <c r="F187" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>3048</v>
       </c>
@@ -4858,8 +5416,11 @@
       <c r="F188" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>3049</v>
       </c>
@@ -4875,8 +5436,11 @@
       <c r="F189" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>3050</v>
       </c>
@@ -4892,8 +5456,11 @@
       <c r="F190" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>3051</v>
       </c>
@@ -4909,8 +5476,11 @@
       <c r="F191" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>3052</v>
       </c>
@@ -4926,8 +5496,11 @@
       <c r="F192" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>3053</v>
       </c>
@@ -4943,8 +5516,11 @@
       <c r="F193" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>3054</v>
       </c>
@@ -4960,8 +5536,11 @@
       <c r="F194" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>3055</v>
       </c>
@@ -4977,8 +5556,11 @@
       <c r="F195" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>3056</v>
       </c>
@@ -4994,8 +5576,11 @@
       <c r="F196" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>3057</v>
       </c>
@@ -5011,8 +5596,11 @@
       <c r="F197" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>3058</v>
       </c>
@@ -5028,8 +5616,11 @@
       <c r="F198" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>3059</v>
       </c>
@@ -5045,8 +5636,11 @@
       <c r="F199" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>3060</v>
       </c>
@@ -5062,8 +5656,11 @@
       <c r="F200" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>3061</v>
       </c>
@@ -5079,8 +5676,11 @@
       <c r="F201" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>3062</v>
       </c>
@@ -5096,8 +5696,11 @@
       <c r="F202" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>3063</v>
       </c>
@@ -5113,8 +5716,11 @@
       <c r="F203" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>3064</v>
       </c>
@@ -5130,8 +5736,11 @@
       <c r="F204" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>3065</v>
       </c>
@@ -5147,8 +5756,11 @@
       <c r="F205" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>3066</v>
       </c>
@@ -5164,8 +5776,11 @@
       <c r="F206" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>3067</v>
       </c>
@@ -5181,8 +5796,11 @@
       <c r="F207" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>3068</v>
       </c>
@@ -5198,8 +5816,11 @@
       <c r="F208" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>3069</v>
       </c>
@@ -5215,8 +5836,11 @@
       <c r="F209" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>3070</v>
       </c>
@@ -5232,8 +5856,11 @@
       <c r="F210" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>4001</v>
       </c>
@@ -5249,8 +5876,11 @@
       <c r="F211" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>4002</v>
       </c>
@@ -5266,8 +5896,11 @@
       <c r="F212" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G212">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>4003</v>
       </c>
@@ -5283,8 +5916,11 @@
       <c r="F213" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>4004</v>
       </c>
@@ -5300,8 +5936,11 @@
       <c r="F214" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>4005</v>
       </c>
@@ -5317,8 +5956,11 @@
       <c r="F215" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>4006</v>
       </c>
@@ -5334,8 +5976,11 @@
       <c r="F216" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>4007</v>
       </c>
@@ -5351,8 +5996,11 @@
       <c r="F217" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>4008</v>
       </c>
@@ -5368,8 +6016,11 @@
       <c r="F218" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>4009</v>
       </c>
@@ -5385,8 +6036,11 @@
       <c r="F219" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>4010</v>
       </c>
@@ -5402,8 +6056,11 @@
       <c r="F220" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>4011</v>
       </c>
@@ -5419,8 +6076,11 @@
       <c r="F221" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>4012</v>
       </c>
@@ -5436,8 +6096,11 @@
       <c r="F222" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>4013</v>
       </c>
@@ -5453,8 +6116,11 @@
       <c r="F223" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>4014</v>
       </c>
@@ -5470,8 +6136,11 @@
       <c r="F224" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G224">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>4015</v>
       </c>
@@ -5487,8 +6156,11 @@
       <c r="F225" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>4016</v>
       </c>
@@ -5504,8 +6176,11 @@
       <c r="F226" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G226">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>4017</v>
       </c>
@@ -5521,8 +6196,11 @@
       <c r="F227" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>4018</v>
       </c>
@@ -5538,8 +6216,11 @@
       <c r="F228" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>4019</v>
       </c>
@@ -5555,8 +6236,11 @@
       <c r="F229" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>4020</v>
       </c>
@@ -5572,8 +6256,11 @@
       <c r="F230" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>4021</v>
       </c>
@@ -5589,8 +6276,11 @@
       <c r="F231" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>4022</v>
       </c>
@@ -5606,8 +6296,11 @@
       <c r="F232" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G232">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>4023</v>
       </c>
@@ -5623,8 +6316,11 @@
       <c r="F233" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>4024</v>
       </c>
@@ -5640,8 +6336,11 @@
       <c r="F234" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>4025</v>
       </c>
@@ -5657,8 +6356,11 @@
       <c r="F235" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G235">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>4026</v>
       </c>
@@ -5674,8 +6376,11 @@
       <c r="F236" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>4027</v>
       </c>
@@ -5691,8 +6396,11 @@
       <c r="F237" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>4028</v>
       </c>
@@ -5708,8 +6416,11 @@
       <c r="F238" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>4029</v>
       </c>
@@ -5725,8 +6436,11 @@
       <c r="F239" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>4030</v>
       </c>
@@ -5742,8 +6456,11 @@
       <c r="F240" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G240">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>4031</v>
       </c>
@@ -5759,8 +6476,11 @@
       <c r="F241" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>4032</v>
       </c>
@@ -5776,8 +6496,11 @@
       <c r="F242" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>4033</v>
       </c>
@@ -5793,8 +6516,11 @@
       <c r="F243" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>4034</v>
       </c>
@@ -5810,8 +6536,11 @@
       <c r="F244" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>4035</v>
       </c>
@@ -5827,8 +6556,11 @@
       <c r="F245" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>4036</v>
       </c>
@@ -5844,8 +6576,11 @@
       <c r="F246" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>4037</v>
       </c>
@@ -5861,8 +6596,11 @@
       <c r="F247" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>4038</v>
       </c>
@@ -5878,8 +6616,11 @@
       <c r="F248" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>4039</v>
       </c>
@@ -5895,8 +6636,11 @@
       <c r="F249" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>4040</v>
       </c>
@@ -5912,8 +6656,11 @@
       <c r="F250" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>4041</v>
       </c>
@@ -5929,8 +6676,11 @@
       <c r="F251" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G251">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>4042</v>
       </c>
@@ -5946,8 +6696,11 @@
       <c r="F252" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>4043</v>
       </c>
@@ -5963,8 +6716,11 @@
       <c r="F253" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>4044</v>
       </c>
@@ -5980,8 +6736,11 @@
       <c r="F254" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G254">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>4045</v>
       </c>
@@ -5997,8 +6756,11 @@
       <c r="F255" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>4046</v>
       </c>
@@ -6014,8 +6776,11 @@
       <c r="F256" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>4047</v>
       </c>
@@ -6031,8 +6796,11 @@
       <c r="F257" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>4048</v>
       </c>
@@ -6048,8 +6816,11 @@
       <c r="F258" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G258">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>4049</v>
       </c>
@@ -6065,8 +6836,11 @@
       <c r="F259" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>4050</v>
       </c>
@@ -6082,8 +6856,11 @@
       <c r="F260" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>4051</v>
       </c>
@@ -6099,8 +6876,11 @@
       <c r="F261" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>4052</v>
       </c>
@@ -6116,8 +6896,11 @@
       <c r="F262" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G262">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>4053</v>
       </c>
@@ -6133,8 +6916,11 @@
       <c r="F263" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>4054</v>
       </c>
@@ -6150,8 +6936,11 @@
       <c r="F264" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>4055</v>
       </c>
@@ -6167,8 +6956,11 @@
       <c r="F265" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G265">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>4056</v>
       </c>
@@ -6184,8 +6976,11 @@
       <c r="F266" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>4057</v>
       </c>
@@ -6201,8 +6996,11 @@
       <c r="F267" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>4058</v>
       </c>
@@ -6218,8 +7016,11 @@
       <c r="F268" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>4059</v>
       </c>
@@ -6235,8 +7036,11 @@
       <c r="F269" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G269">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>4060</v>
       </c>
@@ -6252,8 +7056,11 @@
       <c r="F270" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>4061</v>
       </c>
@@ -6269,8 +7076,11 @@
       <c r="F271" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>4062</v>
       </c>
@@ -6286,8 +7096,11 @@
       <c r="F272" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>4063</v>
       </c>
@@ -6303,8 +7116,11 @@
       <c r="F273" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>4064</v>
       </c>
@@ -6320,8 +7136,11 @@
       <c r="F274" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>4065</v>
       </c>
@@ -6337,8 +7156,11 @@
       <c r="F275" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>4066</v>
       </c>
@@ -6354,8 +7176,11 @@
       <c r="F276" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>4067</v>
       </c>
@@ -6371,8 +7196,11 @@
       <c r="F277" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>4068</v>
       </c>
@@ -6388,8 +7216,11 @@
       <c r="F278" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G278">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>4069</v>
       </c>
@@ -6405,8 +7236,11 @@
       <c r="F279" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>4070</v>
       </c>
@@ -6421,6 +7255,9 @@
       </c>
       <c r="F280" t="s">
         <v>294</v>
+      </c>
+      <c r="G280">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/mata_kuliah.xlsx
+++ b/mata_kuliah.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alson\Documents\GitHub\TubesMBD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jovian\Desktop\TubesMBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7104"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="572">
   <si>
     <t>id_mk</t>
   </si>
@@ -947,6 +947,828 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>Dasar Pemrograman</t>
+  </si>
+  <si>
+    <t>Algoritma &amp; Struktur Data</t>
+  </si>
+  <si>
+    <t>Pemrograman Fungsional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Matematika Diskrit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Logika Informatika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Probabilitas &amp; Statistika</t>
+  </si>
+  <si>
+    <t>Aljabar Geometri</t>
+  </si>
+  <si>
+    <t>Organisasi &amp; Arsitektur Komputer</t>
+  </si>
+  <si>
+    <t>Pemrograman Komputer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pemodelan Basis Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pemrograman Berorientasi Objek</t>
+  </si>
+  <si>
+    <t>Strategi Algoritma</t>
+  </si>
+  <si>
+    <t>Teori Bahasa Formal dan Otomata</t>
+  </si>
+  <si>
+    <t>Sistem Operasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Basis Data</t>
+  </si>
+  <si>
+    <t>Dasar Rekayasa Perangkat Lunak</t>
+  </si>
+  <si>
+    <t>Pengembangan Aplikasi Berbasis Web</t>
+  </si>
+  <si>
+    <t>Pengembangan Aplikasi pada Platform Khusus</t>
+  </si>
+  <si>
+    <t>Jaringan Komputer</t>
+  </si>
+  <si>
+    <t>Manajemen Basis Data</t>
+  </si>
+  <si>
+    <t>Manajemen Proyek Perangkat Lunak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Interaksi Manusia &amp; Komputer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rekayasa Perangkat Lunak</t>
+  </si>
+  <si>
+    <t>Inteligensi Buatan</t>
+  </si>
+  <si>
+    <t>Sistem Paralel dan Terdistribusi</t>
+  </si>
+  <si>
+    <t>Sistem Informasi</t>
+  </si>
+  <si>
+    <t>Proyek Perangkat Lunak</t>
+  </si>
+  <si>
+    <t>Grafika Komputer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Socio-informatika dan Profesionalisme</t>
+  </si>
+  <si>
+    <t>Kriptografi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pemodelan dan Simulasi</t>
+  </si>
+  <si>
+    <t>Ilmu dan Rekayasa Komputasi Lanjut</t>
+  </si>
+  <si>
+    <t>Jaringan Komputer Lanjut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pengembangan Aplikasi Terdistribusi</t>
+  </si>
+  <si>
+    <t>Sistem Multimedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Keamanan dan Penjaminan Informasi</t>
+  </si>
+  <si>
+    <t>Pemodelan Data Lanjut</t>
+  </si>
+  <si>
+    <t>Teknologi Basis Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sistem Temu Balik Informasi</t>
+  </si>
+  <si>
+    <t>Sistem Informasi Lanjut</t>
+  </si>
+  <si>
+    <t>Pembangunan Perangkat Lunak Berorientasi Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rekayasa Perangkat Lunak Berbasis Komponen</t>
+  </si>
+  <si>
+    <t>Rekayasa Interaksi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Visualisasi Data dan Informasi</t>
+  </si>
+  <si>
+    <t>Pembangunan Aplikasi berbasis Grafik 3D</t>
+  </si>
+  <si>
+    <t>Representasi Pengetahuan dan Penalaran</t>
+  </si>
+  <si>
+    <t>Pembelajaran Mesin</t>
+  </si>
+  <si>
+    <t>Pemrosesan Text dan Suara Bahasa Alami</t>
+  </si>
+  <si>
+    <t>Interpretasi dan Pengolahan Citra</t>
+  </si>
+  <si>
+    <t>Kerja Praktek</t>
+  </si>
+  <si>
+    <t>Tugas Akhir I &amp; Seminar</t>
+  </si>
+  <si>
+    <t>Tugas Akhir II</t>
+  </si>
+  <si>
+    <t>Rekayasa Perangkat Lunak Spesifik Domain</t>
+  </si>
+  <si>
+    <t>Sistem &amp; Arsitektur Komputer A</t>
+  </si>
+  <si>
+    <t>Sistem &amp; Arsitektur Komputer B</t>
+  </si>
+  <si>
+    <t>Algoritma &amp; Pemrograman A</t>
+  </si>
+  <si>
+    <t>Algoritma &amp; Pemrograman B</t>
+  </si>
+  <si>
+    <t>Manajemen Informasi A</t>
+  </si>
+  <si>
+    <t>Manajemen Informasi B</t>
+  </si>
+  <si>
+    <t>Metodologi Penelitian/Tesis 1</t>
+  </si>
+  <si>
+    <t>Teori Komputasi</t>
+  </si>
+  <si>
+    <t>Analisa Algoritma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Arsitektur Komputer Lanjut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rekayasa Kebutuhan Sistem &amp; Perangkat Lunak</t>
+  </si>
+  <si>
+    <t>Analisis &amp; Perancangan Perangkat Lunak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pembangunan Perangkat Lunak</t>
+  </si>
+  <si>
+    <t>Kualitas Perangkat Lunak</t>
+  </si>
+  <si>
+    <t>Evolusi Perangkat Lunak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kerekayasaan Enterprise</t>
+  </si>
+  <si>
+    <t>Pemodelan Enterprise</t>
+  </si>
+  <si>
+    <t>Pengantar Analisis Rangkaian</t>
+  </si>
+  <si>
+    <t>Rangkaian Elektrik</t>
+  </si>
+  <si>
+    <t>Sistem Digital</t>
+  </si>
+  <si>
+    <t>Struktur Diskrit</t>
+  </si>
+  <si>
+    <t>Probabilitas &amp; Statistika</t>
+  </si>
+  <si>
+    <t>Elektronika</t>
+  </si>
+  <si>
+    <t>Medan Elektromagnetik</t>
+  </si>
+  <si>
+    <t>Sinyal &amp; Sistem</t>
+  </si>
+  <si>
+    <t>Pemecahan Masalah dengan C</t>
+  </si>
+  <si>
+    <t>Elektronika Industri</t>
+  </si>
+  <si>
+    <t>Praktikum Rangkaian Elektrik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Praktikum Sistem Digita</t>
+  </si>
+  <si>
+    <t>Sistem Digital &amp; Mikroprosesor</t>
+  </si>
+  <si>
+    <t>Praktikum Elektronika</t>
+  </si>
+  <si>
+    <t>Praktikum Pemecahan Masalah dengan C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sistem &amp; Arsitektur Komputer</t>
+  </si>
+  <si>
+    <t>Elektronika II</t>
+  </si>
+  <si>
+    <t>Pengolahan Sinyal Digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Arsitektur Sistem Komputer</t>
+  </si>
+  <si>
+    <t>Material Teknik Elektro</t>
+  </si>
+  <si>
+    <t>Sistem Instrumentasi</t>
+  </si>
+  <si>
+    <t>Sistem Mikroprosesor</t>
+  </si>
+  <si>
+    <t>Sistem Kendali</t>
+  </si>
+  <si>
+    <t>Sistem Komunikasi</t>
+  </si>
+  <si>
+    <t>Sistem Tenaga Elektrik</t>
+  </si>
+  <si>
+    <t>Praktikum Elektronika II</t>
+  </si>
+  <si>
+    <t>Praktikum Pengolahan Sinyal Digital</t>
+  </si>
+  <si>
+    <t>Praktikum Arsitektur Sistem Komputer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Praktikum Sistem Mikroprosesor</t>
+  </si>
+  <si>
+    <t>Praktikum Sistem Kendali</t>
+  </si>
+  <si>
+    <t>Praktikum Sistem Komunikasi</t>
+  </si>
+  <si>
+    <t>Praktikum Sistem Tenaga Elektrik</t>
+  </si>
+  <si>
+    <t>Etika Profesi &amp; Rekayasa</t>
+  </si>
+  <si>
+    <t>Sistem Penggerak Elektrik</t>
+  </si>
+  <si>
+    <t>Tugas Akhir I (Capstone Design)</t>
+  </si>
+  <si>
+    <t>Tugas Akhir II (Capstone Design)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pengembangan Keprofesian &amp; Komunitas</t>
+  </si>
+  <si>
+    <t>Magang di Industri</t>
+  </si>
+  <si>
+    <t>Praktikum Sistem Instrumentasi</t>
+  </si>
+  <si>
+    <t>Perancangan Sistem Embedded</t>
+  </si>
+  <si>
+    <t>Praktikum Perancangan Sistem Embedded</t>
+  </si>
+  <si>
+    <t>Sistem Kendali Digital</t>
+  </si>
+  <si>
+    <t>Praktikum Sistem Kendali Digital</t>
+  </si>
+  <si>
+    <t>Pengolahan Citra Digital</t>
+  </si>
+  <si>
+    <t>Robotika</t>
+  </si>
+  <si>
+    <t>Arsitektur &amp; Komputasi Paralel</t>
+  </si>
+  <si>
+    <t>Perancangan Sistem Operasi</t>
+  </si>
+  <si>
+    <t>Devais Semikonduktor</t>
+  </si>
+  <si>
+    <t>Anatomi dan Fisiologi</t>
+  </si>
+  <si>
+    <t>Teknik Biomedika</t>
+  </si>
+  <si>
+    <t>Perancangan Sistem VLSI</t>
+  </si>
+  <si>
+    <t>Analisis &amp; Perancangan IC Digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dasar Sistem &amp; Kendali Cerdas</t>
+  </si>
+  <si>
+    <t>Sistem Kendali Multivariabel</t>
+  </si>
+  <si>
+    <t>Arsitektur Sistem Komputer II</t>
+  </si>
+  <si>
+    <t>Perancangan Perangkat Lunak Jaringan</t>
+  </si>
+  <si>
+    <t>Teknologi IC</t>
+  </si>
+  <si>
+    <t>Fenomena Transpor di Biomedika</t>
+  </si>
+  <si>
+    <t>Pengukuran Biosinyal</t>
+  </si>
+  <si>
+    <t>Mikroelektronika RF &amp; Mixed Signal</t>
+  </si>
+  <si>
+    <t>Matematika Lanjut</t>
+  </si>
+  <si>
+    <t>Kendali Optimal</t>
+  </si>
+  <si>
+    <t>Mekatronika</t>
+  </si>
+  <si>
+    <t>Grafika Komputer dan Pemrograman GPU</t>
+  </si>
+  <si>
+    <t>Sistem Intelijen</t>
+  </si>
+  <si>
+    <t>Desain Interaksi</t>
+  </si>
+  <si>
+    <t>Desain Aplikasi Interaktif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dasar Perencanaan dan Perancangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Apresiasi Arsitektur</t>
+  </si>
+  <si>
+    <t>Prinsip Desain Arsitektur</t>
+  </si>
+  <si>
+    <t>Studio Konstruksi dan Bahan Bangunan I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dasar-dasar Struktur Bangunan</t>
+  </si>
+  <si>
+    <t>Sejarah dan Tradisi Arsitektur Dunia</t>
+  </si>
+  <si>
+    <t>Lingkungan Binaan Berkelanjutan</t>
+  </si>
+  <si>
+    <t>Studio Perancangan Arsitektur I</t>
+  </si>
+  <si>
+    <t>Studio Gubahan Ruang dan Bentuk</t>
+  </si>
+  <si>
+    <t>Teori Desain Arsitektur</t>
+  </si>
+  <si>
+    <t>Perilaku dan Desain Arsitektur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sejarah dan Tradisi Arsitektur Indonesia</t>
+  </si>
+  <si>
+    <t>Studio Komputasi Arsitektur</t>
+  </si>
+  <si>
+    <t>Studio Perancangan Arsitektur II</t>
+  </si>
+  <si>
+    <t>Studio Perencanaan dan Perancangan Tapak</t>
+  </si>
+  <si>
+    <t>Prinsip Dasar Arsitektur Lanskap</t>
+  </si>
+  <si>
+    <t>Studio Konstruksi dan Bahan Bangunan II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Fisika Bangunan</t>
+  </si>
+  <si>
+    <t>Arsitektur Tepat Guna</t>
+  </si>
+  <si>
+    <t>Perkembangan Tipologi Arsitektur</t>
+  </si>
+  <si>
+    <t>Dokumentasi Bangunan Bersejarah</t>
+  </si>
+  <si>
+    <t>Studio Perancangan Arsitektur III</t>
+  </si>
+  <si>
+    <t>Pengantar Penelitian Arsitektur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Utilitas Bangunan</t>
+  </si>
+  <si>
+    <t>Manajemen Proyek</t>
+  </si>
+  <si>
+    <t>Arsitektur Kolonial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Arsitektur Indonesia Pasca Kemerdekaan</t>
+  </si>
+  <si>
+    <t>Perancangan Perumahan dan Permukiman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tipomorfologi Perumahan dan Permukiman</t>
+  </si>
+  <si>
+    <t>Studio Struktur dan Bentuk</t>
+  </si>
+  <si>
+    <t>Studio Perancangan Arsitektur IV</t>
+  </si>
+  <si>
+    <t>Persiapan Tugas Akhir</t>
+  </si>
+  <si>
+    <t>Ujian Komprehensif</t>
+  </si>
+  <si>
+    <t>Praktek Profesi Arsitek</t>
+  </si>
+  <si>
+    <t>Studio Perancangan Arsitektur V</t>
+  </si>
+  <si>
+    <t>Tugas Akhir</t>
+  </si>
+  <si>
+    <t>Pengantar Arsitektur Kota</t>
+  </si>
+  <si>
+    <t>Pendekatan Algoritmik dalam Perancangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Partisipasi Masyarakat dalam Perencanaan dan Perancangan Perumahan</t>
+  </si>
+  <si>
+    <t>Pengantar Real Estate</t>
+  </si>
+  <si>
+    <t>Seminar Arsitektur</t>
+  </si>
+  <si>
+    <t>Arsitektur dan Urbanisme</t>
+  </si>
+  <si>
+    <t>Pelestarian Bangunan dan Lingkungan</t>
+  </si>
+  <si>
+    <t>Ekonomi Bangunan</t>
+  </si>
+  <si>
+    <t>Pengantar BIM dalam Arsitektur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kritik Arsitektur</t>
+  </si>
+  <si>
+    <t>Arsitektur Islam</t>
+  </si>
+  <si>
+    <t>Permukiman Masyarakat Berpenghasilan Rendah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Studi Independen</t>
+  </si>
+  <si>
+    <t>Arsitektur dan Teknologi</t>
+  </si>
+  <si>
+    <t>Arsitektur Digital</t>
+  </si>
+  <si>
+    <t>Metodologi Penelitian</t>
+  </si>
+  <si>
+    <t>Analisis Data</t>
+  </si>
+  <si>
+    <t>Riset Tematik 1</t>
+  </si>
+  <si>
+    <t>Studio 1</t>
+  </si>
+  <si>
+    <t>Pemrograman Fasilitas</t>
+  </si>
+  <si>
+    <t>Etika Profesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Teori dan Kritik Arsitektur</t>
+  </si>
+  <si>
+    <t>Arsitektur Vernakular Indonesia</t>
+  </si>
+  <si>
+    <t>Perumahan dan Perkotaan</t>
+  </si>
+  <si>
+    <t>Analisis Lingkungan Binaan</t>
+  </si>
+  <si>
+    <t>Riset Tematik 2</t>
+  </si>
+  <si>
+    <t>Studio 2</t>
+  </si>
+  <si>
+    <t>Topik Khusus</t>
+  </si>
+  <si>
+    <t>Tesis Berbasis Desain</t>
+  </si>
+  <si>
+    <t>Budaya Lokal dan Perancangan Arsitektur</t>
+  </si>
+  <si>
+    <t>Teknologi Bangunan Bambu</t>
+  </si>
+  <si>
+    <t>Arsitektur Kontemporer Dunia</t>
+  </si>
+  <si>
+    <t>Perancangan Dalam Konteks Transformasi</t>
+  </si>
+  <si>
+    <t>Rekayasa Bahan Konstruksi Sipil</t>
+  </si>
+  <si>
+    <t>Analisis Statistik dan Probabilitas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Matematika Rekayasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Statika</t>
+  </si>
+  <si>
+    <t>Pengetahuan Struktur</t>
+  </si>
+  <si>
+    <t>Pengetahuan Statika dan Struktur</t>
+  </si>
+  <si>
+    <t>Pengantar Mekanika Tanah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mekanika Tanah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mekanika Fluida dan Hidraulika</t>
+  </si>
+  <si>
+    <t>Pengantar Rekayasa Transportasi</t>
+  </si>
+  <si>
+    <t>Metoda Numerik</t>
+  </si>
+  <si>
+    <t>Mekanika Bahan</t>
+  </si>
+  <si>
+    <t>Mekanika Tanah I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pengantar Mekanika Tanah dan Pondasi</t>
+  </si>
+  <si>
+    <t>Rekayasa Hidrologi</t>
+  </si>
+  <si>
+    <t>Rekayasa Lalu Lintas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Analisis Struktur I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Struktur Beton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mekanika Tanah II</t>
+  </si>
+  <si>
+    <t>Irigasi dan Drainase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Perancangan Geometrik Jalan</t>
+  </si>
+  <si>
+    <t>Manajemen Konstruksi</t>
+  </si>
+  <si>
+    <t>Analisis Struktur II</t>
+  </si>
+  <si>
+    <t>Struktur Baja</t>
+  </si>
+  <si>
+    <t>Dinamika Struktur &amp; Rekayasa Gempa</t>
+  </si>
+  <si>
+    <t>Rekayasa Pondasi</t>
+  </si>
+  <si>
+    <t>Perancangan Perkerasan Jalan</t>
+  </si>
+  <si>
+    <t>Metoda Pelaksanaan Konstruksi</t>
+  </si>
+  <si>
+    <t>Kerja Praktek/Magang</t>
+  </si>
+  <si>
+    <t>Rekayasa &amp; Perancangan Struktur</t>
+  </si>
+  <si>
+    <t>Struktur Beton Lanjut</t>
+  </si>
+  <si>
+    <t>Struktur Kayu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pengantar Dinamika Tanah dan Rekayasa Gempa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pengembangan Sumber Daya Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rekayasa Pantai dan Rawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Analisis Kebutuhan Pergerakan</t>
+  </si>
+  <si>
+    <t>Rekayasa Struktur dan Bahan Perkerasan</t>
+  </si>
+  <si>
+    <t>Manajemen Lalu Lintas</t>
+  </si>
+  <si>
+    <t>Ekonomi Teknik</t>
+  </si>
+  <si>
+    <t>Estimasi Biaya Konstruksi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Metode Konstruksi dan Manajemen Proyek Infrastruktur</t>
+  </si>
+  <si>
+    <t>Sistem Rekayasa Sipil</t>
+  </si>
+  <si>
+    <t>Beton Prategang</t>
+  </si>
+  <si>
+    <t>Struktur Baja Lanjut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dinding Penahan Tanah dan Stabilitas</t>
+  </si>
+  <si>
+    <t>Bangunan Air</t>
+  </si>
+  <si>
+    <t>Rekayasa Sungai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rekayasa Bangunan Tenaga Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rekayasa Jalan Rel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Evaluasi &amp; Pemeliharaan Perkerasan</t>
+  </si>
+  <si>
+    <t>Rekayasa Prasarana Antar Moda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Metoda Numerik Lanjut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Metodologi Penelitian</t>
+  </si>
+  <si>
+    <t>Analisis Rekayasa</t>
+  </si>
+  <si>
+    <t>Elastisitas dan Plastisitas</t>
+  </si>
+  <si>
+    <t>Mekanika Bahan Lanjut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Teknologi Beton Lanjut</t>
+  </si>
+  <si>
+    <t>Perilaku Struktur Beton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mekanika Tanah Lanjut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Penyelidikan Tanah Lapangan Dan Laboratorium</t>
+  </si>
+  <si>
+    <t>Perilaku Tanah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mekanika Fluida Lanjut</t>
+  </si>
+  <si>
+    <t>Perencanaan &amp; Pengelolaan SDA</t>
+  </si>
+  <si>
+    <t>Kebijakan dan Perencanaan Transportasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ekonomi Transportasi</t>
+  </si>
+  <si>
+    <t>Rekayasa Infrastruktur Transportasi</t>
+  </si>
+  <si>
+    <t>Produktivitas Konstruksi</t>
+  </si>
+  <si>
+    <t>Sistem Perencanaan dan Pengendalian Proyek</t>
   </si>
 </sst>
 </file>
@@ -1306,16 +2128,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="G263" sqref="G263"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1360,7 +2182,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1372,6 +2194,9 @@
       </c>
       <c r="D2" t="s">
         <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>298</v>
       </c>
       <c r="F2" t="s">
         <v>294</v>
@@ -1388,7 +2213,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1400,6 +2225,9 @@
       </c>
       <c r="D3" t="s">
         <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>299</v>
       </c>
       <c r="F3" t="s">
         <v>295</v>
@@ -1416,7 +2244,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1428,6 +2256,9 @@
       </c>
       <c r="D4" t="s">
         <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>300</v>
       </c>
       <c r="F4" t="s">
         <v>294</v>
@@ -1444,7 +2275,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1456,6 +2287,9 @@
       </c>
       <c r="D5" t="s">
         <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>301</v>
       </c>
       <c r="F5" t="s">
         <v>296</v>
@@ -1472,7 +2306,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1484,6 +2318,9 @@
       </c>
       <c r="D6" t="s">
         <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>302</v>
       </c>
       <c r="F6" t="s">
         <v>294</v>
@@ -1500,7 +2337,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1512,6 +2349,9 @@
       </c>
       <c r="D7" t="s">
         <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>303</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -1528,7 +2368,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1540,6 +2380,9 @@
       </c>
       <c r="D8" t="s">
         <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>304</v>
       </c>
       <c r="F8" t="s">
         <v>295</v>
@@ -1556,7 +2399,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1568,6 +2411,9 @@
       </c>
       <c r="D9" t="s">
         <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>305</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -1584,7 +2430,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1596,6 +2442,9 @@
       </c>
       <c r="D10" t="s">
         <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>306</v>
       </c>
       <c r="F10" t="s">
         <v>294</v>
@@ -1612,7 +2461,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -1624,6 +2473,9 @@
       </c>
       <c r="D11" t="s">
         <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>307</v>
       </c>
       <c r="F11" t="s">
         <v>294</v>
@@ -1640,7 +2492,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1011</v>
       </c>
@@ -1652,6 +2504,9 @@
       </c>
       <c r="D12" t="s">
         <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>308</v>
       </c>
       <c r="F12" t="s">
         <v>297</v>
@@ -1668,7 +2523,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1012</v>
       </c>
@@ -1680,6 +2535,9 @@
       </c>
       <c r="D13" t="s">
         <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>309</v>
       </c>
       <c r="F13" t="s">
         <v>296</v>
@@ -1696,7 +2554,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1013</v>
       </c>
@@ -1708,6 +2566,9 @@
       </c>
       <c r="D14" t="s">
         <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>310</v>
       </c>
       <c r="F14" t="s">
         <v>295</v>
@@ -1724,7 +2585,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1014</v>
       </c>
@@ -1736,6 +2597,9 @@
       </c>
       <c r="D15" t="s">
         <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>311</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -1752,7 +2616,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1015</v>
       </c>
@@ -1764,6 +2628,9 @@
       </c>
       <c r="D16" t="s">
         <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>312</v>
       </c>
       <c r="F16" t="s">
         <v>297</v>
@@ -1780,7 +2647,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1016</v>
       </c>
@@ -1792,6 +2659,9 @@
       </c>
       <c r="D17" t="s">
         <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>313</v>
       </c>
       <c r="F17" t="s">
         <v>295</v>
@@ -1808,7 +2678,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1017</v>
       </c>
@@ -1820,6 +2690,9 @@
       </c>
       <c r="D18" t="s">
         <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>314</v>
       </c>
       <c r="F18" t="s">
         <v>295</v>
@@ -1836,7 +2709,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1018</v>
       </c>
@@ -1848,6 +2721,9 @@
       </c>
       <c r="D19" t="s">
         <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>315</v>
       </c>
       <c r="F19" t="s">
         <v>295</v>
@@ -1864,7 +2740,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1019</v>
       </c>
@@ -1876,6 +2752,9 @@
       </c>
       <c r="D20" t="s">
         <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>316</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1892,7 +2771,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1020</v>
       </c>
@@ -1904,6 +2783,9 @@
       </c>
       <c r="D21" t="s">
         <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>317</v>
       </c>
       <c r="F21" t="s">
         <v>297</v>
@@ -1920,7 +2802,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1021</v>
       </c>
@@ -1932,6 +2814,9 @@
       </c>
       <c r="D22" t="s">
         <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>318</v>
       </c>
       <c r="F22" t="s">
         <v>297</v>
@@ -1948,7 +2833,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1022</v>
       </c>
@@ -1960,6 +2845,9 @@
       </c>
       <c r="D23" t="s">
         <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>319</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -1976,7 +2864,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1023</v>
       </c>
@@ -1988,6 +2876,9 @@
       </c>
       <c r="D24" t="s">
         <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>320</v>
       </c>
       <c r="F24" t="s">
         <v>295</v>
@@ -2004,7 +2895,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1024</v>
       </c>
@@ -2016,6 +2907,9 @@
       </c>
       <c r="D25" t="s">
         <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>321</v>
       </c>
       <c r="F25" t="s">
         <v>294</v>
@@ -2032,7 +2926,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1025</v>
       </c>
@@ -2044,6 +2938,9 @@
       </c>
       <c r="D26" t="s">
         <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>322</v>
       </c>
       <c r="F26" t="s">
         <v>294</v>
@@ -2060,7 +2957,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1026</v>
       </c>
@@ -2072,6 +2969,9 @@
       </c>
       <c r="D27" t="s">
         <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>323</v>
       </c>
       <c r="F27" t="s">
         <v>294</v>
@@ -2088,7 +2988,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1027</v>
       </c>
@@ -2100,6 +3000,9 @@
       </c>
       <c r="D28" t="s">
         <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>324</v>
       </c>
       <c r="F28" t="s">
         <v>296</v>
@@ -2116,7 +3019,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1028</v>
       </c>
@@ -2128,6 +3031,9 @@
       </c>
       <c r="D29" t="s">
         <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>325</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -2144,7 +3050,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1029</v>
       </c>
@@ -2156,6 +3062,9 @@
       </c>
       <c r="D30" t="s">
         <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>326</v>
       </c>
       <c r="F30" t="s">
         <v>296</v>
@@ -2172,7 +3081,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1030</v>
       </c>
@@ -2184,6 +3093,9 @@
       </c>
       <c r="D31" t="s">
         <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>327</v>
       </c>
       <c r="F31" t="s">
         <v>297</v>
@@ -2200,7 +3112,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1031</v>
       </c>
@@ -2212,6 +3124,9 @@
       </c>
       <c r="D32" t="s">
         <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>328</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -2228,7 +3143,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1032</v>
       </c>
@@ -2240,6 +3155,9 @@
       </c>
       <c r="D33" t="s">
         <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>329</v>
       </c>
       <c r="F33" t="s">
         <v>295</v>
@@ -2256,7 +3174,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1033</v>
       </c>
@@ -2268,6 +3186,9 @@
       </c>
       <c r="D34" t="s">
         <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>330</v>
       </c>
       <c r="F34" t="s">
         <v>296</v>
@@ -2284,7 +3205,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1034</v>
       </c>
@@ -2296,6 +3217,9 @@
       </c>
       <c r="D35" t="s">
         <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>331</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -2312,7 +3236,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1035</v>
       </c>
@@ -2324,6 +3248,9 @@
       </c>
       <c r="D36" t="s">
         <v>49</v>
+      </c>
+      <c r="E36" t="s">
+        <v>332</v>
       </c>
       <c r="F36" t="s">
         <v>296</v>
@@ -2340,7 +3267,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1036</v>
       </c>
@@ -2352,6 +3279,9 @@
       </c>
       <c r="D37" t="s">
         <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>333</v>
       </c>
       <c r="F37" t="s">
         <v>294</v>
@@ -2368,7 +3298,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1037</v>
       </c>
@@ -2380,6 +3310,9 @@
       </c>
       <c r="D38" t="s">
         <v>51</v>
+      </c>
+      <c r="E38" t="s">
+        <v>334</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -2396,7 +3329,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1038</v>
       </c>
@@ -2408,6 +3341,9 @@
       </c>
       <c r="D39" t="s">
         <v>52</v>
+      </c>
+      <c r="E39" t="s">
+        <v>335</v>
       </c>
       <c r="F39" t="s">
         <v>295</v>
@@ -2424,7 +3360,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1039</v>
       </c>
@@ -2436,6 +3372,9 @@
       </c>
       <c r="D40" t="s">
         <v>53</v>
+      </c>
+      <c r="E40" t="s">
+        <v>336</v>
       </c>
       <c r="F40" t="s">
         <v>295</v>
@@ -2452,7 +3391,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1040</v>
       </c>
@@ -2464,6 +3403,9 @@
       </c>
       <c r="D41" t="s">
         <v>54</v>
+      </c>
+      <c r="E41" t="s">
+        <v>337</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -2480,7 +3422,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1041</v>
       </c>
@@ -2493,6 +3435,9 @@
       <c r="D42" t="s">
         <v>55</v>
       </c>
+      <c r="E42" t="s">
+        <v>338</v>
+      </c>
       <c r="F42" t="s">
         <v>294</v>
       </c>
@@ -2500,7 +3445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1042</v>
       </c>
@@ -2513,6 +3458,9 @@
       <c r="D43" t="s">
         <v>56</v>
       </c>
+      <c r="E43" t="s">
+        <v>339</v>
+      </c>
       <c r="F43" t="s">
         <v>294</v>
       </c>
@@ -2520,7 +3468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1043</v>
       </c>
@@ -2533,6 +3481,9 @@
       <c r="D44" t="s">
         <v>57</v>
       </c>
+      <c r="E44" t="s">
+        <v>340</v>
+      </c>
       <c r="F44" t="s">
         <v>297</v>
       </c>
@@ -2540,7 +3491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1044</v>
       </c>
@@ -2553,6 +3504,9 @@
       <c r="D45" t="s">
         <v>58</v>
       </c>
+      <c r="E45" t="s">
+        <v>341</v>
+      </c>
       <c r="F45" t="s">
         <v>12</v>
       </c>
@@ -2560,7 +3514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1045</v>
       </c>
@@ -2573,6 +3527,9 @@
       <c r="D46" t="s">
         <v>59</v>
       </c>
+      <c r="E46" t="s">
+        <v>342</v>
+      </c>
       <c r="F46" t="s">
         <v>295</v>
       </c>
@@ -2580,7 +3537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1046</v>
       </c>
@@ -2593,6 +3550,9 @@
       <c r="D47" t="s">
         <v>60</v>
       </c>
+      <c r="E47" t="s">
+        <v>343</v>
+      </c>
       <c r="F47" t="s">
         <v>295</v>
       </c>
@@ -2600,7 +3560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1047</v>
       </c>
@@ -2613,6 +3573,9 @@
       <c r="D48" t="s">
         <v>61</v>
       </c>
+      <c r="E48" t="s">
+        <v>344</v>
+      </c>
       <c r="F48" t="s">
         <v>13</v>
       </c>
@@ -2620,7 +3583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1048</v>
       </c>
@@ -2633,6 +3596,9 @@
       <c r="D49" t="s">
         <v>62</v>
       </c>
+      <c r="E49" t="s">
+        <v>345</v>
+      </c>
       <c r="F49" t="s">
         <v>295</v>
       </c>
@@ -2640,7 +3606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1049</v>
       </c>
@@ -2653,6 +3619,9 @@
       <c r="D50" t="s">
         <v>63</v>
       </c>
+      <c r="E50" t="s">
+        <v>346</v>
+      </c>
       <c r="F50" t="s">
         <v>297</v>
       </c>
@@ -2660,7 +3629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1050</v>
       </c>
@@ -2673,6 +3642,9 @@
       <c r="D51" t="s">
         <v>64</v>
       </c>
+      <c r="E51" t="s">
+        <v>347</v>
+      </c>
       <c r="F51" t="s">
         <v>296</v>
       </c>
@@ -2680,7 +3652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1051</v>
       </c>
@@ -2693,6 +3665,9 @@
       <c r="D52" t="s">
         <v>65</v>
       </c>
+      <c r="E52" t="s">
+        <v>348</v>
+      </c>
       <c r="F52" t="s">
         <v>294</v>
       </c>
@@ -2700,7 +3675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1052</v>
       </c>
@@ -2713,6 +3688,9 @@
       <c r="D53" t="s">
         <v>66</v>
       </c>
+      <c r="E53" t="s">
+        <v>349</v>
+      </c>
       <c r="F53" t="s">
         <v>12</v>
       </c>
@@ -2720,7 +3698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1053</v>
       </c>
@@ -2733,6 +3711,9 @@
       <c r="D54" t="s">
         <v>67</v>
       </c>
+      <c r="E54" t="s">
+        <v>350</v>
+      </c>
       <c r="F54" t="s">
         <v>297</v>
       </c>
@@ -2740,7 +3721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1054</v>
       </c>
@@ -2753,6 +3734,9 @@
       <c r="D55" t="s">
         <v>68</v>
       </c>
+      <c r="E55" t="s">
+        <v>351</v>
+      </c>
       <c r="F55" t="s">
         <v>13</v>
       </c>
@@ -2760,7 +3744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1055</v>
       </c>
@@ -2773,6 +3757,9 @@
       <c r="D56" t="s">
         <v>69</v>
       </c>
+      <c r="E56" t="s">
+        <v>352</v>
+      </c>
       <c r="F56" t="s">
         <v>296</v>
       </c>
@@ -2780,7 +3767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1056</v>
       </c>
@@ -2793,6 +3780,9 @@
       <c r="D57" t="s">
         <v>70</v>
       </c>
+      <c r="E57" t="s">
+        <v>353</v>
+      </c>
       <c r="F57" t="s">
         <v>12</v>
       </c>
@@ -2800,7 +3790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1057</v>
       </c>
@@ -2813,6 +3803,9 @@
       <c r="D58" t="s">
         <v>71</v>
       </c>
+      <c r="E58" t="s">
+        <v>354</v>
+      </c>
       <c r="F58" t="s">
         <v>295</v>
       </c>
@@ -2820,7 +3813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1058</v>
       </c>
@@ -2833,6 +3826,9 @@
       <c r="D59" t="s">
         <v>72</v>
       </c>
+      <c r="E59" t="s">
+        <v>355</v>
+      </c>
       <c r="F59" t="s">
         <v>294</v>
       </c>
@@ -2840,7 +3836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1059</v>
       </c>
@@ -2853,6 +3849,9 @@
       <c r="D60" t="s">
         <v>73</v>
       </c>
+      <c r="E60" t="s">
+        <v>356</v>
+      </c>
       <c r="F60" t="s">
         <v>295</v>
       </c>
@@ -2860,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1060</v>
       </c>
@@ -2873,6 +3872,9 @@
       <c r="D61" t="s">
         <v>74</v>
       </c>
+      <c r="E61" t="s">
+        <v>357</v>
+      </c>
       <c r="F61" t="s">
         <v>295</v>
       </c>
@@ -2880,7 +3882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1061</v>
       </c>
@@ -2893,6 +3895,9 @@
       <c r="D62" t="s">
         <v>75</v>
       </c>
+      <c r="E62" t="s">
+        <v>358</v>
+      </c>
       <c r="F62" t="s">
         <v>12</v>
       </c>
@@ -2900,7 +3905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1062</v>
       </c>
@@ -2913,6 +3918,9 @@
       <c r="D63" t="s">
         <v>76</v>
       </c>
+      <c r="E63" t="s">
+        <v>359</v>
+      </c>
       <c r="F63" t="s">
         <v>294</v>
       </c>
@@ -2920,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1063</v>
       </c>
@@ -2933,6 +3941,9 @@
       <c r="D64" t="s">
         <v>77</v>
       </c>
+      <c r="E64" t="s">
+        <v>360</v>
+      </c>
       <c r="F64" t="s">
         <v>294</v>
       </c>
@@ -2940,7 +3951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1064</v>
       </c>
@@ -2953,6 +3964,9 @@
       <c r="D65" t="s">
         <v>78</v>
       </c>
+      <c r="E65" t="s">
+        <v>361</v>
+      </c>
       <c r="F65" t="s">
         <v>297</v>
       </c>
@@ -2960,7 +3974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1065</v>
       </c>
@@ -2973,6 +3987,9 @@
       <c r="D66" t="s">
         <v>79</v>
       </c>
+      <c r="E66" t="s">
+        <v>362</v>
+      </c>
       <c r="F66" t="s">
         <v>12</v>
       </c>
@@ -2980,7 +3997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1066</v>
       </c>
@@ -2993,6 +4010,9 @@
       <c r="D67" t="s">
         <v>80</v>
       </c>
+      <c r="E67" t="s">
+        <v>363</v>
+      </c>
       <c r="F67" t="s">
         <v>295</v>
       </c>
@@ -3000,7 +4020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1067</v>
       </c>
@@ -3013,6 +4033,9 @@
       <c r="D68" t="s">
         <v>81</v>
       </c>
+      <c r="E68" t="s">
+        <v>364</v>
+      </c>
       <c r="F68" t="s">
         <v>296</v>
       </c>
@@ -3020,7 +4043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1068</v>
       </c>
@@ -3033,6 +4056,9 @@
       <c r="D69" t="s">
         <v>82</v>
       </c>
+      <c r="E69" t="s">
+        <v>365</v>
+      </c>
       <c r="F69" t="s">
         <v>296</v>
       </c>
@@ -3040,7 +4066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1069</v>
       </c>
@@ -3053,6 +4079,9 @@
       <c r="D70" t="s">
         <v>83</v>
       </c>
+      <c r="E70" t="s">
+        <v>366</v>
+      </c>
       <c r="F70" t="s">
         <v>297</v>
       </c>
@@ -3060,7 +4089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1070</v>
       </c>
@@ -3073,6 +4102,9 @@
       <c r="D71" t="s">
         <v>84</v>
       </c>
+      <c r="E71" t="s">
+        <v>367</v>
+      </c>
       <c r="F71" t="s">
         <v>294</v>
       </c>
@@ -3080,7 +4112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2001</v>
       </c>
@@ -3093,6 +4125,9 @@
       <c r="D72" t="s">
         <v>85</v>
       </c>
+      <c r="E72" t="s">
+        <v>368</v>
+      </c>
       <c r="F72" t="s">
         <v>296</v>
       </c>
@@ -3100,7 +4135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2002</v>
       </c>
@@ -3113,6 +4148,9 @@
       <c r="D73" t="s">
         <v>86</v>
       </c>
+      <c r="E73" t="s">
+        <v>369</v>
+      </c>
       <c r="F73" t="s">
         <v>294</v>
       </c>
@@ -3120,7 +4158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2003</v>
       </c>
@@ -3133,6 +4171,9 @@
       <c r="D74" t="s">
         <v>87</v>
       </c>
+      <c r="E74" t="s">
+        <v>370</v>
+      </c>
       <c r="F74" t="s">
         <v>12</v>
       </c>
@@ -3140,7 +4181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2004</v>
       </c>
@@ -3153,6 +4194,9 @@
       <c r="D75" t="s">
         <v>88</v>
       </c>
+      <c r="E75" t="s">
+        <v>371</v>
+      </c>
       <c r="F75" t="s">
         <v>297</v>
       </c>
@@ -3160,7 +4204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2005</v>
       </c>
@@ -3173,6 +4217,9 @@
       <c r="D76" t="s">
         <v>89</v>
       </c>
+      <c r="E76" t="s">
+        <v>372</v>
+      </c>
       <c r="F76" t="s">
         <v>297</v>
       </c>
@@ -3180,7 +4227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2006</v>
       </c>
@@ -3193,6 +4240,9 @@
       <c r="D77" t="s">
         <v>90</v>
       </c>
+      <c r="E77" t="s">
+        <v>373</v>
+      </c>
       <c r="F77" t="s">
         <v>12</v>
       </c>
@@ -3200,7 +4250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2007</v>
       </c>
@@ -3213,6 +4263,9 @@
       <c r="D78" t="s">
         <v>91</v>
       </c>
+      <c r="E78" t="s">
+        <v>374</v>
+      </c>
       <c r="F78" t="s">
         <v>295</v>
       </c>
@@ -3220,7 +4273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2008</v>
       </c>
@@ -3233,6 +4286,9 @@
       <c r="D79" t="s">
         <v>92</v>
       </c>
+      <c r="E79" t="s">
+        <v>375</v>
+      </c>
       <c r="F79" t="s">
         <v>295</v>
       </c>
@@ -3240,7 +4296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2009</v>
       </c>
@@ -3253,6 +4309,9 @@
       <c r="D80" t="s">
         <v>93</v>
       </c>
+      <c r="E80" t="s">
+        <v>376</v>
+      </c>
       <c r="F80" t="s">
         <v>12</v>
       </c>
@@ -3260,7 +4319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2010</v>
       </c>
@@ -3273,6 +4332,9 @@
       <c r="D81" t="s">
         <v>94</v>
       </c>
+      <c r="E81" t="s">
+        <v>377</v>
+      </c>
       <c r="F81" t="s">
         <v>294</v>
       </c>
@@ -3280,7 +4342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2011</v>
       </c>
@@ -3293,6 +4355,9 @@
       <c r="D82" t="s">
         <v>95</v>
       </c>
+      <c r="E82" t="s">
+        <v>378</v>
+      </c>
       <c r="F82" t="s">
         <v>12</v>
       </c>
@@ -3300,7 +4365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2012</v>
       </c>
@@ -3313,6 +4378,9 @@
       <c r="D83" t="s">
         <v>96</v>
       </c>
+      <c r="E83" t="s">
+        <v>379</v>
+      </c>
       <c r="F83" t="s">
         <v>294</v>
       </c>
@@ -3320,7 +4388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2013</v>
       </c>
@@ -3333,6 +4401,9 @@
       <c r="D84" t="s">
         <v>97</v>
       </c>
+      <c r="E84" t="s">
+        <v>380</v>
+      </c>
       <c r="F84" t="s">
         <v>296</v>
       </c>
@@ -3340,7 +4411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2014</v>
       </c>
@@ -3353,6 +4424,9 @@
       <c r="D85" t="s">
         <v>98</v>
       </c>
+      <c r="E85" t="s">
+        <v>381</v>
+      </c>
       <c r="F85" t="s">
         <v>294</v>
       </c>
@@ -3360,7 +4434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2015</v>
       </c>
@@ -3373,6 +4447,9 @@
       <c r="D86" t="s">
         <v>99</v>
       </c>
+      <c r="E86" t="s">
+        <v>382</v>
+      </c>
       <c r="F86" t="s">
         <v>297</v>
       </c>
@@ -3380,7 +4457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2016</v>
       </c>
@@ -3393,6 +4470,9 @@
       <c r="D87" t="s">
         <v>100</v>
       </c>
+      <c r="E87" t="s">
+        <v>383</v>
+      </c>
       <c r="F87" t="s">
         <v>13</v>
       </c>
@@ -3400,7 +4480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2017</v>
       </c>
@@ -3413,6 +4493,9 @@
       <c r="D88" t="s">
         <v>101</v>
       </c>
+      <c r="E88" t="s">
+        <v>384</v>
+      </c>
       <c r="F88" t="s">
         <v>13</v>
       </c>
@@ -3420,7 +4503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2018</v>
       </c>
@@ -3433,6 +4516,9 @@
       <c r="D89" t="s">
         <v>102</v>
       </c>
+      <c r="E89" t="s">
+        <v>385</v>
+      </c>
       <c r="F89" t="s">
         <v>294</v>
       </c>
@@ -3440,7 +4526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2019</v>
       </c>
@@ -3453,6 +4539,9 @@
       <c r="D90" t="s">
         <v>103</v>
       </c>
+      <c r="E90" t="s">
+        <v>386</v>
+      </c>
       <c r="F90" t="s">
         <v>12</v>
       </c>
@@ -3460,7 +4549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2020</v>
       </c>
@@ -3473,6 +4562,9 @@
       <c r="D91" t="s">
         <v>104</v>
       </c>
+      <c r="E91" t="s">
+        <v>387</v>
+      </c>
       <c r="F91" t="s">
         <v>297</v>
       </c>
@@ -3480,7 +4572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2021</v>
       </c>
@@ -3493,6 +4585,9 @@
       <c r="D92" t="s">
         <v>105</v>
       </c>
+      <c r="E92" t="s">
+        <v>388</v>
+      </c>
       <c r="F92" t="s">
         <v>12</v>
       </c>
@@ -3500,7 +4595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2022</v>
       </c>
@@ -3513,6 +4608,9 @@
       <c r="D93" t="s">
         <v>106</v>
       </c>
+      <c r="E93" t="s">
+        <v>389</v>
+      </c>
       <c r="F93" t="s">
         <v>295</v>
       </c>
@@ -3520,7 +4618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2023</v>
       </c>
@@ -3533,6 +4631,9 @@
       <c r="D94" t="s">
         <v>107</v>
       </c>
+      <c r="E94" t="s">
+        <v>390</v>
+      </c>
       <c r="F94" t="s">
         <v>296</v>
       </c>
@@ -3540,7 +4641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2024</v>
       </c>
@@ -3553,6 +4654,9 @@
       <c r="D95" t="s">
         <v>108</v>
       </c>
+      <c r="E95" t="s">
+        <v>391</v>
+      </c>
       <c r="F95" t="s">
         <v>296</v>
       </c>
@@ -3560,7 +4664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2025</v>
       </c>
@@ -3573,6 +4677,9 @@
       <c r="D96" t="s">
         <v>109</v>
       </c>
+      <c r="E96" t="s">
+        <v>392</v>
+      </c>
       <c r="F96" t="s">
         <v>294</v>
       </c>
@@ -3580,7 +4687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2026</v>
       </c>
@@ -3593,6 +4700,9 @@
       <c r="D97" t="s">
         <v>110</v>
       </c>
+      <c r="E97" t="s">
+        <v>393</v>
+      </c>
       <c r="F97" t="s">
         <v>296</v>
       </c>
@@ -3600,7 +4710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2027</v>
       </c>
@@ -3613,6 +4723,9 @@
       <c r="D98" t="s">
         <v>111</v>
       </c>
+      <c r="E98" t="s">
+        <v>394</v>
+      </c>
       <c r="F98" t="s">
         <v>296</v>
       </c>
@@ -3620,7 +4733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2028</v>
       </c>
@@ -3633,6 +4746,9 @@
       <c r="D99" t="s">
         <v>112</v>
       </c>
+      <c r="E99" t="s">
+        <v>395</v>
+      </c>
       <c r="F99" t="s">
         <v>294</v>
       </c>
@@ -3640,7 +4756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2029</v>
       </c>
@@ -3653,6 +4769,9 @@
       <c r="D100" t="s">
         <v>113</v>
       </c>
+      <c r="E100" t="s">
+        <v>396</v>
+      </c>
       <c r="F100" t="s">
         <v>13</v>
       </c>
@@ -3660,7 +4779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2030</v>
       </c>
@@ -3673,6 +4792,9 @@
       <c r="D101" t="s">
         <v>114</v>
       </c>
+      <c r="E101" t="s">
+        <v>397</v>
+      </c>
       <c r="F101" t="s">
         <v>13</v>
       </c>
@@ -3680,7 +4802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2031</v>
       </c>
@@ -3693,6 +4815,9 @@
       <c r="D102" t="s">
         <v>115</v>
       </c>
+      <c r="E102" t="s">
+        <v>398</v>
+      </c>
       <c r="F102" t="s">
         <v>295</v>
       </c>
@@ -3700,7 +4825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2032</v>
       </c>
@@ -3713,6 +4838,9 @@
       <c r="D103" t="s">
         <v>116</v>
       </c>
+      <c r="E103" t="s">
+        <v>399</v>
+      </c>
       <c r="F103" t="s">
         <v>295</v>
       </c>
@@ -3720,7 +4848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2033</v>
       </c>
@@ -3733,6 +4861,9 @@
       <c r="D104" t="s">
         <v>117</v>
       </c>
+      <c r="E104" t="s">
+        <v>400</v>
+      </c>
       <c r="F104" t="s">
         <v>295</v>
       </c>
@@ -3740,7 +4871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2034</v>
       </c>
@@ -3753,6 +4884,9 @@
       <c r="D105" t="s">
         <v>118</v>
       </c>
+      <c r="E105" t="s">
+        <v>401</v>
+      </c>
       <c r="F105" t="s">
         <v>294</v>
       </c>
@@ -3760,7 +4894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2035</v>
       </c>
@@ -3773,6 +4907,9 @@
       <c r="D106" t="s">
         <v>119</v>
       </c>
+      <c r="E106" t="s">
+        <v>402</v>
+      </c>
       <c r="F106" t="s">
         <v>294</v>
       </c>
@@ -3780,7 +4917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2036</v>
       </c>
@@ -3793,6 +4930,9 @@
       <c r="D107" t="s">
         <v>120</v>
       </c>
+      <c r="E107" t="s">
+        <v>403</v>
+      </c>
       <c r="F107" t="s">
         <v>297</v>
       </c>
@@ -3800,7 +4940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2037</v>
       </c>
@@ -3813,6 +4953,9 @@
       <c r="D108" t="s">
         <v>121</v>
       </c>
+      <c r="E108" t="s">
+        <v>347</v>
+      </c>
       <c r="F108" t="s">
         <v>13</v>
       </c>
@@ -3820,7 +4963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2038</v>
       </c>
@@ -3833,6 +4976,9 @@
       <c r="D109" t="s">
         <v>122</v>
       </c>
+      <c r="E109" t="s">
+        <v>404</v>
+      </c>
       <c r="F109" t="s">
         <v>295</v>
       </c>
@@ -3840,7 +4986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2039</v>
       </c>
@@ -3853,6 +4999,9 @@
       <c r="D110" t="s">
         <v>123</v>
       </c>
+      <c r="E110" t="s">
+        <v>405</v>
+      </c>
       <c r="F110" t="s">
         <v>13</v>
       </c>
@@ -3860,7 +5009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2040</v>
       </c>
@@ -3873,6 +5022,9 @@
       <c r="D111" t="s">
         <v>124</v>
       </c>
+      <c r="E111" t="s">
+        <v>406</v>
+      </c>
       <c r="F111" t="s">
         <v>296</v>
       </c>
@@ -3880,7 +5032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2041</v>
       </c>
@@ -3893,6 +5045,9 @@
       <c r="D112" t="s">
         <v>125</v>
       </c>
+      <c r="E112" t="s">
+        <v>316</v>
+      </c>
       <c r="F112" t="s">
         <v>13</v>
       </c>
@@ -3900,7 +5055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2042</v>
       </c>
@@ -3913,6 +5068,9 @@
       <c r="D113" t="s">
         <v>126</v>
       </c>
+      <c r="E113" t="s">
+        <v>407</v>
+      </c>
       <c r="F113" t="s">
         <v>12</v>
       </c>
@@ -3920,7 +5078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2043</v>
       </c>
@@ -3933,6 +5091,9 @@
       <c r="D114" t="s">
         <v>127</v>
       </c>
+      <c r="E114" t="s">
+        <v>408</v>
+      </c>
       <c r="F114" t="s">
         <v>296</v>
       </c>
@@ -3940,7 +5101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2044</v>
       </c>
@@ -3953,6 +5114,9 @@
       <c r="D115" t="s">
         <v>128</v>
       </c>
+      <c r="E115" t="s">
+        <v>409</v>
+      </c>
       <c r="F115" t="s">
         <v>297</v>
       </c>
@@ -3960,7 +5124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2045</v>
       </c>
@@ -3973,6 +5137,9 @@
       <c r="D116" t="s">
         <v>129</v>
       </c>
+      <c r="E116" t="s">
+        <v>410</v>
+      </c>
       <c r="F116" t="s">
         <v>295</v>
       </c>
@@ -3980,7 +5147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2046</v>
       </c>
@@ -3993,6 +5160,9 @@
       <c r="D117" t="s">
         <v>130</v>
       </c>
+      <c r="E117" t="s">
+        <v>411</v>
+      </c>
       <c r="F117" t="s">
         <v>297</v>
       </c>
@@ -4000,7 +5170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2047</v>
       </c>
@@ -4013,6 +5183,9 @@
       <c r="D118" t="s">
         <v>131</v>
       </c>
+      <c r="E118" t="s">
+        <v>412</v>
+      </c>
       <c r="F118" t="s">
         <v>297</v>
       </c>
@@ -4020,7 +5193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2048</v>
       </c>
@@ -4033,6 +5206,9 @@
       <c r="D119" t="s">
         <v>132</v>
       </c>
+      <c r="E119" t="s">
+        <v>413</v>
+      </c>
       <c r="F119" t="s">
         <v>12</v>
       </c>
@@ -4040,7 +5216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2049</v>
       </c>
@@ -4053,6 +5229,9 @@
       <c r="D120" t="s">
         <v>133</v>
       </c>
+      <c r="E120" t="s">
+        <v>414</v>
+      </c>
       <c r="F120" t="s">
         <v>13</v>
       </c>
@@ -4060,7 +5239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2050</v>
       </c>
@@ -4073,6 +5252,9 @@
       <c r="D121" t="s">
         <v>134</v>
       </c>
+      <c r="E121" t="s">
+        <v>415</v>
+      </c>
       <c r="F121" t="s">
         <v>12</v>
       </c>
@@ -4080,7 +5262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2051</v>
       </c>
@@ -4093,6 +5275,9 @@
       <c r="D122" t="s">
         <v>135</v>
       </c>
+      <c r="E122" t="s">
+        <v>416</v>
+      </c>
       <c r="F122" t="s">
         <v>12</v>
       </c>
@@ -4100,7 +5285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2052</v>
       </c>
@@ -4113,6 +5298,9 @@
       <c r="D123" t="s">
         <v>136</v>
       </c>
+      <c r="E123" t="s">
+        <v>417</v>
+      </c>
       <c r="F123" t="s">
         <v>12</v>
       </c>
@@ -4120,7 +5308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2053</v>
       </c>
@@ -4133,6 +5321,9 @@
       <c r="D124" t="s">
         <v>137</v>
       </c>
+      <c r="E124" t="s">
+        <v>418</v>
+      </c>
       <c r="F124" t="s">
         <v>12</v>
       </c>
@@ -4140,7 +5331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2054</v>
       </c>
@@ -4153,6 +5344,9 @@
       <c r="D125" t="s">
         <v>138</v>
       </c>
+      <c r="E125" t="s">
+        <v>419</v>
+      </c>
       <c r="F125" t="s">
         <v>297</v>
       </c>
@@ -4160,7 +5354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2055</v>
       </c>
@@ -4173,6 +5367,9 @@
       <c r="D126" t="s">
         <v>139</v>
       </c>
+      <c r="E126" t="s">
+        <v>420</v>
+      </c>
       <c r="F126" t="s">
         <v>294</v>
       </c>
@@ -4180,7 +5377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2056</v>
       </c>
@@ -4193,6 +5390,9 @@
       <c r="D127" t="s">
         <v>140</v>
       </c>
+      <c r="E127" t="s">
+        <v>421</v>
+      </c>
       <c r="F127" t="s">
         <v>295</v>
       </c>
@@ -4200,7 +5400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2057</v>
       </c>
@@ -4213,6 +5413,9 @@
       <c r="D128" t="s">
         <v>141</v>
       </c>
+      <c r="E128" t="s">
+        <v>422</v>
+      </c>
       <c r="F128" t="s">
         <v>297</v>
       </c>
@@ -4220,7 +5423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2058</v>
       </c>
@@ -4233,6 +5436,9 @@
       <c r="D129" t="s">
         <v>142</v>
       </c>
+      <c r="E129" t="s">
+        <v>423</v>
+      </c>
       <c r="F129" t="s">
         <v>297</v>
       </c>
@@ -4240,7 +5446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2059</v>
       </c>
@@ -4253,6 +5459,9 @@
       <c r="D130" t="s">
         <v>143</v>
       </c>
+      <c r="E130" t="s">
+        <v>424</v>
+      </c>
       <c r="F130" t="s">
         <v>297</v>
       </c>
@@ -4260,7 +5469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2060</v>
       </c>
@@ -4273,6 +5482,9 @@
       <c r="D131" t="s">
         <v>144</v>
       </c>
+      <c r="E131" t="s">
+        <v>425</v>
+      </c>
       <c r="F131" t="s">
         <v>295</v>
       </c>
@@ -4280,7 +5492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2061</v>
       </c>
@@ -4293,6 +5505,9 @@
       <c r="D132" t="s">
         <v>145</v>
       </c>
+      <c r="E132" t="s">
+        <v>426</v>
+      </c>
       <c r="F132" t="s">
         <v>297</v>
       </c>
@@ -4300,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2062</v>
       </c>
@@ -4313,6 +5528,9 @@
       <c r="D133" t="s">
         <v>146</v>
       </c>
+      <c r="E133" t="s">
+        <v>427</v>
+      </c>
       <c r="F133" t="s">
         <v>296</v>
       </c>
@@ -4320,7 +5538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2063</v>
       </c>
@@ -4333,6 +5551,9 @@
       <c r="D134" t="s">
         <v>147</v>
       </c>
+      <c r="E134" t="s">
+        <v>428</v>
+      </c>
       <c r="F134" t="s">
         <v>13</v>
       </c>
@@ -4340,7 +5561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2064</v>
       </c>
@@ -4353,6 +5574,9 @@
       <c r="D135" t="s">
         <v>148</v>
       </c>
+      <c r="E135" t="s">
+        <v>429</v>
+      </c>
       <c r="F135" t="s">
         <v>297</v>
       </c>
@@ -4360,7 +5584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2065</v>
       </c>
@@ -4373,6 +5597,9 @@
       <c r="D136" t="s">
         <v>149</v>
       </c>
+      <c r="E136" t="s">
+        <v>430</v>
+      </c>
       <c r="F136" t="s">
         <v>295</v>
       </c>
@@ -4380,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2066</v>
       </c>
@@ -4393,6 +5620,9 @@
       <c r="D137" t="s">
         <v>150</v>
       </c>
+      <c r="E137" t="s">
+        <v>431</v>
+      </c>
       <c r="F137" t="s">
         <v>12</v>
       </c>
@@ -4400,7 +5630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2067</v>
       </c>
@@ -4413,6 +5643,9 @@
       <c r="D138" t="s">
         <v>151</v>
       </c>
+      <c r="E138" t="s">
+        <v>432</v>
+      </c>
       <c r="F138" t="s">
         <v>296</v>
       </c>
@@ -4420,7 +5653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2068</v>
       </c>
@@ -4433,6 +5666,9 @@
       <c r="D139" t="s">
         <v>152</v>
       </c>
+      <c r="E139" t="s">
+        <v>433</v>
+      </c>
       <c r="F139" t="s">
         <v>297</v>
       </c>
@@ -4440,7 +5676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2069</v>
       </c>
@@ -4453,6 +5689,9 @@
       <c r="D140" t="s">
         <v>153</v>
       </c>
+      <c r="E140" t="s">
+        <v>434</v>
+      </c>
       <c r="F140" t="s">
         <v>13</v>
       </c>
@@ -4460,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>3001</v>
       </c>
@@ -4473,6 +5712,9 @@
       <c r="D141" t="s">
         <v>154</v>
       </c>
+      <c r="E141" t="s">
+        <v>435</v>
+      </c>
       <c r="F141" t="s">
         <v>12</v>
       </c>
@@ -4480,7 +5722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>3002</v>
       </c>
@@ -4493,6 +5735,9 @@
       <c r="D142" t="s">
         <v>155</v>
       </c>
+      <c r="E142" t="s">
+        <v>436</v>
+      </c>
       <c r="F142" t="s">
         <v>297</v>
       </c>
@@ -4500,7 +5745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3003</v>
       </c>
@@ -4513,6 +5758,9 @@
       <c r="D143" t="s">
         <v>156</v>
       </c>
+      <c r="E143" t="s">
+        <v>437</v>
+      </c>
       <c r="F143" t="s">
         <v>12</v>
       </c>
@@ -4520,7 +5768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3004</v>
       </c>
@@ -4533,6 +5781,9 @@
       <c r="D144" t="s">
         <v>157</v>
       </c>
+      <c r="E144" t="s">
+        <v>438</v>
+      </c>
       <c r="F144" t="s">
         <v>296</v>
       </c>
@@ -4540,7 +5791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>3005</v>
       </c>
@@ -4553,6 +5804,9 @@
       <c r="D145" t="s">
         <v>158</v>
       </c>
+      <c r="E145" t="s">
+        <v>439</v>
+      </c>
       <c r="F145" t="s">
         <v>13</v>
       </c>
@@ -4560,7 +5814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>3006</v>
       </c>
@@ -4573,6 +5827,9 @@
       <c r="D146" t="s">
         <v>159</v>
       </c>
+      <c r="E146" t="s">
+        <v>440</v>
+      </c>
       <c r="F146" t="s">
         <v>13</v>
       </c>
@@ -4580,7 +5837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>3007</v>
       </c>
@@ -4593,6 +5850,9 @@
       <c r="D147" t="s">
         <v>160</v>
       </c>
+      <c r="E147" t="s">
+        <v>441</v>
+      </c>
       <c r="F147" t="s">
         <v>295</v>
       </c>
@@ -4600,7 +5860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3008</v>
       </c>
@@ -4613,6 +5873,9 @@
       <c r="D148" t="s">
         <v>161</v>
       </c>
+      <c r="E148" t="s">
+        <v>442</v>
+      </c>
       <c r="F148" t="s">
         <v>297</v>
       </c>
@@ -4620,7 +5883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3009</v>
       </c>
@@ -4633,6 +5896,9 @@
       <c r="D149" t="s">
         <v>162</v>
       </c>
+      <c r="E149" t="s">
+        <v>443</v>
+      </c>
       <c r="F149" t="s">
         <v>296</v>
       </c>
@@ -4640,7 +5906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>3010</v>
       </c>
@@ -4653,6 +5919,9 @@
       <c r="D150" t="s">
         <v>163</v>
       </c>
+      <c r="E150" t="s">
+        <v>444</v>
+      </c>
       <c r="F150" t="s">
         <v>297</v>
       </c>
@@ -4660,7 +5929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>3011</v>
       </c>
@@ -4673,6 +5942,9 @@
       <c r="D151" t="s">
         <v>164</v>
       </c>
+      <c r="E151" t="s">
+        <v>445</v>
+      </c>
       <c r="F151" t="s">
         <v>13</v>
       </c>
@@ -4680,7 +5952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>3012</v>
       </c>
@@ -4693,6 +5965,9 @@
       <c r="D152" t="s">
         <v>165</v>
       </c>
+      <c r="E152" t="s">
+        <v>446</v>
+      </c>
       <c r="F152" t="s">
         <v>294</v>
       </c>
@@ -4700,7 +5975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>3013</v>
       </c>
@@ -4713,6 +5988,9 @@
       <c r="D153" t="s">
         <v>166</v>
       </c>
+      <c r="E153" t="s">
+        <v>447</v>
+      </c>
       <c r="F153" t="s">
         <v>12</v>
       </c>
@@ -4720,7 +5998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>3014</v>
       </c>
@@ -4733,6 +6011,9 @@
       <c r="D154" t="s">
         <v>167</v>
       </c>
+      <c r="E154" t="s">
+        <v>448</v>
+      </c>
       <c r="F154" t="s">
         <v>297</v>
       </c>
@@ -4740,7 +6021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>3015</v>
       </c>
@@ -4753,6 +6034,9 @@
       <c r="D155" t="s">
         <v>168</v>
       </c>
+      <c r="E155" t="s">
+        <v>449</v>
+      </c>
       <c r="F155" t="s">
         <v>12</v>
       </c>
@@ -4760,7 +6044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>3016</v>
       </c>
@@ -4773,6 +6057,9 @@
       <c r="D156" t="s">
         <v>169</v>
       </c>
+      <c r="E156" t="s">
+        <v>450</v>
+      </c>
       <c r="F156" t="s">
         <v>295</v>
       </c>
@@ -4780,7 +6067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>3017</v>
       </c>
@@ -4793,6 +6080,9 @@
       <c r="D157" t="s">
         <v>170</v>
       </c>
+      <c r="E157" t="s">
+        <v>451</v>
+      </c>
       <c r="F157" t="s">
         <v>13</v>
       </c>
@@ -4800,7 +6090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>3018</v>
       </c>
@@ -4813,6 +6103,9 @@
       <c r="D158" t="s">
         <v>171</v>
       </c>
+      <c r="E158" t="s">
+        <v>452</v>
+      </c>
       <c r="F158" t="s">
         <v>294</v>
       </c>
@@ -4820,7 +6113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>3019</v>
       </c>
@@ -4833,6 +6126,9 @@
       <c r="D159" t="s">
         <v>172</v>
       </c>
+      <c r="E159" t="s">
+        <v>453</v>
+      </c>
       <c r="F159" t="s">
         <v>294</v>
       </c>
@@ -4840,7 +6136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>3020</v>
       </c>
@@ -4853,6 +6149,9 @@
       <c r="D160" t="s">
         <v>173</v>
       </c>
+      <c r="E160" t="s">
+        <v>454</v>
+      </c>
       <c r="F160" t="s">
         <v>295</v>
       </c>
@@ -4860,7 +6159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>3021</v>
       </c>
@@ -4873,6 +6172,9 @@
       <c r="D161" t="s">
         <v>174</v>
       </c>
+      <c r="E161" t="s">
+        <v>455</v>
+      </c>
       <c r="F161" t="s">
         <v>295</v>
       </c>
@@ -4880,7 +6182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>3022</v>
       </c>
@@ -4893,6 +6195,9 @@
       <c r="D162" t="s">
         <v>175</v>
       </c>
+      <c r="E162" t="s">
+        <v>456</v>
+      </c>
       <c r="F162" t="s">
         <v>296</v>
       </c>
@@ -4900,7 +6205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>3023</v>
       </c>
@@ -4913,6 +6218,9 @@
       <c r="D163" t="s">
         <v>176</v>
       </c>
+      <c r="E163" t="s">
+        <v>457</v>
+      </c>
       <c r="F163" t="s">
         <v>294</v>
       </c>
@@ -4920,7 +6228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>3024</v>
       </c>
@@ -4933,6 +6241,9 @@
       <c r="D164" t="s">
         <v>177</v>
       </c>
+      <c r="E164" t="s">
+        <v>458</v>
+      </c>
       <c r="F164" t="s">
         <v>295</v>
       </c>
@@ -4940,7 +6251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>3025</v>
       </c>
@@ -4953,6 +6264,9 @@
       <c r="D165" t="s">
         <v>178</v>
       </c>
+      <c r="E165" t="s">
+        <v>459</v>
+      </c>
       <c r="F165" t="s">
         <v>294</v>
       </c>
@@ -4960,7 +6274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>3026</v>
       </c>
@@ -4973,6 +6287,9 @@
       <c r="D166" t="s">
         <v>179</v>
       </c>
+      <c r="E166" t="s">
+        <v>460</v>
+      </c>
       <c r="F166" t="s">
         <v>294</v>
       </c>
@@ -4980,7 +6297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>3027</v>
       </c>
@@ -4993,6 +6310,9 @@
       <c r="D167" t="s">
         <v>180</v>
       </c>
+      <c r="E167" t="s">
+        <v>461</v>
+      </c>
       <c r="F167" t="s">
         <v>295</v>
       </c>
@@ -5000,7 +6320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>3028</v>
       </c>
@@ -5013,6 +6333,9 @@
       <c r="D168" t="s">
         <v>181</v>
       </c>
+      <c r="E168" t="s">
+        <v>462</v>
+      </c>
       <c r="F168" t="s">
         <v>296</v>
       </c>
@@ -5020,7 +6343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>3029</v>
       </c>
@@ -5033,6 +6356,9 @@
       <c r="D169" t="s">
         <v>182</v>
       </c>
+      <c r="E169" t="s">
+        <v>463</v>
+      </c>
       <c r="F169" t="s">
         <v>12</v>
       </c>
@@ -5040,7 +6366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>3030</v>
       </c>
@@ -5053,6 +6379,9 @@
       <c r="D170" t="s">
         <v>183</v>
       </c>
+      <c r="E170" t="s">
+        <v>464</v>
+      </c>
       <c r="F170" t="s">
         <v>295</v>
       </c>
@@ -5060,7 +6389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>3031</v>
       </c>
@@ -5073,6 +6402,9 @@
       <c r="D171" t="s">
         <v>184</v>
       </c>
+      <c r="E171" t="s">
+        <v>465</v>
+      </c>
       <c r="F171" t="s">
         <v>294</v>
       </c>
@@ -5080,7 +6412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>3032</v>
       </c>
@@ -5093,6 +6425,9 @@
       <c r="D172" t="s">
         <v>185</v>
       </c>
+      <c r="E172" t="s">
+        <v>466</v>
+      </c>
       <c r="F172" t="s">
         <v>296</v>
       </c>
@@ -5100,7 +6435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>3033</v>
       </c>
@@ -5113,6 +6448,9 @@
       <c r="D173" t="s">
         <v>186</v>
       </c>
+      <c r="E173" t="s">
+        <v>467</v>
+      </c>
       <c r="F173" t="s">
         <v>294</v>
       </c>
@@ -5120,7 +6458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>3034</v>
       </c>
@@ -5133,6 +6471,9 @@
       <c r="D174" t="s">
         <v>187</v>
       </c>
+      <c r="E174" t="s">
+        <v>468</v>
+      </c>
       <c r="F174" t="s">
         <v>296</v>
       </c>
@@ -5140,7 +6481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>3035</v>
       </c>
@@ -5153,6 +6494,9 @@
       <c r="D175" t="s">
         <v>188</v>
       </c>
+      <c r="E175" t="s">
+        <v>469</v>
+      </c>
       <c r="F175" t="s">
         <v>296</v>
       </c>
@@ -5160,7 +6504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>3036</v>
       </c>
@@ -5173,6 +6517,9 @@
       <c r="D176" t="s">
         <v>189</v>
       </c>
+      <c r="E176" t="s">
+        <v>470</v>
+      </c>
       <c r="F176" t="s">
         <v>295</v>
       </c>
@@ -5180,7 +6527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>3037</v>
       </c>
@@ -5193,6 +6540,9 @@
       <c r="D177" t="s">
         <v>190</v>
       </c>
+      <c r="E177" t="s">
+        <v>471</v>
+      </c>
       <c r="F177" t="s">
         <v>295</v>
       </c>
@@ -5200,7 +6550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>3038</v>
       </c>
@@ -5213,6 +6563,9 @@
       <c r="D178" t="s">
         <v>191</v>
       </c>
+      <c r="E178" t="s">
+        <v>472</v>
+      </c>
       <c r="F178" t="s">
         <v>295</v>
       </c>
@@ -5220,7 +6573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>3039</v>
       </c>
@@ -5233,6 +6586,9 @@
       <c r="D179" t="s">
         <v>192</v>
       </c>
+      <c r="E179" t="s">
+        <v>473</v>
+      </c>
       <c r="F179" t="s">
         <v>297</v>
       </c>
@@ -5240,7 +6596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>3040</v>
       </c>
@@ -5253,6 +6609,9 @@
       <c r="D180" t="s">
         <v>193</v>
       </c>
+      <c r="E180" t="s">
+        <v>474</v>
+      </c>
       <c r="F180" t="s">
         <v>295</v>
       </c>
@@ -5260,7 +6619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>3041</v>
       </c>
@@ -5273,6 +6632,9 @@
       <c r="D181" t="s">
         <v>194</v>
       </c>
+      <c r="E181" t="s">
+        <v>475</v>
+      </c>
       <c r="F181" t="s">
         <v>12</v>
       </c>
@@ -5280,7 +6642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>3042</v>
       </c>
@@ -5293,6 +6655,9 @@
       <c r="D182" t="s">
         <v>195</v>
       </c>
+      <c r="E182" t="s">
+        <v>476</v>
+      </c>
       <c r="F182" t="s">
         <v>294</v>
       </c>
@@ -5300,7 +6665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>3043</v>
       </c>
@@ -5313,6 +6678,9 @@
       <c r="D183" t="s">
         <v>196</v>
       </c>
+      <c r="E183" t="s">
+        <v>477</v>
+      </c>
       <c r="F183" t="s">
         <v>12</v>
       </c>
@@ -5320,7 +6688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>3044</v>
       </c>
@@ -5333,6 +6701,9 @@
       <c r="D184" t="s">
         <v>197</v>
       </c>
+      <c r="E184" t="s">
+        <v>478</v>
+      </c>
       <c r="F184" t="s">
         <v>13</v>
       </c>
@@ -5340,7 +6711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>3045</v>
       </c>
@@ -5353,6 +6724,9 @@
       <c r="D185" t="s">
         <v>198</v>
       </c>
+      <c r="E185" t="s">
+        <v>479</v>
+      </c>
       <c r="F185" t="s">
         <v>296</v>
       </c>
@@ -5360,7 +6734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>3046</v>
       </c>
@@ -5373,6 +6747,9 @@
       <c r="D186" t="s">
         <v>199</v>
       </c>
+      <c r="E186" t="s">
+        <v>480</v>
+      </c>
       <c r="F186" t="s">
         <v>296</v>
       </c>
@@ -5380,7 +6757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>3047</v>
       </c>
@@ -5393,6 +6770,9 @@
       <c r="D187" t="s">
         <v>200</v>
       </c>
+      <c r="E187" t="s">
+        <v>481</v>
+      </c>
       <c r="F187" t="s">
         <v>294</v>
       </c>
@@ -5400,7 +6780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>3048</v>
       </c>
@@ -5413,6 +6793,9 @@
       <c r="D188" t="s">
         <v>201</v>
       </c>
+      <c r="E188" t="s">
+        <v>482</v>
+      </c>
       <c r="F188" t="s">
         <v>13</v>
       </c>
@@ -5420,7 +6803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>3049</v>
       </c>
@@ -5433,6 +6816,9 @@
       <c r="D189" t="s">
         <v>202</v>
       </c>
+      <c r="E189" t="s">
+        <v>483</v>
+      </c>
       <c r="F189" t="s">
         <v>297</v>
       </c>
@@ -5440,7 +6826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>3050</v>
       </c>
@@ -5453,6 +6839,9 @@
       <c r="D190" t="s">
         <v>203</v>
       </c>
+      <c r="E190" t="s">
+        <v>484</v>
+      </c>
       <c r="F190" t="s">
         <v>296</v>
       </c>
@@ -5460,7 +6849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>3051</v>
       </c>
@@ -5473,6 +6862,9 @@
       <c r="D191" t="s">
         <v>204</v>
       </c>
+      <c r="E191" t="s">
+        <v>485</v>
+      </c>
       <c r="F191" t="s">
         <v>12</v>
       </c>
@@ -5480,7 +6872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>3052</v>
       </c>
@@ -5493,6 +6885,9 @@
       <c r="D192" t="s">
         <v>205</v>
       </c>
+      <c r="E192" t="s">
+        <v>486</v>
+      </c>
       <c r="F192" t="s">
         <v>297</v>
       </c>
@@ -5500,7 +6895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>3053</v>
       </c>
@@ -5513,6 +6908,9 @@
       <c r="D193" t="s">
         <v>206</v>
       </c>
+      <c r="E193" t="s">
+        <v>487</v>
+      </c>
       <c r="F193" t="s">
         <v>294</v>
       </c>
@@ -5520,7 +6918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>3054</v>
       </c>
@@ -5533,6 +6931,9 @@
       <c r="D194" t="s">
         <v>207</v>
       </c>
+      <c r="E194" t="s">
+        <v>488</v>
+      </c>
       <c r="F194" t="s">
         <v>13</v>
       </c>
@@ -5540,7 +6941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>3055</v>
       </c>
@@ -5553,6 +6954,9 @@
       <c r="D195" t="s">
         <v>208</v>
       </c>
+      <c r="E195" t="s">
+        <v>489</v>
+      </c>
       <c r="F195" t="s">
         <v>296</v>
       </c>
@@ -5560,7 +6964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>3056</v>
       </c>
@@ -5573,6 +6977,9 @@
       <c r="D196" t="s">
         <v>209</v>
       </c>
+      <c r="E196" t="s">
+        <v>490</v>
+      </c>
       <c r="F196" t="s">
         <v>296</v>
       </c>
@@ -5580,7 +6987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>3057</v>
       </c>
@@ -5593,6 +7000,9 @@
       <c r="D197" t="s">
         <v>210</v>
       </c>
+      <c r="E197" t="s">
+        <v>491</v>
+      </c>
       <c r="F197" t="s">
         <v>294</v>
       </c>
@@ -5600,7 +7010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>3058</v>
       </c>
@@ -5613,6 +7023,9 @@
       <c r="D198" t="s">
         <v>211</v>
       </c>
+      <c r="E198" t="s">
+        <v>492</v>
+      </c>
       <c r="F198" t="s">
         <v>296</v>
       </c>
@@ -5620,7 +7033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>3059</v>
       </c>
@@ -5633,6 +7046,9 @@
       <c r="D199" t="s">
         <v>212</v>
       </c>
+      <c r="E199" t="s">
+        <v>493</v>
+      </c>
       <c r="F199" t="s">
         <v>294</v>
       </c>
@@ -5640,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>3060</v>
       </c>
@@ -5653,6 +7069,9 @@
       <c r="D200" t="s">
         <v>213</v>
       </c>
+      <c r="E200" t="s">
+        <v>494</v>
+      </c>
       <c r="F200" t="s">
         <v>294</v>
       </c>
@@ -5660,7 +7079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>3061</v>
       </c>
@@ -5673,6 +7092,9 @@
       <c r="D201" t="s">
         <v>214</v>
       </c>
+      <c r="E201" t="s">
+        <v>495</v>
+      </c>
       <c r="F201" t="s">
         <v>12</v>
       </c>
@@ -5680,7 +7102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>3062</v>
       </c>
@@ -5693,6 +7115,9 @@
       <c r="D202" t="s">
         <v>215</v>
       </c>
+      <c r="E202" t="s">
+        <v>496</v>
+      </c>
       <c r="F202" t="s">
         <v>295</v>
       </c>
@@ -5700,7 +7125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>3063</v>
       </c>
@@ -5713,6 +7138,9 @@
       <c r="D203" t="s">
         <v>216</v>
       </c>
+      <c r="E203" t="s">
+        <v>497</v>
+      </c>
       <c r="F203" t="s">
         <v>12</v>
       </c>
@@ -5720,7 +7148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>3064</v>
       </c>
@@ -5733,6 +7161,9 @@
       <c r="D204" t="s">
         <v>217</v>
       </c>
+      <c r="E204" t="s">
+        <v>498</v>
+      </c>
       <c r="F204" t="s">
         <v>295</v>
       </c>
@@ -5740,7 +7171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>3065</v>
       </c>
@@ -5753,6 +7184,9 @@
       <c r="D205" t="s">
         <v>218</v>
       </c>
+      <c r="E205" t="s">
+        <v>483</v>
+      </c>
       <c r="F205" t="s">
         <v>296</v>
       </c>
@@ -5760,7 +7194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>3066</v>
       </c>
@@ -5773,6 +7207,9 @@
       <c r="D206" t="s">
         <v>219</v>
       </c>
+      <c r="E206" t="s">
+        <v>499</v>
+      </c>
       <c r="F206" t="s">
         <v>296</v>
       </c>
@@ -5780,7 +7217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>3067</v>
       </c>
@@ -5793,6 +7230,9 @@
       <c r="D207" t="s">
         <v>220</v>
       </c>
+      <c r="E207" t="s">
+        <v>500</v>
+      </c>
       <c r="F207" t="s">
         <v>297</v>
       </c>
@@ -5800,7 +7240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>3068</v>
       </c>
@@ -5813,6 +7253,9 @@
       <c r="D208" t="s">
         <v>221</v>
       </c>
+      <c r="E208" t="s">
+        <v>501</v>
+      </c>
       <c r="F208" t="s">
         <v>295</v>
       </c>
@@ -5820,7 +7263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>3069</v>
       </c>
@@ -5833,6 +7276,9 @@
       <c r="D209" t="s">
         <v>222</v>
       </c>
+      <c r="E209" t="s">
+        <v>502</v>
+      </c>
       <c r="F209" t="s">
         <v>294</v>
       </c>
@@ -5840,7 +7286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>3070</v>
       </c>
@@ -5853,6 +7299,9 @@
       <c r="D210" t="s">
         <v>223</v>
       </c>
+      <c r="E210" t="s">
+        <v>503</v>
+      </c>
       <c r="F210" t="s">
         <v>297</v>
       </c>
@@ -5860,7 +7309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>4001</v>
       </c>
@@ -5873,6 +7322,9 @@
       <c r="D211" t="s">
         <v>224</v>
       </c>
+      <c r="E211" t="s">
+        <v>504</v>
+      </c>
       <c r="F211" t="s">
         <v>294</v>
       </c>
@@ -5880,7 +7332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>4002</v>
       </c>
@@ -5893,6 +7345,9 @@
       <c r="D212" t="s">
         <v>225</v>
       </c>
+      <c r="E212" t="s">
+        <v>505</v>
+      </c>
       <c r="F212" t="s">
         <v>13</v>
       </c>
@@ -5900,7 +7355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>4003</v>
       </c>
@@ -5913,6 +7368,9 @@
       <c r="D213" t="s">
         <v>226</v>
       </c>
+      <c r="E213" t="s">
+        <v>506</v>
+      </c>
       <c r="F213" t="s">
         <v>12</v>
       </c>
@@ -5920,7 +7378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>4004</v>
       </c>
@@ -5933,6 +7391,9 @@
       <c r="D214" t="s">
         <v>227</v>
       </c>
+      <c r="E214" t="s">
+        <v>507</v>
+      </c>
       <c r="F214" t="s">
         <v>296</v>
       </c>
@@ -5940,7 +7401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>4005</v>
       </c>
@@ -5953,6 +7414,9 @@
       <c r="D215" t="s">
         <v>228</v>
       </c>
+      <c r="E215" t="s">
+        <v>508</v>
+      </c>
       <c r="F215" t="s">
         <v>13</v>
       </c>
@@ -5960,7 +7424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>4006</v>
       </c>
@@ -5973,6 +7437,9 @@
       <c r="D216" t="s">
         <v>229</v>
       </c>
+      <c r="E216" t="s">
+        <v>509</v>
+      </c>
       <c r="F216" t="s">
         <v>295</v>
       </c>
@@ -5980,7 +7447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>4007</v>
       </c>
@@ -5993,6 +7460,9 @@
       <c r="D217" t="s">
         <v>230</v>
       </c>
+      <c r="E217" t="s">
+        <v>510</v>
+      </c>
       <c r="F217" t="s">
         <v>294</v>
       </c>
@@ -6000,7 +7470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>4008</v>
       </c>
@@ -6013,6 +7483,9 @@
       <c r="D218" t="s">
         <v>231</v>
       </c>
+      <c r="E218" t="s">
+        <v>511</v>
+      </c>
       <c r="F218" t="s">
         <v>296</v>
       </c>
@@ -6020,7 +7493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>4009</v>
       </c>
@@ -6033,6 +7506,9 @@
       <c r="D219" t="s">
         <v>232</v>
       </c>
+      <c r="E219" t="s">
+        <v>512</v>
+      </c>
       <c r="F219" t="s">
         <v>295</v>
       </c>
@@ -6040,7 +7516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>4010</v>
       </c>
@@ -6053,6 +7529,9 @@
       <c r="D220" t="s">
         <v>233</v>
       </c>
+      <c r="E220" t="s">
+        <v>513</v>
+      </c>
       <c r="F220" t="s">
         <v>13</v>
       </c>
@@ -6060,7 +7539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>4011</v>
       </c>
@@ -6073,6 +7552,9 @@
       <c r="D221" t="s">
         <v>234</v>
       </c>
+      <c r="E221" t="s">
+        <v>514</v>
+      </c>
       <c r="F221" t="s">
         <v>297</v>
       </c>
@@ -6080,7 +7562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>4012</v>
       </c>
@@ -6093,6 +7575,9 @@
       <c r="D222" t="s">
         <v>235</v>
       </c>
+      <c r="E222" t="s">
+        <v>515</v>
+      </c>
       <c r="F222" t="s">
         <v>296</v>
       </c>
@@ -6100,7 +7585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>4013</v>
       </c>
@@ -6113,6 +7598,9 @@
       <c r="D223" t="s">
         <v>236</v>
       </c>
+      <c r="E223" t="s">
+        <v>516</v>
+      </c>
       <c r="F223" t="s">
         <v>296</v>
       </c>
@@ -6120,7 +7608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>4014</v>
       </c>
@@ -6133,6 +7621,9 @@
       <c r="D224" t="s">
         <v>237</v>
       </c>
+      <c r="E224" t="s">
+        <v>510</v>
+      </c>
       <c r="F224" t="s">
         <v>13</v>
       </c>
@@ -6140,7 +7631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>4015</v>
       </c>
@@ -6153,6 +7644,9 @@
       <c r="D225" t="s">
         <v>238</v>
       </c>
+      <c r="E225" t="s">
+        <v>517</v>
+      </c>
       <c r="F225" t="s">
         <v>12</v>
       </c>
@@ -6160,7 +7654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>4016</v>
       </c>
@@ -6173,6 +7667,9 @@
       <c r="D226" t="s">
         <v>239</v>
       </c>
+      <c r="E226" t="s">
+        <v>518</v>
+      </c>
       <c r="F226" t="s">
         <v>13</v>
       </c>
@@ -6180,7 +7677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>4017</v>
       </c>
@@ -6193,6 +7690,9 @@
       <c r="D227" t="s">
         <v>240</v>
       </c>
+      <c r="E227" t="s">
+        <v>519</v>
+      </c>
       <c r="F227" t="s">
         <v>295</v>
       </c>
@@ -6200,7 +7700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>4018</v>
       </c>
@@ -6213,6 +7713,9 @@
       <c r="D228" t="s">
         <v>241</v>
       </c>
+      <c r="E228" t="s">
+        <v>520</v>
+      </c>
       <c r="F228" t="s">
         <v>13</v>
       </c>
@@ -6220,7 +7723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>4019</v>
       </c>
@@ -6233,6 +7736,9 @@
       <c r="D229" t="s">
         <v>242</v>
       </c>
+      <c r="E229" t="s">
+        <v>521</v>
+      </c>
       <c r="F229" t="s">
         <v>296</v>
       </c>
@@ -6240,7 +7746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>4020</v>
       </c>
@@ -6253,6 +7759,9 @@
       <c r="D230" t="s">
         <v>243</v>
       </c>
+      <c r="E230" t="s">
+        <v>522</v>
+      </c>
       <c r="F230" t="s">
         <v>12</v>
       </c>
@@ -6260,7 +7769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>4021</v>
       </c>
@@ -6273,6 +7782,9 @@
       <c r="D231" t="s">
         <v>244</v>
       </c>
+      <c r="E231" t="s">
+        <v>523</v>
+      </c>
       <c r="F231" t="s">
         <v>295</v>
       </c>
@@ -6280,7 +7792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>4022</v>
       </c>
@@ -6293,6 +7805,9 @@
       <c r="D232" t="s">
         <v>245</v>
       </c>
+      <c r="E232" t="s">
+        <v>524</v>
+      </c>
       <c r="F232" t="s">
         <v>294</v>
       </c>
@@ -6300,7 +7815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>4023</v>
       </c>
@@ -6313,6 +7828,9 @@
       <c r="D233" t="s">
         <v>246</v>
       </c>
+      <c r="E233" t="s">
+        <v>525</v>
+      </c>
       <c r="F233" t="s">
         <v>13</v>
       </c>
@@ -6320,7 +7838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>4024</v>
       </c>
@@ -6333,6 +7851,9 @@
       <c r="D234" t="s">
         <v>247</v>
       </c>
+      <c r="E234" t="s">
+        <v>526</v>
+      </c>
       <c r="F234" t="s">
         <v>295</v>
       </c>
@@ -6340,7 +7861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>4025</v>
       </c>
@@ -6353,6 +7874,9 @@
       <c r="D235" t="s">
         <v>248</v>
       </c>
+      <c r="E235" t="s">
+        <v>527</v>
+      </c>
       <c r="F235" t="s">
         <v>295</v>
       </c>
@@ -6360,7 +7884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>4026</v>
       </c>
@@ -6373,6 +7897,9 @@
       <c r="D236" t="s">
         <v>249</v>
       </c>
+      <c r="E236" t="s">
+        <v>528</v>
+      </c>
       <c r="F236" t="s">
         <v>12</v>
       </c>
@@ -6380,7 +7907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>4027</v>
       </c>
@@ -6393,6 +7920,9 @@
       <c r="D237" t="s">
         <v>250</v>
       </c>
+      <c r="E237" t="s">
+        <v>529</v>
+      </c>
       <c r="F237" t="s">
         <v>13</v>
       </c>
@@ -6400,7 +7930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>4028</v>
       </c>
@@ -6413,6 +7943,9 @@
       <c r="D238" t="s">
         <v>251</v>
       </c>
+      <c r="E238" t="s">
+        <v>530</v>
+      </c>
       <c r="F238" t="s">
         <v>13</v>
       </c>
@@ -6420,7 +7953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>4029</v>
       </c>
@@ -6433,6 +7966,9 @@
       <c r="D239" t="s">
         <v>252</v>
       </c>
+      <c r="E239" t="s">
+        <v>531</v>
+      </c>
       <c r="F239" t="s">
         <v>294</v>
       </c>
@@ -6440,7 +7976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>4030</v>
       </c>
@@ -6453,6 +7989,9 @@
       <c r="D240" t="s">
         <v>253</v>
       </c>
+      <c r="E240" t="s">
+        <v>532</v>
+      </c>
       <c r="F240" t="s">
         <v>12</v>
       </c>
@@ -6460,7 +7999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>4031</v>
       </c>
@@ -6473,6 +8012,9 @@
       <c r="D241" t="s">
         <v>254</v>
       </c>
+      <c r="E241" t="s">
+        <v>470</v>
+      </c>
       <c r="F241" t="s">
         <v>294</v>
       </c>
@@ -6480,7 +8022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>4032</v>
       </c>
@@ -6493,6 +8035,9 @@
       <c r="D242" t="s">
         <v>255</v>
       </c>
+      <c r="E242" t="s">
+        <v>533</v>
+      </c>
       <c r="F242" t="s">
         <v>13</v>
       </c>
@@ -6500,7 +8045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>4033</v>
       </c>
@@ -6513,6 +8058,9 @@
       <c r="D243" t="s">
         <v>256</v>
       </c>
+      <c r="E243" t="s">
+        <v>534</v>
+      </c>
       <c r="F243" t="s">
         <v>12</v>
       </c>
@@ -6520,7 +8068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>4034</v>
       </c>
@@ -6533,6 +8081,9 @@
       <c r="D244" t="s">
         <v>257</v>
       </c>
+      <c r="E244" t="s">
+        <v>535</v>
+      </c>
       <c r="F244" t="s">
         <v>13</v>
       </c>
@@ -6540,7 +8091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>4035</v>
       </c>
@@ -6553,6 +8104,9 @@
       <c r="D245" t="s">
         <v>258</v>
       </c>
+      <c r="E245" t="s">
+        <v>536</v>
+      </c>
       <c r="F245" t="s">
         <v>296</v>
       </c>
@@ -6560,7 +8114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>4036</v>
       </c>
@@ -6573,6 +8127,9 @@
       <c r="D246" t="s">
         <v>259</v>
       </c>
+      <c r="E246" t="s">
+        <v>537</v>
+      </c>
       <c r="F246" t="s">
         <v>296</v>
       </c>
@@ -6580,7 +8137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>4037</v>
       </c>
@@ -6593,6 +8150,9 @@
       <c r="D247" t="s">
         <v>260</v>
       </c>
+      <c r="E247" t="s">
+        <v>538</v>
+      </c>
       <c r="F247" t="s">
         <v>294</v>
       </c>
@@ -6600,7 +8160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>4038</v>
       </c>
@@ -6613,6 +8173,9 @@
       <c r="D248" t="s">
         <v>261</v>
       </c>
+      <c r="E248" t="s">
+        <v>539</v>
+      </c>
       <c r="F248" t="s">
         <v>297</v>
       </c>
@@ -6620,7 +8183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>4039</v>
       </c>
@@ -6633,6 +8196,9 @@
       <c r="D249" t="s">
         <v>262</v>
       </c>
+      <c r="E249" t="s">
+        <v>540</v>
+      </c>
       <c r="F249" t="s">
         <v>297</v>
       </c>
@@ -6640,7 +8206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>4040</v>
       </c>
@@ -6653,6 +8219,9 @@
       <c r="D250" t="s">
         <v>263</v>
       </c>
+      <c r="E250" t="s">
+        <v>541</v>
+      </c>
       <c r="F250" t="s">
         <v>12</v>
       </c>
@@ -6660,7 +8229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>4041</v>
       </c>
@@ -6673,6 +8242,9 @@
       <c r="D251" t="s">
         <v>264</v>
       </c>
+      <c r="E251" t="s">
+        <v>542</v>
+      </c>
       <c r="F251" t="s">
         <v>297</v>
       </c>
@@ -6680,7 +8252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>4042</v>
       </c>
@@ -6693,6 +8265,9 @@
       <c r="D252" t="s">
         <v>265</v>
       </c>
+      <c r="E252" t="s">
+        <v>543</v>
+      </c>
       <c r="F252" t="s">
         <v>13</v>
       </c>
@@ -6700,7 +8275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>4043</v>
       </c>
@@ -6713,6 +8288,9 @@
       <c r="D253" t="s">
         <v>266</v>
       </c>
+      <c r="E253" t="s">
+        <v>544</v>
+      </c>
       <c r="F253" t="s">
         <v>296</v>
       </c>
@@ -6720,7 +8298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>4044</v>
       </c>
@@ -6733,6 +8311,9 @@
       <c r="D254" t="s">
         <v>267</v>
       </c>
+      <c r="E254" t="s">
+        <v>545</v>
+      </c>
       <c r="F254" t="s">
         <v>297</v>
       </c>
@@ -6740,7 +8321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>4045</v>
       </c>
@@ -6753,6 +8334,9 @@
       <c r="D255" t="s">
         <v>268</v>
       </c>
+      <c r="E255" t="s">
+        <v>546</v>
+      </c>
       <c r="F255" t="s">
         <v>13</v>
       </c>
@@ -6760,7 +8344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>4046</v>
       </c>
@@ -6773,6 +8357,9 @@
       <c r="D256" t="s">
         <v>269</v>
       </c>
+      <c r="E256" t="s">
+        <v>547</v>
+      </c>
       <c r="F256" t="s">
         <v>295</v>
       </c>
@@ -6780,7 +8367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>4047</v>
       </c>
@@ -6793,6 +8380,9 @@
       <c r="D257" t="s">
         <v>270</v>
       </c>
+      <c r="E257" t="s">
+        <v>548</v>
+      </c>
       <c r="F257" t="s">
         <v>297</v>
       </c>
@@ -6800,7 +8390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>4048</v>
       </c>
@@ -6813,6 +8403,9 @@
       <c r="D258" t="s">
         <v>271</v>
       </c>
+      <c r="E258" t="s">
+        <v>549</v>
+      </c>
       <c r="F258" t="s">
         <v>296</v>
       </c>
@@ -6820,7 +8413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>4049</v>
       </c>
@@ -6833,6 +8426,9 @@
       <c r="D259" t="s">
         <v>272</v>
       </c>
+      <c r="E259" t="s">
+        <v>550</v>
+      </c>
       <c r="F259" t="s">
         <v>12</v>
       </c>
@@ -6840,7 +8436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>4050</v>
       </c>
@@ -6853,6 +8449,9 @@
       <c r="D260" t="s">
         <v>273</v>
       </c>
+      <c r="E260" t="s">
+        <v>551</v>
+      </c>
       <c r="F260" t="s">
         <v>295</v>
       </c>
@@ -6860,7 +8459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>4051</v>
       </c>
@@ -6873,6 +8472,9 @@
       <c r="D261" t="s">
         <v>274</v>
       </c>
+      <c r="E261" t="s">
+        <v>552</v>
+      </c>
       <c r="F261" t="s">
         <v>297</v>
       </c>
@@ -6880,7 +8482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>4052</v>
       </c>
@@ -6893,6 +8495,9 @@
       <c r="D262" t="s">
         <v>275</v>
       </c>
+      <c r="E262" t="s">
+        <v>553</v>
+      </c>
       <c r="F262" t="s">
         <v>295</v>
       </c>
@@ -6900,7 +8505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>4053</v>
       </c>
@@ -6913,6 +8518,9 @@
       <c r="D263" t="s">
         <v>276</v>
       </c>
+      <c r="E263" t="s">
+        <v>554</v>
+      </c>
       <c r="F263" t="s">
         <v>297</v>
       </c>
@@ -6920,7 +8528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>4054</v>
       </c>
@@ -6933,6 +8541,9 @@
       <c r="D264" t="s">
         <v>277</v>
       </c>
+      <c r="E264" t="s">
+        <v>555</v>
+      </c>
       <c r="F264" t="s">
         <v>296</v>
       </c>
@@ -6940,7 +8551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>4055</v>
       </c>
@@ -6953,6 +8564,9 @@
       <c r="D265" t="s">
         <v>278</v>
       </c>
+      <c r="E265" t="s">
+        <v>556</v>
+      </c>
       <c r="F265" t="s">
         <v>294</v>
       </c>
@@ -6960,7 +8574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>4056</v>
       </c>
@@ -6973,6 +8587,9 @@
       <c r="D266" t="s">
         <v>279</v>
       </c>
+      <c r="E266" t="s">
+        <v>557</v>
+      </c>
       <c r="F266" t="s">
         <v>12</v>
       </c>
@@ -6980,7 +8597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>4057</v>
       </c>
@@ -6993,6 +8610,9 @@
       <c r="D267" t="s">
         <v>280</v>
       </c>
+      <c r="E267" t="s">
+        <v>558</v>
+      </c>
       <c r="F267" t="s">
         <v>295</v>
       </c>
@@ -7000,7 +8620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>4058</v>
       </c>
@@ -7013,6 +8633,9 @@
       <c r="D268" t="s">
         <v>281</v>
       </c>
+      <c r="E268" t="s">
+        <v>559</v>
+      </c>
       <c r="F268" t="s">
         <v>12</v>
       </c>
@@ -7020,7 +8643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>4059</v>
       </c>
@@ -7033,6 +8656,9 @@
       <c r="D269" t="s">
         <v>282</v>
       </c>
+      <c r="E269" t="s">
+        <v>560</v>
+      </c>
       <c r="F269" t="s">
         <v>296</v>
       </c>
@@ -7040,7 +8666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>4060</v>
       </c>
@@ -7053,6 +8679,9 @@
       <c r="D270" t="s">
         <v>283</v>
       </c>
+      <c r="E270" t="s">
+        <v>561</v>
+      </c>
       <c r="F270" t="s">
         <v>13</v>
       </c>
@@ -7060,7 +8689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>4061</v>
       </c>
@@ -7073,6 +8702,9 @@
       <c r="D271" t="s">
         <v>284</v>
       </c>
+      <c r="E271" t="s">
+        <v>562</v>
+      </c>
       <c r="F271" t="s">
         <v>13</v>
       </c>
@@ -7080,7 +8712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>4062</v>
       </c>
@@ -7093,6 +8725,9 @@
       <c r="D272" t="s">
         <v>285</v>
       </c>
+      <c r="E272" t="s">
+        <v>563</v>
+      </c>
       <c r="F272" t="s">
         <v>296</v>
       </c>
@@ -7100,7 +8735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>4063</v>
       </c>
@@ -7113,6 +8748,9 @@
       <c r="D273" t="s">
         <v>286</v>
       </c>
+      <c r="E273" t="s">
+        <v>564</v>
+      </c>
       <c r="F273" t="s">
         <v>297</v>
       </c>
@@ -7120,7 +8758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>4064</v>
       </c>
@@ -7133,6 +8771,9 @@
       <c r="D274" t="s">
         <v>287</v>
       </c>
+      <c r="E274" t="s">
+        <v>565</v>
+      </c>
       <c r="F274" t="s">
         <v>294</v>
       </c>
@@ -7140,7 +8781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>4065</v>
       </c>
@@ -7153,6 +8794,9 @@
       <c r="D275" t="s">
         <v>288</v>
       </c>
+      <c r="E275" t="s">
+        <v>566</v>
+      </c>
       <c r="F275" t="s">
         <v>295</v>
       </c>
@@ -7160,7 +8804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>4066</v>
       </c>
@@ -7173,6 +8817,9 @@
       <c r="D276" t="s">
         <v>289</v>
       </c>
+      <c r="E276" t="s">
+        <v>567</v>
+      </c>
       <c r="F276" t="s">
         <v>12</v>
       </c>
@@ -7180,7 +8827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>4067</v>
       </c>
@@ -7193,6 +8840,9 @@
       <c r="D277" t="s">
         <v>290</v>
       </c>
+      <c r="E277" t="s">
+        <v>568</v>
+      </c>
       <c r="F277" t="s">
         <v>296</v>
       </c>
@@ -7200,7 +8850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>4068</v>
       </c>
@@ -7213,6 +8863,9 @@
       <c r="D278" t="s">
         <v>291</v>
       </c>
+      <c r="E278" t="s">
+        <v>569</v>
+      </c>
       <c r="F278" t="s">
         <v>13</v>
       </c>
@@ -7220,7 +8873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>4069</v>
       </c>
@@ -7233,6 +8886,9 @@
       <c r="D279" t="s">
         <v>292</v>
       </c>
+      <c r="E279" t="s">
+        <v>570</v>
+      </c>
       <c r="F279" t="s">
         <v>12</v>
       </c>
@@ -7240,7 +8896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>4070</v>
       </c>
@@ -7252,6 +8908,9 @@
       </c>
       <c r="D280" t="s">
         <v>293</v>
+      </c>
+      <c r="E280" t="s">
+        <v>571</v>
       </c>
       <c r="F280" t="s">
         <v>294</v>
